--- a/data_xlsx/2022_full.xlsx
+++ b/data_xlsx/2022_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladz\PycharmProjects\pythonProject\data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3078D-597F-48C0-AF57-544610CBDA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A5AB3-C5AE-4178-AC7A-0EABE2F3C1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="12" activeTab="20" xr2:uid="{51E1E190-38BE-479B-9208-DDA24F648E37}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="19" activeTab="23" xr2:uid="{51E1E190-38BE-479B-9208-DDA24F648E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="52" r:id="rId1"/>
@@ -45,8 +45,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="14">'8. Кол-во гос.органов'!$2:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'10. Участие граждан'!$A$1:$R$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'11. Замещение'!$A$1:$R$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'12. Наставничество'!$A$1:$N$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">'13. Резерв'!$A$1:$R$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'12. Наставничество'!$A$1:$M$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'13. Резерв'!$B$1:$S$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="20">'14. Аттестация'!$B$1:$L$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="21">'15. Чины'!$A$1:$T$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="22">'17.1. Профразвитие'!$A$1:$I$23</definedName>
@@ -55,19 +55,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2.2. Гендерный МС'!$A$1:$F$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1. Возраст ГС'!$A$1:$M$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'3.2. Возраст МС'!$A$1:$M$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'4.1. Образовательный уровень ГС'!$A$1:$U$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'4.2. Образовательный уровень МС'!$A$1:$U$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'4.1. Образовательный уровень ГС'!$B$1:$V$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'4.2. Образовательный уровень МС'!$B$1:$V$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'6.1. Стаж ГС'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'6.2. Стаж МС'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'7. Сменяемость ГС'!$A$1:$Q$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'9. Конкурсы'!$A$1:$M$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="241">
   <si>
     <t>Республика Башкортостан</t>
   </si>
@@ -811,11 +811,6 @@
 с гос.тайной</t>
   </si>
   <si>
-    <t xml:space="preserve">Количество лиц, 
-в отношении которых 
-установлено наставничество </t>
-  </si>
-  <si>
     <t>Количество лиц, 
 впервые поступивших 
 на государственную службу</t>
@@ -2225,15 +2220,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2253,6 +2239,15 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2311,16 +2306,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2360,107 +2355,107 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2509,12 +2504,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2871,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="193" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="194"/>
       <c r="C1" s="194"/>
@@ -5211,19 +5206,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="K3" s="8"/>
@@ -6016,9 +6011,9 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6031,16 +6026,16 @@
       <c r="D3" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="198" t="s">
+      <c r="E3" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="200"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="206"/>
       <c r="M3" s="223" t="s">
         <v>210</v>
       </c>
@@ -6053,7 +6048,7 @@
       <c r="P3" s="223" t="s">
         <v>213</v>
       </c>
-      <c r="Q3" s="226" t="s">
+      <c r="Q3" s="227" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6089,7 +6084,7 @@
       <c r="N4" s="223"/>
       <c r="O4" s="223"/>
       <c r="P4" s="223"/>
-      <c r="Q4" s="227"/>
+      <c r="Q4" s="228"/>
     </row>
     <row r="5" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="108" t="s">
@@ -6973,6 +6968,10 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="11">
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -6980,10 +6979,6 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="E3:L3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7086,7 +7081,7 @@
         <v>-1</v>
       </c>
       <c r="F7" s="174" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.2">
@@ -7104,7 +7099,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="173" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7122,7 +7117,7 @@
         <v>-1</v>
       </c>
       <c r="F9" s="174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7190,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="173" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
@@ -7224,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="173" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7242,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7260,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="93.75" x14ac:dyDescent="0.2">
@@ -7278,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7390,15 +7385,15 @@
       <c r="M2" s="234"/>
     </row>
     <row r="3" spans="2:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
     </row>
     <row r="4" spans="2:17" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="198" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="237" t="s">
@@ -7423,12 +7418,12 @@
         <v>219</v>
       </c>
       <c r="M4" s="232" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="222"/>
-      <c r="C5" s="202"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="237"/>
       <c r="E5" s="240"/>
       <c r="F5" s="106" t="s">
@@ -8286,11 +8281,11 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
     </row>
@@ -8304,20 +8299,20 @@
       <c r="D4" s="208"/>
       <c r="E4" s="208"/>
       <c r="F4" s="209"/>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="2:20" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="230"/>
@@ -8337,16 +8332,16 @@
         <v>169</v>
       </c>
       <c r="L5" s="238"/>
-      <c r="M5" s="198" t="s">
+      <c r="M5" s="204" t="s">
         <v>170</v>
       </c>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="198" t="s">
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="204" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="200"/>
+      <c r="R5" s="206"/>
     </row>
     <row r="6" spans="2:20" ht="182.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="230"/>
@@ -9369,25 +9364,25 @@
     </row>
     <row r="22" spans="2:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="244" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" s="244"/>
-      <c r="D23" s="244"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="244"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="244"/>
-      <c r="K23" s="244"/>
-      <c r="L23" s="244"/>
-      <c r="M23" s="244"/>
-      <c r="N23" s="244"/>
-      <c r="O23" s="244"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244"/>
-      <c r="R23" s="244"/>
+      <c r="B23" s="241" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="241"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="241"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -9498,12 +9493,12 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="230" t="s">
@@ -9512,23 +9507,23 @@
       <c r="C4" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="D4" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="230"/>
@@ -9536,55 +9531,55 @@
       <c r="D5" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="248" t="s">
+      <c r="E5" s="249" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="248" t="s">
+      <c r="F5" s="250"/>
+      <c r="G5" s="249" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="249"/>
-      <c r="I5" s="248" t="s">
+      <c r="H5" s="250"/>
+      <c r="I5" s="249" t="s">
         <v>176</v>
       </c>
-      <c r="J5" s="249"/>
-      <c r="K5" s="245" t="s">
+      <c r="J5" s="250"/>
+      <c r="K5" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="247"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="247"/>
+      <c r="N5" s="247"/>
+      <c r="O5" s="247"/>
+      <c r="P5" s="247"/>
+      <c r="Q5" s="247"/>
+      <c r="R5" s="248"/>
     </row>
     <row r="6" spans="2:18" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="230"/>
       <c r="C6" s="237"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="245" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="246" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="253"/>
-      <c r="M6" s="198" t="s">
+      <c r="L6" s="254"/>
+      <c r="M6" s="204" t="s">
         <v>220</v>
       </c>
-      <c r="N6" s="252"/>
-      <c r="O6" s="198" t="s">
+      <c r="N6" s="253"/>
+      <c r="O6" s="204" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="198" t="s">
+      <c r="P6" s="253"/>
+      <c r="Q6" s="204" t="s">
         <v>93</v>
       </c>
-      <c r="R6" s="252"/>
+      <c r="R6" s="253"/>
     </row>
     <row r="7" spans="2:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="230"/>
@@ -10557,25 +10552,25 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="255" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="255"/>
-      <c r="D24" s="255"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="255"/>
-      <c r="G24" s="255"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="255"/>
-      <c r="L24" s="255"/>
-      <c r="M24" s="255"/>
-      <c r="N24" s="255"/>
-      <c r="O24" s="255"/>
-      <c r="P24" s="255"/>
-      <c r="Q24" s="255"/>
-      <c r="R24" s="255"/>
+      <c r="B24" s="245" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="245"/>
+      <c r="J24" s="245"/>
+      <c r="K24" s="245"/>
+      <c r="L24" s="245"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="245"/>
+      <c r="O24" s="245"/>
+      <c r="P24" s="245"/>
+      <c r="Q24" s="245"/>
+      <c r="R24" s="245"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -10610,35 +10605,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q25"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="16.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="16.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -10650,9 +10644,8 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="234" t="s">
         <v>95</v>
       </c>
@@ -10667,9 +10660,8 @@
       <c r="K2" s="234"/>
       <c r="L2" s="234"/>
       <c r="M2" s="234"/>
-      <c r="N2" s="234"/>
-    </row>
-    <row r="3" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -10677,982 +10669,914 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" spans="2:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+    </row>
+    <row r="4" spans="2:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="235" t="s">
+      <c r="D4" s="242" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="256"/>
+      <c r="F4" s="198" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="241" t="s">
+      <c r="G4" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="264"/>
-      <c r="G4" s="201" t="s">
+      <c r="H4" s="244"/>
+      <c r="I4" s="198" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="261" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="241" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="243"/>
-      <c r="J4" s="201" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="259" t="s">
-        <v>224</v>
-      </c>
-      <c r="L4" s="230" t="s">
+      <c r="K4" s="230" t="s">
         <v>98</v>
       </c>
+      <c r="L4" s="230"/>
       <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
-      <c r="P4" s="76"/>
-    </row>
-    <row r="5" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="230"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="266" t="s">
+      <c r="C5" s="255"/>
+      <c r="D5" s="258" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="262" t="s">
+      <c r="E5" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="257"/>
-      <c r="H5" s="235" t="s">
+      <c r="F5" s="267"/>
+      <c r="G5" s="235" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="259" t="s">
+      <c r="H5" s="261" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="257"/>
-      <c r="K5" s="269"/>
-      <c r="L5" s="235" t="s">
+      <c r="I5" s="267"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="230" t="s">
+      <c r="L5" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="230"/>
-      <c r="P5" s="76"/>
-    </row>
-    <row r="6" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="230"/>
+      <c r="O5" s="76"/>
+    </row>
+    <row r="6" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="230"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="257"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="265"/>
-      <c r="M6" s="235" t="s">
+      <c r="C6" s="255"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="235" t="s">
         <v>160</v>
       </c>
-      <c r="N6" s="262" t="s">
+      <c r="M6" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="271" t="s">
+      <c r="O6" s="273" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="256" t="s">
+      <c r="P6" s="269" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="230"/>
       <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="258"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="258"/>
-      <c r="K7" s="270"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="268"/>
+      <c r="J7" s="263"/>
+      <c r="K7" s="236"/>
       <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="263"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="256"/>
-    </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="272"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="269"/>
+    </row>
+    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="110">
-        <f>E8+H8+J8</f>
-        <v>86</v>
-      </c>
-      <c r="D8" s="98">
+      <c r="C8" s="98">
         <v>354</v>
       </c>
-      <c r="E8" s="111">
+      <c r="D8" s="111">
         <v>77</v>
       </c>
-      <c r="F8" s="101">
-        <f>E8/D8</f>
+      <c r="E8" s="101">
+        <f>D8/C8</f>
         <v>0.2175141242937853</v>
       </c>
+      <c r="F8" s="98">
+        <v>14</v>
+      </c>
       <c r="G8" s="98">
-        <v>14</v>
-      </c>
-      <c r="H8" s="98">
-        <v>0</v>
-      </c>
-      <c r="I8" s="101">
-        <f>H8/G8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="98">
+        <v>0</v>
+      </c>
+      <c r="H8" s="101">
+        <f>G8/F8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="98">
         <v>9</v>
       </c>
-      <c r="K8" s="101">
-        <f>J8/C8</f>
-        <v>0.10465116279069768</v>
+      <c r="J8" s="101" t="e">
+        <f>I8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="98">
+        <v>79</v>
       </c>
       <c r="L8" s="98">
-        <v>79</v>
-      </c>
-      <c r="M8" s="98">
-        <v>0</v>
-      </c>
-      <c r="N8" s="112">
-        <f>M8/L8</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="77">
-        <f>C8/(D8+G8+J8)</f>
-        <v>0.22811671087533156</v>
-      </c>
-      <c r="Q8" s="79">
-        <f>C8/'11. Замещение'!C8</f>
-        <v>6.2819576333089849E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="112">
+        <f>L8/K8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="44"/>
+      <c r="O8" s="77" t="e">
+        <f>#REF!/(C8+F8+I8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P8" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="110">
-        <f t="shared" ref="C9:C22" si="0">E9+H9+J9</f>
-        <v>86</v>
-      </c>
-      <c r="D9" s="98">
+      <c r="C9" s="98">
         <v>102</v>
       </c>
-      <c r="E9" s="111">
+      <c r="D9" s="111">
         <v>85</v>
       </c>
-      <c r="F9" s="101">
-        <f t="shared" ref="F9:F22" si="1">E9/D9</f>
+      <c r="E9" s="101">
+        <f t="shared" ref="E9:E22" si="0">D9/C9</f>
         <v>0.83333333333333337</v>
       </c>
+      <c r="F9" s="98">
+        <v>35</v>
+      </c>
       <c r="G9" s="98">
-        <v>35</v>
-      </c>
-      <c r="H9" s="98">
-        <v>0</v>
-      </c>
-      <c r="I9" s="101">
-        <f t="shared" ref="I9:I22" si="2">H9/G9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="98">
-        <v>1</v>
-      </c>
-      <c r="K9" s="101">
-        <f t="shared" ref="K9:K22" si="3">J9/C9</f>
-        <v>1.1627906976744186E-2</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="101">
+        <f t="shared" ref="H9:H22" si="1">G9/F9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="98">
+        <v>1</v>
+      </c>
+      <c r="J9" s="101" t="e">
+        <f>I9/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="98">
+        <v>84</v>
       </c>
       <c r="L9" s="98">
-        <v>84</v>
-      </c>
-      <c r="M9" s="98">
         <v>12</v>
       </c>
-      <c r="N9" s="112">
-        <f t="shared" ref="N9:N22" si="4">M9/L9</f>
+      <c r="M9" s="112">
+        <f t="shared" ref="M9:M22" si="2">L9/K9</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="77">
-        <f t="shared" ref="P9:P22" si="5">C9/(D9+G9+J9)</f>
-        <v>0.62318840579710144</v>
-      </c>
-      <c r="Q9" s="79">
-        <f>C9/'11. Замещение'!C9</f>
-        <v>0.21182266009852216</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="44"/>
+      <c r="O9" s="77" t="e">
+        <f>#REF!/(C9+F9+I9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C9</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="102">
+        <v>103</v>
+      </c>
+      <c r="D10" s="111">
+        <v>67</v>
+      </c>
+      <c r="E10" s="101">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D10" s="102">
-        <v>103</v>
-      </c>
-      <c r="E10" s="111">
-        <v>67</v>
-      </c>
-      <c r="F10" s="101">
+        <v>0.65048543689320393</v>
+      </c>
+      <c r="F10" s="98">
+        <v>21</v>
+      </c>
+      <c r="G10" s="98">
+        <v>0</v>
+      </c>
+      <c r="H10" s="101">
         <f t="shared" si="1"/>
-        <v>0.65048543689320393</v>
-      </c>
-      <c r="G10" s="98">
-        <v>21</v>
-      </c>
-      <c r="H10" s="98">
-        <v>0</v>
-      </c>
-      <c r="I10" s="101">
+        <v>0</v>
+      </c>
+      <c r="I10" s="98">
+        <v>5</v>
+      </c>
+      <c r="J10" s="101" t="e">
+        <f>I10/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="102">
+        <v>61</v>
+      </c>
+      <c r="L10" s="102">
+        <v>16</v>
+      </c>
+      <c r="M10" s="112">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="98">
-        <v>5</v>
-      </c>
-      <c r="K10" s="101">
-        <f t="shared" si="3"/>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="L10" s="102">
-        <v>61</v>
-      </c>
-      <c r="M10" s="102">
-        <v>16</v>
-      </c>
-      <c r="N10" s="112">
-        <f t="shared" si="4"/>
         <v>0.26229508196721313</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="77">
-        <f t="shared" si="5"/>
-        <v>0.55813953488372092</v>
-      </c>
-      <c r="Q10" s="79">
-        <f>C10/'11. Замещение'!C10</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="44"/>
+      <c r="O10" s="77" t="e">
+        <f>#REF!/(C10+F10+I10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P10" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C10</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C11" s="98">
+        <v>557</v>
+      </c>
+      <c r="D11" s="111">
+        <v>123</v>
+      </c>
+      <c r="E11" s="101">
         <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="D11" s="98">
-        <v>557</v>
-      </c>
-      <c r="E11" s="111">
-        <v>123</v>
-      </c>
-      <c r="F11" s="101">
+        <v>0.22082585278276481</v>
+      </c>
+      <c r="F11" s="98">
+        <v>62</v>
+      </c>
+      <c r="G11" s="99">
+        <v>6</v>
+      </c>
+      <c r="H11" s="101">
         <f t="shared" si="1"/>
-        <v>0.22082585278276481</v>
-      </c>
-      <c r="G11" s="98">
-        <v>62</v>
-      </c>
-      <c r="H11" s="99">
-        <v>6</v>
-      </c>
-      <c r="I11" s="101">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I11" s="99">
+        <v>26</v>
+      </c>
+      <c r="J11" s="101" t="e">
+        <f>I11/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="98">
+        <v>124</v>
+      </c>
+      <c r="L11" s="98">
+        <v>9</v>
+      </c>
+      <c r="M11" s="112">
         <f t="shared" si="2"/>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="J11" s="99">
-        <v>26</v>
-      </c>
-      <c r="K11" s="101">
-        <f t="shared" si="3"/>
-        <v>0.16774193548387098</v>
-      </c>
-      <c r="L11" s="98">
-        <v>124</v>
-      </c>
-      <c r="M11" s="98">
-        <v>9</v>
-      </c>
-      <c r="N11" s="112">
-        <f t="shared" si="4"/>
         <v>7.2580645161290328E-2</v>
       </c>
-      <c r="O11" s="44"/>
-      <c r="P11" s="77">
-        <f t="shared" si="5"/>
-        <v>0.24031007751937986</v>
-      </c>
-      <c r="Q11" s="79">
-        <f>C11/'11. Замещение'!C11</f>
-        <v>7.568359375E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="44"/>
+      <c r="O11" s="77" t="e">
+        <f>#REF!/(C11+F11+I11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P11" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C11</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="98">
+        <v>120</v>
+      </c>
+      <c r="D12" s="111">
+        <v>67</v>
+      </c>
+      <c r="E12" s="101">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="D12" s="98">
-        <v>120</v>
-      </c>
-      <c r="E12" s="111">
-        <v>67</v>
-      </c>
-      <c r="F12" s="101">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F12" s="98">
+        <v>5</v>
+      </c>
+      <c r="G12" s="98">
+        <v>0</v>
+      </c>
+      <c r="H12" s="101">
         <f t="shared" si="1"/>
-        <v>0.55833333333333335</v>
-      </c>
-      <c r="G12" s="98">
-        <v>5</v>
-      </c>
-      <c r="H12" s="98">
-        <v>0</v>
-      </c>
-      <c r="I12" s="101">
+        <v>0</v>
+      </c>
+      <c r="I12" s="98">
+        <v>0</v>
+      </c>
+      <c r="J12" s="101" t="e">
+        <f>I12/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K12" s="98">
+        <v>59</v>
+      </c>
+      <c r="L12" s="98">
+        <v>9</v>
+      </c>
+      <c r="M12" s="112">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="98">
-        <v>0</v>
-      </c>
-      <c r="K12" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="98">
-        <v>59</v>
-      </c>
-      <c r="M12" s="98">
-        <v>9</v>
-      </c>
-      <c r="N12" s="112">
-        <f t="shared" si="4"/>
         <v>0.15254237288135594</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="77">
-        <f t="shared" si="5"/>
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="Q12" s="79">
-        <f>C12/'11. Замещение'!C12</f>
-        <v>0.13590263691683571</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="44"/>
+      <c r="O12" s="77" t="e">
+        <f>#REF!/(C12+F12+I12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C12</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="98">
+        <v>122</v>
+      </c>
+      <c r="D13" s="111">
+        <v>98</v>
+      </c>
+      <c r="E13" s="101">
         <f t="shared" si="0"/>
+        <v>0.80327868852459017</v>
+      </c>
+      <c r="F13" s="98">
+        <v>6</v>
+      </c>
+      <c r="G13" s="98">
+        <v>0</v>
+      </c>
+      <c r="H13" s="101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="98">
+        <v>58</v>
+      </c>
+      <c r="J13" s="101" t="e">
+        <f>I13/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="98">
         <v>156</v>
       </c>
-      <c r="D13" s="98">
-        <v>122</v>
-      </c>
-      <c r="E13" s="111">
-        <v>98</v>
-      </c>
-      <c r="F13" s="101">
-        <f t="shared" si="1"/>
-        <v>0.80327868852459017</v>
-      </c>
-      <c r="G13" s="98">
-        <v>6</v>
-      </c>
-      <c r="H13" s="98">
-        <v>0</v>
-      </c>
-      <c r="I13" s="101">
+      <c r="L13" s="98">
+        <v>12</v>
+      </c>
+      <c r="M13" s="112">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="98">
-        <v>58</v>
-      </c>
-      <c r="K13" s="101">
-        <f t="shared" si="3"/>
-        <v>0.37179487179487181</v>
-      </c>
-      <c r="L13" s="98">
-        <v>156</v>
-      </c>
-      <c r="M13" s="98">
-        <v>12</v>
-      </c>
-      <c r="N13" s="112">
-        <f t="shared" si="4"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="77">
-        <f t="shared" si="5"/>
-        <v>0.83870967741935487</v>
-      </c>
-      <c r="Q13" s="79">
-        <f>C13/'11. Замещение'!C13</f>
-        <v>0.31771894093686354</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="44"/>
+      <c r="O13" s="77" t="e">
+        <f>#REF!/(C13+F13+I13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C13</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="98">
+        <v>335</v>
+      </c>
+      <c r="D14" s="111">
+        <v>241</v>
+      </c>
+      <c r="E14" s="101">
         <f t="shared" si="0"/>
-        <v>304</v>
-      </c>
-      <c r="D14" s="98">
-        <v>335</v>
-      </c>
-      <c r="E14" s="111">
-        <v>241</v>
-      </c>
-      <c r="F14" s="101">
+        <v>0.71940298507462686</v>
+      </c>
+      <c r="F14" s="98">
+        <v>22</v>
+      </c>
+      <c r="G14" s="98">
+        <v>2</v>
+      </c>
+      <c r="H14" s="101">
         <f t="shared" si="1"/>
-        <v>0.71940298507462686</v>
-      </c>
-      <c r="G14" s="98">
-        <v>22</v>
-      </c>
-      <c r="H14" s="98">
-        <v>2</v>
-      </c>
-      <c r="I14" s="101">
-        <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J14" s="98">
+      <c r="I14" s="98">
         <v>61</v>
       </c>
-      <c r="K14" s="101">
-        <f t="shared" si="3"/>
-        <v>0.20065789473684212</v>
+      <c r="J14" s="101" t="e">
+        <f>I14/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="98">
+        <v>243</v>
       </c>
       <c r="L14" s="98">
         <v>243</v>
       </c>
-      <c r="M14" s="98">
-        <v>243</v>
-      </c>
-      <c r="N14" s="112">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="77">
-        <f t="shared" si="5"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="Q14" s="79">
-        <f>C14/'11. Замещение'!C14</f>
-        <v>0.20159151193633953</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="112">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="44"/>
+      <c r="O14" s="77" t="e">
+        <f>#REF!/(C14+F14+I14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C14</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="98">
+        <v>104</v>
+      </c>
+      <c r="D15" s="111">
+        <v>104</v>
+      </c>
+      <c r="E15" s="101">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="D15" s="98">
-        <v>104</v>
-      </c>
-      <c r="E15" s="111">
-        <v>104</v>
-      </c>
-      <c r="F15" s="101">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="98">
+        <v>7</v>
       </c>
       <c r="G15" s="98">
         <v>7</v>
       </c>
-      <c r="H15" s="98">
-        <v>7</v>
-      </c>
-      <c r="I15" s="101">
+      <c r="H15" s="101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="98">
+        <v>0</v>
+      </c>
+      <c r="J15" s="101" t="e">
+        <f>I15/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="98">
+        <v>100</v>
+      </c>
+      <c r="L15" s="98">
+        <v>4</v>
+      </c>
+      <c r="M15" s="112">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="98">
-        <v>0</v>
-      </c>
-      <c r="K15" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="98">
-        <v>100</v>
-      </c>
-      <c r="M15" s="98">
-        <v>4</v>
-      </c>
-      <c r="N15" s="112">
-        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="77">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="79">
-        <f>C15/'11. Замещение'!C15</f>
-        <v>0.2810126582278481</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="44"/>
+      <c r="O15" s="77" t="e">
+        <f>#REF!/(C15+F15+I15)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C15</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="98">
+        <v>203</v>
+      </c>
+      <c r="D16" s="111">
+        <v>51</v>
+      </c>
+      <c r="E16" s="101">
         <f t="shared" si="0"/>
+        <v>0.25123152709359609</v>
+      </c>
+      <c r="F16" s="98">
+        <v>50</v>
+      </c>
+      <c r="G16" s="98">
+        <v>4</v>
+      </c>
+      <c r="H16" s="101">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="I16" s="98">
+        <v>76</v>
+      </c>
+      <c r="J16" s="101" t="e">
+        <f>I16/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="98">
         <v>131</v>
       </c>
-      <c r="D16" s="98">
-        <v>203</v>
-      </c>
-      <c r="E16" s="111">
-        <v>51</v>
-      </c>
-      <c r="F16" s="101">
-        <f t="shared" si="1"/>
-        <v>0.25123152709359609</v>
-      </c>
-      <c r="G16" s="98">
-        <v>50</v>
-      </c>
-      <c r="H16" s="98">
-        <v>4</v>
-      </c>
-      <c r="I16" s="101">
+      <c r="L16" s="98">
+        <v>0</v>
+      </c>
+      <c r="M16" s="112">
         <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-      <c r="J16" s="98">
-        <v>76</v>
-      </c>
-      <c r="K16" s="101">
-        <f t="shared" si="3"/>
-        <v>0.58015267175572516</v>
-      </c>
-      <c r="L16" s="98">
-        <v>131</v>
-      </c>
-      <c r="M16" s="98">
-        <v>0</v>
-      </c>
-      <c r="N16" s="112">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="77">
-        <f t="shared" si="5"/>
-        <v>0.3981762917933131</v>
-      </c>
-      <c r="Q16" s="79">
-        <f>C16/'11. Замещение'!C16</f>
-        <v>0.11603188662533215</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="44"/>
+      <c r="O16" s="77" t="e">
+        <f>#REF!/(C16+F16+I16)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P16" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C16</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="110">
+      <c r="C17" s="98">
+        <v>177</v>
+      </c>
+      <c r="D17" s="111">
+        <v>143</v>
+      </c>
+      <c r="E17" s="101">
         <f t="shared" si="0"/>
+        <v>0.80790960451977401</v>
+      </c>
+      <c r="F17" s="98">
+        <v>24</v>
+      </c>
+      <c r="G17" s="98">
+        <v>14</v>
+      </c>
+      <c r="H17" s="101">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I17" s="98">
+        <v>31</v>
+      </c>
+      <c r="J17" s="101" t="e">
+        <f>I17/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="98">
         <v>188</v>
       </c>
-      <c r="D17" s="98">
-        <v>177</v>
-      </c>
-      <c r="E17" s="111">
-        <v>143</v>
-      </c>
-      <c r="F17" s="101">
-        <f t="shared" si="1"/>
-        <v>0.80790960451977401</v>
-      </c>
-      <c r="G17" s="98">
-        <v>24</v>
-      </c>
-      <c r="H17" s="98">
-        <v>14</v>
-      </c>
-      <c r="I17" s="101">
+      <c r="L17" s="98">
+        <v>13</v>
+      </c>
+      <c r="M17" s="112">
         <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J17" s="98">
-        <v>31</v>
-      </c>
-      <c r="K17" s="101">
-        <f t="shared" si="3"/>
-        <v>0.16489361702127658</v>
-      </c>
-      <c r="L17" s="98">
-        <v>188</v>
-      </c>
-      <c r="M17" s="98">
-        <v>13</v>
-      </c>
-      <c r="N17" s="112">
-        <f t="shared" si="4"/>
         <v>6.9148936170212769E-2</v>
       </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="77">
-        <f t="shared" si="5"/>
-        <v>0.81034482758620685</v>
-      </c>
-      <c r="Q17" s="79">
-        <f>C17/'11. Замещение'!C17</f>
-        <v>0.31281198003327787</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="44"/>
+      <c r="O17" s="77" t="e">
+        <f>#REF!/(C17+F17+I17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C17</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="98">
+        <v>179</v>
+      </c>
+      <c r="D18" s="111">
+        <v>49</v>
+      </c>
+      <c r="E18" s="101">
         <f t="shared" si="0"/>
+        <v>0.27374301675977653</v>
+      </c>
+      <c r="F18" s="98">
+        <v>36</v>
+      </c>
+      <c r="G18" s="98">
+        <v>0</v>
+      </c>
+      <c r="H18" s="101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="98">
+        <v>21</v>
+      </c>
+      <c r="J18" s="101" t="e">
+        <f>I18/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K18" s="98">
         <v>70</v>
       </c>
-      <c r="D18" s="98">
-        <v>179</v>
-      </c>
-      <c r="E18" s="111">
-        <v>49</v>
-      </c>
-      <c r="F18" s="101">
-        <f t="shared" si="1"/>
-        <v>0.27374301675977653</v>
-      </c>
-      <c r="G18" s="98">
-        <v>36</v>
-      </c>
-      <c r="H18" s="98">
-        <v>0</v>
-      </c>
-      <c r="I18" s="101">
+      <c r="L18" s="98">
+        <v>23</v>
+      </c>
+      <c r="M18" s="112">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="98">
-        <v>21</v>
-      </c>
-      <c r="K18" s="101">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="L18" s="98">
-        <v>70</v>
-      </c>
-      <c r="M18" s="98">
-        <v>23</v>
-      </c>
-      <c r="N18" s="112">
-        <f t="shared" si="4"/>
         <v>0.32857142857142857</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="77">
-        <f t="shared" si="5"/>
-        <v>0.29661016949152541</v>
-      </c>
-      <c r="Q18" s="79">
-        <f>C18/'11. Замещение'!C18</f>
-        <v>0.10401188707280833</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="44"/>
+      <c r="O18" s="77" t="e">
+        <f>#REF!/(C18+F18+I18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P18" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C18</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="113">
+        <v>222</v>
+      </c>
+      <c r="D19" s="111">
+        <v>198</v>
+      </c>
+      <c r="E19" s="101">
         <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="D19" s="113">
-        <v>222</v>
-      </c>
-      <c r="E19" s="111">
-        <v>198</v>
-      </c>
-      <c r="F19" s="101">
+        <v>0.89189189189189189</v>
+      </c>
+      <c r="F19" s="98">
+        <v>36</v>
+      </c>
+      <c r="G19" s="98">
+        <v>6</v>
+      </c>
+      <c r="H19" s="101">
         <f t="shared" si="1"/>
-        <v>0.89189189189189189</v>
-      </c>
-      <c r="G19" s="98">
-        <v>36</v>
-      </c>
-      <c r="H19" s="98">
-        <v>6</v>
-      </c>
-      <c r="I19" s="101">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I19" s="98">
+        <v>19</v>
+      </c>
+      <c r="J19" s="101" t="e">
+        <f>I19/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K19" s="102">
+        <v>181</v>
+      </c>
+      <c r="L19" s="102">
+        <v>23</v>
+      </c>
+      <c r="M19" s="112">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J19" s="98">
-        <v>19</v>
-      </c>
-      <c r="K19" s="101">
-        <f t="shared" si="3"/>
-        <v>8.520179372197309E-2</v>
-      </c>
-      <c r="L19" s="102">
-        <v>181</v>
-      </c>
-      <c r="M19" s="102">
-        <v>23</v>
-      </c>
-      <c r="N19" s="112">
-        <f t="shared" si="4"/>
         <v>0.1270718232044199</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="77">
-        <f t="shared" si="5"/>
-        <v>0.80505415162454874</v>
-      </c>
-      <c r="Q19" s="79">
-        <f>C19/'11. Замещение'!C19</f>
-        <v>0.35340729001584786</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="44"/>
+      <c r="O19" s="77" t="e">
+        <f>#REF!/(C19+F19+I19)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P19" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C19</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="113">
+        <v>104</v>
+      </c>
+      <c r="D20" s="111">
+        <v>69</v>
+      </c>
+      <c r="E20" s="101">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="D20" s="113">
-        <v>104</v>
-      </c>
-      <c r="E20" s="111">
-        <v>69</v>
-      </c>
-      <c r="F20" s="101">
+        <v>0.66346153846153844</v>
+      </c>
+      <c r="F20" s="98">
+        <v>55</v>
+      </c>
+      <c r="G20" s="113">
+        <v>14</v>
+      </c>
+      <c r="H20" s="101">
         <f t="shared" si="1"/>
-        <v>0.66346153846153844</v>
-      </c>
-      <c r="G20" s="98">
-        <v>55</v>
-      </c>
-      <c r="H20" s="113">
-        <v>14</v>
-      </c>
-      <c r="I20" s="101">
+        <v>0.25454545454545452</v>
+      </c>
+      <c r="I20" s="113">
+        <v>18</v>
+      </c>
+      <c r="J20" s="101" t="e">
+        <f>I20/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K20" s="102">
+        <v>90</v>
+      </c>
+      <c r="L20" s="102">
+        <v>6</v>
+      </c>
+      <c r="M20" s="112">
         <f t="shared" si="2"/>
-        <v>0.25454545454545452</v>
-      </c>
-      <c r="J20" s="113">
-        <v>18</v>
-      </c>
-      <c r="K20" s="101">
-        <f t="shared" si="3"/>
-        <v>0.17821782178217821</v>
-      </c>
-      <c r="L20" s="102">
-        <v>90</v>
-      </c>
-      <c r="M20" s="102">
-        <v>6</v>
-      </c>
-      <c r="N20" s="112">
-        <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="77">
-        <f t="shared" si="5"/>
-        <v>0.57062146892655363</v>
-      </c>
-      <c r="Q20" s="79">
-        <f>C20/'11. Замещение'!C20</f>
-        <v>0.1703204047217538</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="44"/>
+      <c r="O20" s="77" t="e">
+        <f>#REF!/(C20+F20+I20)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P20" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C20</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="110">
+      <c r="C21" s="113">
+        <v>110</v>
+      </c>
+      <c r="D21" s="111">
+        <v>106</v>
+      </c>
+      <c r="E21" s="101">
         <f t="shared" si="0"/>
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="F21" s="98">
+        <v>63</v>
+      </c>
+      <c r="G21" s="113">
+        <v>50</v>
+      </c>
+      <c r="H21" s="101">
+        <f t="shared" si="1"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="I21" s="113">
+        <v>81</v>
+      </c>
+      <c r="J21" s="101" t="e">
+        <f>I21/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K21" s="102">
         <v>237</v>
       </c>
-      <c r="D21" s="113">
-        <v>110</v>
-      </c>
-      <c r="E21" s="111">
-        <v>106</v>
-      </c>
-      <c r="F21" s="101">
-        <f t="shared" si="1"/>
-        <v>0.96363636363636362</v>
-      </c>
-      <c r="G21" s="98">
-        <v>63</v>
-      </c>
-      <c r="H21" s="113">
-        <v>50</v>
-      </c>
-      <c r="I21" s="101">
+      <c r="L21" s="102">
+        <v>97</v>
+      </c>
+      <c r="M21" s="112">
         <f t="shared" si="2"/>
-        <v>0.79365079365079361</v>
-      </c>
-      <c r="J21" s="113">
-        <v>81</v>
-      </c>
-      <c r="K21" s="101">
-        <f t="shared" si="3"/>
-        <v>0.34177215189873417</v>
-      </c>
-      <c r="L21" s="102">
-        <v>237</v>
-      </c>
-      <c r="M21" s="102">
-        <v>97</v>
-      </c>
-      <c r="N21" s="112">
-        <f t="shared" si="4"/>
         <v>0.40928270042194093</v>
       </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="77">
-        <f t="shared" si="5"/>
-        <v>0.93307086614173229</v>
-      </c>
-      <c r="Q21" s="79">
-        <f>C21/'11. Замещение'!C21</f>
-        <v>0.52202643171806162</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="44"/>
+      <c r="O21" s="77" t="e">
+        <f>#REF!/(C21+F21+I21)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P21" s="79" t="e">
+        <f>#REF!/'11. Замещение'!C21</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="114">
-        <f t="shared" si="0"/>
-        <v>1987</v>
+      <c r="C22" s="104">
+        <f>SUM(C8:C21)</f>
+        <v>2792</v>
       </c>
       <c r="D22" s="104">
         <f>SUM(D8:D21)</f>
-        <v>2792</v>
-      </c>
-      <c r="E22" s="104">
-        <f>SUM(E8:E21)</f>
         <v>1478</v>
       </c>
-      <c r="F22" s="103">
-        <f t="shared" si="1"/>
+      <c r="E22" s="103">
+        <f t="shared" si="0"/>
         <v>0.52936962750716332</v>
+      </c>
+      <c r="F22" s="105">
+        <f>SUM(F8:F21)</f>
+        <v>436</v>
       </c>
       <c r="G22" s="105">
         <f>SUM(G8:G21)</f>
-        <v>436</v>
-      </c>
-      <c r="H22" s="105">
-        <f>SUM(H8:H21)</f>
         <v>103</v>
       </c>
-      <c r="I22" s="103">
-        <f t="shared" si="2"/>
+      <c r="H22" s="103">
+        <f t="shared" si="1"/>
         <v>0.23623853211009174</v>
       </c>
-      <c r="J22" s="115">
-        <f>SUM(J8:J21)</f>
+      <c r="I22" s="115">
+        <f>SUM(I8:I21)</f>
         <v>406</v>
       </c>
-      <c r="K22" s="103">
-        <f t="shared" si="3"/>
-        <v>0.20432813286361348</v>
+      <c r="J22" s="103" t="e">
+        <f>I22/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="115">
+        <f>SUM(K8:K21)</f>
+        <v>1803</v>
       </c>
       <c r="L22" s="115">
         <f>SUM(L8:L21)</f>
-        <v>1803</v>
-      </c>
-      <c r="M22" s="115">
-        <f>SUM(M8:M21)</f>
         <v>467</v>
       </c>
-      <c r="N22" s="116">
-        <f t="shared" si="4"/>
+      <c r="M22" s="116">
+        <f t="shared" si="2"/>
         <v>0.25901275651691624</v>
       </c>
-      <c r="O22" s="44"/>
-      <c r="P22" s="78">
-        <f t="shared" si="5"/>
-        <v>0.5467804072647221</v>
-      </c>
-      <c r="Q22" s="80">
-        <f>C22/'11. Замещение'!C22</f>
-        <v>0.17876743139901036</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K24" s="90" t="s">
+      <c r="N22" s="44"/>
+      <c r="O22" s="78" t="e">
+        <f>#REF!/(C22+F22+I22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P22" s="80" t="e">
+        <f>#REF!/'11. Замещение'!C22</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J24" s="90" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="90" t="s">
+    <row r="25" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="90" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
-  <mergeCells count="21">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="J3:K3"/>
+  <mergeCells count="20">
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11692,58 +11616,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
     </row>
     <row r="4" spans="2:18" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="204" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="198" t="s">
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="204" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="198" t="s">
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="198" t="s">
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="200"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="206"/>
     </row>
     <row r="5" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="205"/>
-      <c r="C5" s="201" t="s">
+      <c r="B5" s="202"/>
+      <c r="C5" s="198" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="195" t="s">
@@ -11751,7 +11675,7 @@
       </c>
       <c r="E5" s="196"/>
       <c r="F5" s="197"/>
-      <c r="G5" s="201" t="s">
+      <c r="G5" s="198" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="195" t="s">
@@ -11759,7 +11683,7 @@
       </c>
       <c r="I5" s="196"/>
       <c r="J5" s="197"/>
-      <c r="K5" s="201" t="s">
+      <c r="K5" s="198" t="s">
         <v>136</v>
       </c>
       <c r="L5" s="195" t="s">
@@ -11767,7 +11691,7 @@
       </c>
       <c r="M5" s="196"/>
       <c r="N5" s="197"/>
-      <c r="O5" s="201" t="s">
+      <c r="O5" s="198" t="s">
         <v>136</v>
       </c>
       <c r="P5" s="195" t="s">
@@ -11777,8 +11701,8 @@
       <c r="R5" s="197"/>
     </row>
     <row r="6" spans="2:18" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="206"/>
-      <c r="C6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="199"/>
       <c r="D6" s="20" t="s">
         <v>144</v>
       </c>
@@ -11788,7 +11712,7 @@
       <c r="F6" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="202"/>
+      <c r="G6" s="199"/>
       <c r="H6" s="20" t="s">
         <v>144</v>
       </c>
@@ -11798,7 +11722,7 @@
       <c r="J6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="202"/>
+      <c r="K6" s="199"/>
       <c r="L6" s="20" t="s">
         <v>140</v>
       </c>
@@ -11808,7 +11732,7 @@
       <c r="N6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="202"/>
+      <c r="O6" s="199"/>
       <c r="P6" s="20" t="s">
         <v>139</v>
       </c>
@@ -12759,39 +12683,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="B1:U23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="48" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="48" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="48" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="48" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="48" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="48" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="48" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="48" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="48" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="48" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="48" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="48" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="48" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="48" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="48" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="48" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="48" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="45"/>
+    <row r="1" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="40"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -12801,19 +12725,19 @@
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="46"/>
       <c r="N1" s="46"/>
       <c r="O1" s="46"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="234" t="s">
+      <c r="S1" s="46"/>
+    </row>
+    <row r="2" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="234"/>
       <c r="C2" s="234"/>
       <c r="D2" s="234"/>
       <c r="E2" s="234"/>
@@ -12830,10 +12754,10 @@
       <c r="P2" s="234"/>
       <c r="Q2" s="234"/>
       <c r="R2" s="234"/>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="47"/>
+      <c r="S2" s="234"/>
+    </row>
+    <row r="3" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
@@ -12841,67 +12765,67 @@
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
       <c r="N3" s="46"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-    </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="230" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="226"/>
+    </row>
+    <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="223" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="278" t="s">
+      <c r="C4" s="223" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="E4" s="242" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
       <c r="R4" s="243"/>
-    </row>
-    <row r="5" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="230"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="276"/>
-      <c r="D5" s="223" t="s">
+      <c r="S4" s="244"/>
+    </row>
+    <row r="5" spans="2:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="230"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="276"/>
+      <c r="E5" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="F5" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="275" t="s">
+      <c r="G5" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="223" t="s">
+      <c r="H5" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="275" t="s">
+      <c r="I5" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="279" t="s">
+      <c r="J5" s="279" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="280"/>
       <c r="K5" s="280"/>
       <c r="L5" s="280"/>
       <c r="M5" s="280"/>
@@ -12909,1117 +12833,1117 @@
       <c r="O5" s="280"/>
       <c r="P5" s="280"/>
       <c r="Q5" s="280"/>
-      <c r="R5" s="281"/>
-    </row>
-    <row r="6" spans="1:20" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="276"/>
-      <c r="D6" s="274"/>
+      <c r="R5" s="280"/>
+      <c r="S5" s="281"/>
+    </row>
+    <row r="6" spans="2:21" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="230"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="276"/>
       <c r="E6" s="274"/>
-      <c r="F6" s="276"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="276"/>
-      <c r="I6" s="24" t="s">
+      <c r="F6" s="274"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="L6" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="M6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="N6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="P6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="Q6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="R6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="S6" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="138">
+    <row r="7" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="138">
         <v>40</v>
       </c>
-      <c r="C7" s="101">
-        <f>B7/'8. Кол-во гос.органов'!C6</f>
+      <c r="D7" s="101">
+        <f>C7/'8. Кол-во гос.органов'!C6</f>
         <v>0.93023255813953487</v>
       </c>
-      <c r="D7" s="117">
-        <f>E7+G7</f>
+      <c r="E7" s="117">
+        <f>F7+H7</f>
         <v>2061</v>
       </c>
-      <c r="E7" s="98">
+      <c r="F7" s="98">
         <v>786</v>
       </c>
-      <c r="F7" s="101">
-        <f>E7/D7</f>
+      <c r="G7" s="101">
+        <f>F7/E7</f>
         <v>0.38136826783114991</v>
       </c>
-      <c r="G7" s="98">
+      <c r="H7" s="98">
         <v>1275</v>
       </c>
-      <c r="H7" s="101">
-        <f>G7/D7</f>
+      <c r="I7" s="101">
+        <f>H7/E7</f>
         <v>0.61863173216885003</v>
       </c>
-      <c r="I7" s="98">
+      <c r="J7" s="98">
         <v>1152</v>
       </c>
-      <c r="J7" s="101">
-        <f>I7/D7</f>
+      <c r="K7" s="101">
+        <f>J7/E7</f>
         <v>0.55895196506550215</v>
       </c>
-      <c r="K7" s="98">
+      <c r="L7" s="98">
         <v>544</v>
       </c>
-      <c r="L7" s="101">
-        <f>K7/D7</f>
+      <c r="M7" s="101">
+        <f>L7/E7</f>
         <v>0.26394953905870938</v>
       </c>
-      <c r="M7" s="98">
+      <c r="N7" s="98">
         <v>295</v>
       </c>
-      <c r="N7" s="101">
-        <f>M7/D7</f>
+      <c r="O7" s="101">
+        <f>N7/E7</f>
         <v>0.14313440077632217</v>
       </c>
-      <c r="O7" s="98">
+      <c r="P7" s="98">
         <v>70</v>
       </c>
-      <c r="P7" s="101">
-        <f>O7/D7</f>
+      <c r="Q7" s="101">
+        <f>P7/E7</f>
         <v>3.3964095099466275E-2</v>
       </c>
-      <c r="Q7" s="98">
-        <v>0</v>
-      </c>
-      <c r="R7" s="101">
-        <f>Q7/D7</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="49" t="b">
-        <f>E7+G7=I7+K7+M7+O7+Q7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="138">
+      <c r="R7" s="98">
+        <v>0</v>
+      </c>
+      <c r="S7" s="101">
+        <f>R7/E7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="49" t="b">
+        <f>F7+H7=J7+L7+N7+P7+R7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="138">
         <v>24</v>
       </c>
-      <c r="C8" s="101">
-        <f>B8/'8. Кол-во гос.органов'!C7</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="117">
-        <f t="shared" ref="D8:D21" si="0">E8+G8</f>
+      <c r="D8" s="101">
+        <f>C8/'8. Кол-во гос.органов'!C7</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="117">
+        <f t="shared" ref="E8:E21" si="0">F8+H8</f>
         <v>564</v>
       </c>
-      <c r="E8" s="98">
+      <c r="F8" s="98">
         <v>177</v>
       </c>
-      <c r="F8" s="101">
-        <f t="shared" ref="F8:F21" si="1">E8/D8</f>
+      <c r="G8" s="101">
+        <f t="shared" ref="G8:G21" si="1">F8/E8</f>
         <v>0.31382978723404253</v>
       </c>
-      <c r="G8" s="98">
+      <c r="H8" s="98">
         <v>387</v>
       </c>
-      <c r="H8" s="101">
-        <f t="shared" ref="H8:H21" si="2">G8/D8</f>
+      <c r="I8" s="101">
+        <f t="shared" ref="I8:I21" si="2">H8/E8</f>
         <v>0.68617021276595747</v>
       </c>
-      <c r="I8" s="98">
+      <c r="J8" s="98">
         <v>212</v>
       </c>
-      <c r="J8" s="101">
-        <f t="shared" ref="J8:J21" si="3">I8/D8</f>
+      <c r="K8" s="101">
+        <f t="shared" ref="K8:K21" si="3">J8/E8</f>
         <v>0.37588652482269502</v>
       </c>
-      <c r="K8" s="98">
+      <c r="L8" s="98">
         <v>150</v>
       </c>
-      <c r="L8" s="101">
-        <f t="shared" ref="L8:L21" si="4">K8/D8</f>
+      <c r="M8" s="101">
+        <f t="shared" ref="M8:M21" si="4">L8/E8</f>
         <v>0.26595744680851063</v>
       </c>
-      <c r="M8" s="98">
+      <c r="N8" s="98">
         <v>198</v>
       </c>
-      <c r="N8" s="101">
-        <f t="shared" ref="N8:N21" si="5">M8/D8</f>
+      <c r="O8" s="101">
+        <f t="shared" ref="O8:O21" si="5">N8/E8</f>
         <v>0.35106382978723405</v>
       </c>
-      <c r="O8" s="98">
+      <c r="P8" s="98">
         <v>3</v>
       </c>
-      <c r="P8" s="101">
-        <f t="shared" ref="P8:P21" si="6">O8/D8</f>
+      <c r="Q8" s="101">
+        <f t="shared" ref="Q8:Q21" si="6">P8/E8</f>
         <v>5.3191489361702126E-3</v>
       </c>
-      <c r="Q8" s="98">
-        <v>1</v>
-      </c>
-      <c r="R8" s="101">
-        <f t="shared" ref="R8:R21" si="7">Q8/D8</f>
+      <c r="R8" s="98">
+        <v>1</v>
+      </c>
+      <c r="S8" s="101">
+        <f t="shared" ref="S8:S21" si="7">R8/E8</f>
         <v>1.7730496453900709E-3</v>
       </c>
-      <c r="T8" s="49" t="b">
-        <f t="shared" ref="T8:T21" si="8">E8+G8=I8+K8+M8+O8+Q8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+      <c r="U8" s="49" t="b">
+        <f t="shared" ref="U8:U21" si="8">F8+H8=J8+L8+N8+P8+R8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="138">
+      <c r="C9" s="138">
         <v>21</v>
       </c>
-      <c r="C9" s="101">
-        <f>B9/'8. Кол-во гос.органов'!C8</f>
+      <c r="D9" s="101">
+        <f>C9/'8. Кол-во гос.органов'!C8</f>
         <v>0.84</v>
       </c>
-      <c r="D9" s="117">
+      <c r="E9" s="117">
         <f t="shared" si="0"/>
         <v>442</v>
       </c>
-      <c r="E9" s="98">
+      <c r="F9" s="98">
         <v>200</v>
       </c>
-      <c r="F9" s="101">
+      <c r="G9" s="101">
         <f t="shared" si="1"/>
         <v>0.45248868778280543</v>
       </c>
-      <c r="G9" s="98">
+      <c r="H9" s="98">
         <v>242</v>
       </c>
-      <c r="H9" s="101">
+      <c r="I9" s="101">
         <f t="shared" si="2"/>
         <v>0.54751131221719462</v>
       </c>
-      <c r="I9" s="98">
+      <c r="J9" s="98">
         <v>290</v>
       </c>
-      <c r="J9" s="101">
+      <c r="K9" s="101">
         <f t="shared" si="3"/>
         <v>0.65610859728506787</v>
       </c>
-      <c r="K9" s="98">
+      <c r="L9" s="98">
         <v>75</v>
       </c>
-      <c r="L9" s="101">
+      <c r="M9" s="101">
         <f t="shared" si="4"/>
         <v>0.16968325791855204</v>
       </c>
-      <c r="M9" s="98">
+      <c r="N9" s="98">
         <v>76</v>
       </c>
-      <c r="N9" s="101">
+      <c r="O9" s="101">
         <f t="shared" si="5"/>
         <v>0.17194570135746606</v>
       </c>
-      <c r="O9" s="98">
-        <v>0</v>
-      </c>
-      <c r="P9" s="101">
+      <c r="P9" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="98">
-        <v>1</v>
-      </c>
-      <c r="R9" s="101">
+      <c r="R9" s="98">
+        <v>1</v>
+      </c>
+      <c r="S9" s="101">
         <f t="shared" si="7"/>
         <v>2.2624434389140274E-3</v>
       </c>
-      <c r="T9" s="49" t="b">
+      <c r="U9" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+    <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="138">
+      <c r="C10" s="138">
         <v>40</v>
       </c>
-      <c r="C10" s="101">
-        <f>B10/'8. Кол-во гос.органов'!C9</f>
+      <c r="D10" s="101">
+        <f>C10/'8. Кол-во гос.органов'!C9</f>
         <v>0.78431372549019607</v>
       </c>
-      <c r="D10" s="117">
+      <c r="E10" s="117">
         <f t="shared" si="0"/>
         <v>2426</v>
       </c>
-      <c r="E10" s="98">
+      <c r="F10" s="98">
         <v>778</v>
       </c>
-      <c r="F10" s="101">
+      <c r="G10" s="101">
         <f t="shared" si="1"/>
         <v>0.32069249793899424</v>
       </c>
-      <c r="G10" s="98">
+      <c r="H10" s="98">
         <v>1648</v>
       </c>
-      <c r="H10" s="101">
+      <c r="I10" s="101">
         <f t="shared" si="2"/>
         <v>0.67930750206100576</v>
       </c>
-      <c r="I10" s="98">
+      <c r="J10" s="98">
         <v>875</v>
       </c>
-      <c r="J10" s="101">
+      <c r="K10" s="101">
         <f t="shared" si="3"/>
         <v>0.36067600989282772</v>
       </c>
-      <c r="K10" s="98">
+      <c r="L10" s="98">
         <v>200</v>
       </c>
-      <c r="L10" s="101">
+      <c r="M10" s="101">
         <f t="shared" si="4"/>
         <v>8.244023083264633E-2</v>
       </c>
-      <c r="M10" s="98">
+      <c r="N10" s="98">
         <v>1330</v>
       </c>
-      <c r="N10" s="101">
+      <c r="O10" s="101">
         <f t="shared" si="5"/>
         <v>0.54822753503709809</v>
       </c>
-      <c r="O10" s="98">
+      <c r="P10" s="98">
         <v>19</v>
       </c>
-      <c r="P10" s="101">
+      <c r="Q10" s="101">
         <f t="shared" si="6"/>
         <v>7.8318219291014009E-3</v>
       </c>
-      <c r="Q10" s="98">
+      <c r="R10" s="98">
         <v>2</v>
       </c>
-      <c r="R10" s="101">
+      <c r="S10" s="101">
         <f t="shared" si="7"/>
         <v>8.2440230832646333E-4</v>
       </c>
-      <c r="T10" s="49" t="b">
+      <c r="U10" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="138">
+      <c r="C11" s="138">
         <v>29</v>
       </c>
-      <c r="C11" s="101">
-        <f>B11/'8. Кол-во гос.органов'!C10</f>
+      <c r="D11" s="101">
+        <f>C11/'8. Кол-во гос.органов'!C10</f>
         <v>0.90625</v>
       </c>
-      <c r="D11" s="117">
+      <c r="E11" s="117">
         <f t="shared" si="0"/>
         <v>608</v>
       </c>
-      <c r="E11" s="98">
+      <c r="F11" s="98">
         <v>205</v>
       </c>
-      <c r="F11" s="101">
+      <c r="G11" s="101">
         <f t="shared" si="1"/>
         <v>0.33717105263157893</v>
       </c>
-      <c r="G11" s="98">
+      <c r="H11" s="98">
         <v>403</v>
       </c>
-      <c r="H11" s="101">
+      <c r="I11" s="101">
         <f t="shared" si="2"/>
         <v>0.66282894736842102</v>
       </c>
-      <c r="I11" s="98">
+      <c r="J11" s="98">
         <v>184</v>
       </c>
-      <c r="J11" s="101">
+      <c r="K11" s="101">
         <f t="shared" si="3"/>
         <v>0.30263157894736842</v>
       </c>
-      <c r="K11" s="98">
+      <c r="L11" s="98">
         <v>157</v>
       </c>
-      <c r="L11" s="101">
+      <c r="M11" s="101">
         <f t="shared" si="4"/>
         <v>0.25822368421052633</v>
       </c>
-      <c r="M11" s="98">
+      <c r="N11" s="98">
         <v>244</v>
       </c>
-      <c r="N11" s="101">
+      <c r="O11" s="101">
         <f t="shared" si="5"/>
         <v>0.40131578947368424</v>
       </c>
-      <c r="O11" s="98">
+      <c r="P11" s="98">
         <v>23</v>
       </c>
-      <c r="P11" s="101">
+      <c r="Q11" s="101">
         <f t="shared" si="6"/>
         <v>3.7828947368421052E-2</v>
       </c>
-      <c r="Q11" s="98">
-        <v>0</v>
-      </c>
-      <c r="R11" s="101">
+      <c r="R11" s="98">
+        <v>0</v>
+      </c>
+      <c r="S11" s="101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T11" s="49" t="b">
+      <c r="U11" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="179">
+      <c r="C12" s="179">
         <v>24</v>
       </c>
-      <c r="C12" s="101">
-        <f>B12/'8. Кол-во гос.органов'!C11</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="117">
+      <c r="D12" s="101">
+        <f>C12/'8. Кол-во гос.органов'!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="117">
         <f t="shared" si="0"/>
         <v>816</v>
       </c>
-      <c r="E12" s="120">
+      <c r="F12" s="120">
         <v>371</v>
       </c>
-      <c r="F12" s="101">
+      <c r="G12" s="101">
         <f t="shared" si="1"/>
         <v>0.45465686274509803</v>
       </c>
-      <c r="G12" s="99">
+      <c r="H12" s="99">
         <v>445</v>
       </c>
-      <c r="H12" s="101">
+      <c r="I12" s="101">
         <f t="shared" si="2"/>
         <v>0.54534313725490191</v>
       </c>
-      <c r="I12" s="99">
+      <c r="J12" s="99">
         <v>773</v>
       </c>
-      <c r="J12" s="101">
+      <c r="K12" s="101">
         <f t="shared" si="3"/>
         <v>0.94730392156862742</v>
       </c>
-      <c r="K12" s="99">
+      <c r="L12" s="99">
         <v>29</v>
       </c>
-      <c r="L12" s="101">
+      <c r="M12" s="101">
         <f t="shared" si="4"/>
         <v>3.5539215686274508E-2</v>
       </c>
-      <c r="M12" s="98">
+      <c r="N12" s="98">
         <v>14</v>
       </c>
-      <c r="N12" s="101">
+      <c r="O12" s="101">
         <f t="shared" si="5"/>
         <v>1.7156862745098041E-2</v>
       </c>
-      <c r="O12" s="98">
-        <v>0</v>
-      </c>
-      <c r="P12" s="101">
+      <c r="P12" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="98">
-        <v>0</v>
-      </c>
-      <c r="R12" s="101">
+      <c r="R12" s="98">
+        <v>0</v>
+      </c>
+      <c r="S12" s="101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T12" s="49" t="b">
+      <c r="U12" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108" t="s">
+    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="138">
+      <c r="C13" s="138">
         <v>37</v>
       </c>
-      <c r="C13" s="101">
-        <f>B13/'8. Кол-во гос.органов'!C12</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="117">
+      <c r="D13" s="101">
+        <f>C13/'8. Кол-во гос.органов'!C12</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="117">
         <f t="shared" si="0"/>
         <v>4408</v>
       </c>
-      <c r="E13" s="98">
+      <c r="F13" s="98">
         <v>1739</v>
       </c>
-      <c r="F13" s="101">
+      <c r="G13" s="101">
         <f t="shared" si="1"/>
         <v>0.39450998185117969</v>
       </c>
-      <c r="G13" s="98">
+      <c r="H13" s="98">
         <v>2669</v>
       </c>
-      <c r="H13" s="101">
+      <c r="I13" s="101">
         <f t="shared" si="2"/>
         <v>0.60549001814882031</v>
       </c>
-      <c r="I13" s="98">
+      <c r="J13" s="98">
         <v>3545</v>
       </c>
-      <c r="J13" s="101">
+      <c r="K13" s="101">
         <f t="shared" si="3"/>
         <v>0.80421960072595278</v>
       </c>
-      <c r="K13" s="98">
+      <c r="L13" s="98">
         <v>157</v>
       </c>
-      <c r="L13" s="101">
+      <c r="M13" s="101">
         <f t="shared" si="4"/>
         <v>3.5617059891107077E-2</v>
       </c>
-      <c r="M13" s="98">
+      <c r="N13" s="98">
         <v>706</v>
       </c>
-      <c r="N13" s="101">
+      <c r="O13" s="101">
         <f t="shared" si="5"/>
         <v>0.16016333938294011</v>
       </c>
-      <c r="O13" s="98">
-        <v>0</v>
-      </c>
-      <c r="P13" s="101">
+      <c r="P13" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="98">
-        <v>0</v>
-      </c>
-      <c r="R13" s="101">
+      <c r="R13" s="98">
+        <v>0</v>
+      </c>
+      <c r="S13" s="101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T13" s="49" t="b">
+      <c r="U13" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108" t="s">
+    <row r="14" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="138">
+      <c r="C14" s="138">
         <v>34</v>
       </c>
-      <c r="C14" s="101">
-        <f>B14/'8. Кол-во гос.органов'!C13</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="117">
+      <c r="D14" s="101">
+        <f>C14/'8. Кол-во гос.органов'!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="117">
         <f t="shared" si="0"/>
         <v>1165</v>
       </c>
-      <c r="E14" s="98">
+      <c r="F14" s="98">
         <v>349</v>
       </c>
-      <c r="F14" s="101">
+      <c r="G14" s="101">
         <f t="shared" si="1"/>
         <v>0.29957081545064379</v>
       </c>
-      <c r="G14" s="98">
+      <c r="H14" s="98">
         <v>816</v>
       </c>
-      <c r="H14" s="101">
+      <c r="I14" s="101">
         <f t="shared" si="2"/>
         <v>0.70042918454935621</v>
       </c>
-      <c r="I14" s="98">
+      <c r="J14" s="98">
         <v>684</v>
       </c>
-      <c r="J14" s="101">
+      <c r="K14" s="101">
         <f t="shared" si="3"/>
         <v>0.58712446351931336</v>
       </c>
-      <c r="K14" s="98">
+      <c r="L14" s="98">
         <v>200</v>
       </c>
-      <c r="L14" s="101">
+      <c r="M14" s="101">
         <f t="shared" si="4"/>
         <v>0.17167381974248927</v>
       </c>
-      <c r="M14" s="98">
+      <c r="N14" s="98">
         <v>279</v>
       </c>
-      <c r="N14" s="101">
+      <c r="O14" s="101">
         <f t="shared" si="5"/>
         <v>0.23948497854077253</v>
       </c>
-      <c r="O14" s="98">
+      <c r="P14" s="98">
         <v>2</v>
       </c>
-      <c r="P14" s="101">
+      <c r="Q14" s="101">
         <f t="shared" si="6"/>
         <v>1.7167381974248926E-3</v>
       </c>
-      <c r="Q14" s="98">
-        <v>0</v>
-      </c>
-      <c r="R14" s="101">
+      <c r="R14" s="98">
+        <v>0</v>
+      </c>
+      <c r="S14" s="101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T14" s="49" t="b">
+      <c r="U14" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108" t="s">
+    <row r="15" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="138">
+      <c r="C15" s="138">
         <v>45</v>
       </c>
-      <c r="C15" s="101">
-        <f>B15/'8. Кол-во гос.органов'!C14</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="117">
+      <c r="D15" s="101">
+        <f>C15/'8. Кол-во гос.органов'!C14</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="117">
         <f t="shared" si="0"/>
         <v>3846</v>
       </c>
-      <c r="E15" s="98">
+      <c r="F15" s="98">
         <v>864</v>
       </c>
-      <c r="F15" s="101">
+      <c r="G15" s="101">
         <f t="shared" si="1"/>
         <v>0.22464898595943839</v>
       </c>
-      <c r="G15" s="98">
+      <c r="H15" s="98">
         <v>2982</v>
       </c>
-      <c r="H15" s="101">
+      <c r="I15" s="101">
         <f t="shared" si="2"/>
         <v>0.77535101404056161</v>
       </c>
-      <c r="I15" s="98">
+      <c r="J15" s="98">
         <v>2088</v>
       </c>
-      <c r="J15" s="101">
+      <c r="K15" s="101">
         <f t="shared" si="3"/>
         <v>0.54290171606864279</v>
       </c>
-      <c r="K15" s="98">
+      <c r="L15" s="98">
         <v>628</v>
       </c>
-      <c r="L15" s="101">
+      <c r="M15" s="101">
         <f t="shared" si="4"/>
         <v>0.16328653146125846</v>
       </c>
-      <c r="M15" s="98">
+      <c r="N15" s="98">
         <v>1055</v>
       </c>
-      <c r="N15" s="101">
+      <c r="O15" s="101">
         <f t="shared" si="5"/>
         <v>0.27431097243889757</v>
       </c>
-      <c r="O15" s="98">
+      <c r="P15" s="98">
         <v>73</v>
       </c>
-      <c r="P15" s="101">
+      <c r="Q15" s="101">
         <f t="shared" si="6"/>
         <v>1.8980759230369213E-2</v>
       </c>
-      <c r="Q15" s="98">
+      <c r="R15" s="98">
         <v>2</v>
       </c>
-      <c r="R15" s="101">
+      <c r="S15" s="101">
         <f t="shared" si="7"/>
         <v>5.2002080083203334E-4</v>
       </c>
-      <c r="T15" s="49" t="b">
+      <c r="U15" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108" t="s">
+    <row r="16" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="138">
+      <c r="C16" s="138">
         <v>32</v>
       </c>
-      <c r="C16" s="101">
-        <f>B16/'8. Кол-во гос.органов'!C15</f>
+      <c r="D16" s="101">
+        <f>C16/'8. Кол-во гос.органов'!C15</f>
         <v>0.96969696969696972</v>
       </c>
-      <c r="D16" s="117">
+      <c r="E16" s="117">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="E16" s="98">
+      <c r="F16" s="98">
         <v>366</v>
       </c>
-      <c r="F16" s="101">
+      <c r="G16" s="101">
         <f t="shared" si="1"/>
         <v>0.4765625</v>
       </c>
-      <c r="G16" s="98">
+      <c r="H16" s="98">
         <v>402</v>
       </c>
-      <c r="H16" s="101">
+      <c r="I16" s="101">
         <f t="shared" si="2"/>
         <v>0.5234375</v>
       </c>
-      <c r="I16" s="98">
+      <c r="J16" s="98">
         <v>288</v>
       </c>
-      <c r="J16" s="101">
+      <c r="K16" s="101">
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="K16" s="98">
+      <c r="L16" s="98">
         <v>308</v>
       </c>
-      <c r="L16" s="101">
+      <c r="M16" s="101">
         <f t="shared" si="4"/>
         <v>0.40104166666666669</v>
       </c>
-      <c r="M16" s="98">
+      <c r="N16" s="98">
         <v>166</v>
       </c>
-      <c r="N16" s="101">
+      <c r="O16" s="101">
         <f t="shared" si="5"/>
         <v>0.21614583333333334</v>
       </c>
-      <c r="O16" s="98">
+      <c r="P16" s="98">
         <v>2</v>
       </c>
-      <c r="P16" s="101">
+      <c r="Q16" s="101">
         <f t="shared" si="6"/>
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="Q16" s="98">
+      <c r="R16" s="98">
         <v>4</v>
       </c>
-      <c r="R16" s="101">
+      <c r="S16" s="101">
         <f t="shared" si="7"/>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="T16" s="49" t="b">
+      <c r="U16" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
+    <row r="17" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="138">
+      <c r="C17" s="138">
         <v>24</v>
       </c>
-      <c r="C17" s="101">
-        <f>B17/'8. Кол-во гос.органов'!C16</f>
+      <c r="D17" s="101">
+        <f>C17/'8. Кол-во гос.органов'!C16</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="D17" s="117">
+      <c r="E17" s="117">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
-      <c r="E17" s="98">
+      <c r="F17" s="98">
         <v>93</v>
       </c>
-      <c r="F17" s="101">
+      <c r="G17" s="101">
         <f t="shared" si="1"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G17" s="98">
+      <c r="H17" s="98">
         <v>248</v>
       </c>
-      <c r="H17" s="101">
+      <c r="I17" s="101">
         <f t="shared" si="2"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="I17" s="98">
+      <c r="J17" s="98">
         <v>163</v>
       </c>
-      <c r="J17" s="101">
+      <c r="K17" s="101">
         <f t="shared" si="3"/>
         <v>0.47800586510263932</v>
       </c>
-      <c r="K17" s="98">
+      <c r="L17" s="98">
         <v>39</v>
       </c>
-      <c r="L17" s="101">
+      <c r="M17" s="101">
         <f t="shared" si="4"/>
         <v>0.11436950146627566</v>
       </c>
-      <c r="M17" s="98">
+      <c r="N17" s="98">
         <v>139</v>
       </c>
-      <c r="N17" s="101">
+      <c r="O17" s="101">
         <f t="shared" si="5"/>
         <v>0.40762463343108507</v>
       </c>
-      <c r="O17" s="98">
-        <v>0</v>
-      </c>
-      <c r="P17" s="101">
+      <c r="P17" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="98">
-        <v>0</v>
-      </c>
-      <c r="R17" s="101">
+      <c r="R17" s="98">
+        <v>0</v>
+      </c>
+      <c r="S17" s="101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T17" s="49" t="b">
+      <c r="U17" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="138">
+      <c r="C18" s="138">
         <v>35</v>
       </c>
-      <c r="C18" s="101">
-        <f>B18/'8. Кол-во гос.органов'!C17</f>
+      <c r="D18" s="101">
+        <f>C18/'8. Кол-во гос.органов'!C17</f>
         <v>0.875</v>
       </c>
-      <c r="D18" s="117">
+      <c r="E18" s="117">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="E18" s="98">
+      <c r="F18" s="98">
         <v>685</v>
       </c>
-      <c r="F18" s="101">
+      <c r="G18" s="101">
         <f t="shared" si="1"/>
         <v>0.38700564971751411</v>
       </c>
-      <c r="G18" s="98">
+      <c r="H18" s="98">
         <v>1085</v>
       </c>
-      <c r="H18" s="101">
+      <c r="I18" s="101">
         <f t="shared" si="2"/>
         <v>0.61299435028248583</v>
       </c>
-      <c r="I18" s="98">
+      <c r="J18" s="98">
         <v>1607</v>
       </c>
-      <c r="J18" s="101">
+      <c r="K18" s="101">
         <f t="shared" si="3"/>
         <v>0.90790960451977398</v>
       </c>
-      <c r="K18" s="98">
+      <c r="L18" s="98">
         <v>41</v>
       </c>
-      <c r="L18" s="101">
+      <c r="M18" s="101">
         <f t="shared" si="4"/>
         <v>2.3163841807909605E-2</v>
       </c>
-      <c r="M18" s="98">
+      <c r="N18" s="98">
         <v>121</v>
       </c>
-      <c r="N18" s="101">
+      <c r="O18" s="101">
         <f t="shared" si="5"/>
         <v>6.8361581920903955E-2</v>
       </c>
-      <c r="O18" s="98">
-        <v>0</v>
-      </c>
-      <c r="P18" s="101">
+      <c r="P18" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="98">
-        <v>1</v>
-      </c>
-      <c r="R18" s="101">
+      <c r="R18" s="98">
+        <v>1</v>
+      </c>
+      <c r="S18" s="101">
         <f t="shared" si="7"/>
         <v>5.649717514124294E-4</v>
       </c>
-      <c r="T18" s="49" t="b">
+      <c r="U18" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+    <row r="19" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="138">
+      <c r="C19" s="138">
         <v>35</v>
       </c>
-      <c r="C19" s="101">
-        <f>B19/'8. Кол-во гос.органов'!C18</f>
+      <c r="D19" s="101">
+        <f>C19/'8. Кол-во гос.органов'!C18</f>
         <v>0.85365853658536583</v>
       </c>
-      <c r="D19" s="117">
+      <c r="E19" s="117">
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-      <c r="E19" s="98">
+      <c r="F19" s="98">
         <v>252</v>
       </c>
-      <c r="F19" s="101">
+      <c r="G19" s="101">
         <f t="shared" si="1"/>
         <v>0.40909090909090912</v>
       </c>
-      <c r="G19" s="98">
+      <c r="H19" s="98">
         <v>364</v>
       </c>
-      <c r="H19" s="101">
+      <c r="I19" s="101">
         <f t="shared" si="2"/>
         <v>0.59090909090909094</v>
       </c>
-      <c r="I19" s="98">
+      <c r="J19" s="98">
         <v>512</v>
       </c>
-      <c r="J19" s="101">
+      <c r="K19" s="101">
         <f t="shared" si="3"/>
         <v>0.83116883116883122</v>
       </c>
-      <c r="K19" s="98">
-        <v>0</v>
-      </c>
-      <c r="L19" s="101">
+      <c r="L19" s="98">
+        <v>0</v>
+      </c>
+      <c r="M19" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M19" s="98">
+      <c r="N19" s="98">
         <v>96</v>
       </c>
-      <c r="N19" s="101">
+      <c r="O19" s="101">
         <f t="shared" si="5"/>
         <v>0.15584415584415584</v>
       </c>
-      <c r="O19" s="98">
+      <c r="P19" s="98">
         <v>5</v>
       </c>
-      <c r="P19" s="101">
+      <c r="Q19" s="101">
         <f t="shared" si="6"/>
         <v>8.1168831168831161E-3</v>
       </c>
-      <c r="Q19" s="98">
+      <c r="R19" s="98">
         <v>3</v>
       </c>
-      <c r="R19" s="101">
+      <c r="S19" s="101">
         <f t="shared" si="7"/>
         <v>4.87012987012987E-3</v>
       </c>
-      <c r="T19" s="49" t="b">
+      <c r="U19" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108" t="s">
+    <row r="20" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="138">
+      <c r="C20" s="138">
         <v>24</v>
       </c>
-      <c r="C20" s="101">
-        <f>B20/'8. Кол-во гос.органов'!C19</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="117">
+      <c r="D20" s="101">
+        <f>C20/'8. Кол-во гос.органов'!C19</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="117">
         <f t="shared" si="0"/>
         <v>559</v>
       </c>
-      <c r="E20" s="98">
+      <c r="F20" s="98">
         <v>163</v>
       </c>
-      <c r="F20" s="101">
+      <c r="G20" s="101">
         <f t="shared" si="1"/>
         <v>0.29159212880143115</v>
       </c>
-      <c r="G20" s="98">
+      <c r="H20" s="98">
         <v>396</v>
       </c>
-      <c r="H20" s="101">
+      <c r="I20" s="101">
         <f t="shared" si="2"/>
         <v>0.70840787119856885</v>
       </c>
-      <c r="I20" s="98">
+      <c r="J20" s="98">
         <v>257</v>
       </c>
-      <c r="J20" s="101">
+      <c r="K20" s="101">
         <f t="shared" si="3"/>
         <v>0.4597495527728086</v>
       </c>
-      <c r="K20" s="98">
+      <c r="L20" s="98">
         <v>41</v>
       </c>
-      <c r="L20" s="101">
+      <c r="M20" s="101">
         <f t="shared" si="4"/>
         <v>7.3345259391771014E-2</v>
       </c>
-      <c r="M20" s="98">
+      <c r="N20" s="98">
         <v>261</v>
       </c>
-      <c r="N20" s="101">
+      <c r="O20" s="101">
         <f t="shared" si="5"/>
         <v>0.4669051878354204</v>
       </c>
-      <c r="O20" s="98">
-        <v>0</v>
-      </c>
-      <c r="P20" s="101">
+      <c r="P20" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="98">
-        <v>0</v>
-      </c>
-      <c r="R20" s="101">
+      <c r="R20" s="98">
+        <v>0</v>
+      </c>
+      <c r="S20" s="101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T20" s="49" t="b">
+      <c r="U20" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109" t="s">
+    <row r="21" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="156">
-        <f>SUM(B7:B20)</f>
+      <c r="C21" s="156">
+        <f>SUM(C7:C20)</f>
         <v>444</v>
       </c>
-      <c r="C21" s="103">
-        <f>B21/'8. Кол-во гос.органов'!C20</f>
+      <c r="D21" s="103">
+        <f>C21/'8. Кол-во гос.органов'!C20</f>
         <v>0.92693110647181631</v>
       </c>
-      <c r="D21" s="118">
+      <c r="E21" s="118">
         <f t="shared" si="0"/>
         <v>20390</v>
       </c>
-      <c r="E21" s="104">
-        <f>SUM(E7:E20)</f>
+      <c r="F21" s="104">
+        <f>SUM(F7:F20)</f>
         <v>7028</v>
       </c>
-      <c r="F21" s="103">
+      <c r="G21" s="103">
         <f t="shared" si="1"/>
         <v>0.34467876410004905</v>
       </c>
-      <c r="G21" s="104">
-        <f>SUM(G7:G20)</f>
+      <c r="H21" s="104">
+        <f>SUM(H7:H20)</f>
         <v>13362</v>
       </c>
-      <c r="H21" s="103">
+      <c r="I21" s="103">
         <f t="shared" si="2"/>
         <v>0.65532123589995095</v>
       </c>
-      <c r="I21" s="104">
-        <f>SUM(I7:I20)</f>
+      <c r="J21" s="104">
+        <f>SUM(J7:J20)</f>
         <v>12630</v>
       </c>
-      <c r="J21" s="103">
+      <c r="K21" s="103">
         <f t="shared" si="3"/>
         <v>0.61942128494359983</v>
       </c>
-      <c r="K21" s="104">
-        <f>SUM(K7:K20)</f>
+      <c r="L21" s="104">
+        <f>SUM(L7:L20)</f>
         <v>2569</v>
       </c>
-      <c r="L21" s="103">
+      <c r="M21" s="103">
         <f t="shared" si="4"/>
         <v>0.12599313388916136</v>
       </c>
-      <c r="M21" s="104">
-        <f>SUM(M7:M20)</f>
+      <c r="N21" s="104">
+        <f>SUM(N7:N20)</f>
         <v>4980</v>
       </c>
-      <c r="N21" s="103">
+      <c r="O21" s="103">
         <f t="shared" si="5"/>
         <v>0.24423737126042178</v>
       </c>
-      <c r="O21" s="104">
-        <f>SUM(O7:O20)</f>
+      <c r="P21" s="104">
+        <f>SUM(P7:P20)</f>
         <v>197</v>
       </c>
-      <c r="P21" s="103">
+      <c r="Q21" s="103">
         <f t="shared" si="6"/>
         <v>9.6615988229524271E-3</v>
       </c>
-      <c r="Q21" s="104">
-        <f>SUM(Q7:Q20)</f>
+      <c r="R21" s="104">
+        <f>SUM(R7:R20)</f>
         <v>14</v>
       </c>
-      <c r="R21" s="103">
+      <c r="S21" s="103">
         <f t="shared" si="7"/>
         <v>6.8661108386463957E-4</v>
       </c>
-      <c r="T21" s="49" t="b">
+      <c r="U21" s="49" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
-      <c r="B22" s="188"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="189"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="189"/>
-      <c r="O22" s="191"/>
-      <c r="P22" s="189"/>
-      <c r="Q22" s="191"/>
-      <c r="R22" s="189"/>
-      <c r="T22" s="186"/>
-    </row>
-    <row r="23" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="277" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23" s="277"/>
+    <row r="22" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="187"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="191"/>
+      <c r="S22" s="189"/>
+      <c r="U22" s="186"/>
+    </row>
+    <row r="23" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="277" t="s">
+        <v>230</v>
+      </c>
       <c r="C23" s="277"/>
       <c r="D23" s="277"/>
       <c r="E23" s="277"/>
@@ -14036,23 +13960,24 @@
       <c r="P23" s="277"/>
       <c r="Q23" s="277"/>
       <c r="R23" s="277"/>
+      <c r="S23" s="277"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="B23:S23"/>
+    <mergeCell ref="B2:S2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D4:R4"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E4:S4"/>
+    <mergeCell ref="J5:S5"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14069,7 +13994,7 @@
   </sheetPr>
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -14148,10 +14073,10 @@
         <v>189</v>
       </c>
       <c r="F5" s="238"/>
-      <c r="G5" s="245" t="s">
+      <c r="G5" s="246" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="247"/>
+      <c r="H5" s="248"/>
       <c r="I5" s="238" t="s">
         <v>192</v>
       </c>
@@ -14160,7 +14085,7 @@
         <v>190</v>
       </c>
       <c r="L5" s="230"/>
-      <c r="N5" s="256" t="s">
+      <c r="N5" s="269" t="s">
         <v>178</v>
       </c>
     </row>
@@ -14196,7 +14121,7 @@
       <c r="L6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="256"/>
+      <c r="N6" s="269"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="108" t="s">
@@ -14916,23 +14841,23 @@
       <c r="D4" s="230"/>
       <c r="E4" s="230"/>
       <c r="F4" s="230"/>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="244"/>
       <c r="O4" s="207" t="s">
         <v>181</v>
       </c>
       <c r="P4" s="208"/>
       <c r="Q4" s="208"/>
       <c r="R4" s="209"/>
-      <c r="T4" s="256" t="s">
+      <c r="T4" s="269" t="s">
         <v>182</v>
       </c>
     </row>
@@ -14958,7 +14883,7 @@
       <c r="P5" s="211"/>
       <c r="Q5" s="211"/>
       <c r="R5" s="212"/>
-      <c r="T5" s="256"/>
+      <c r="T5" s="269"/>
     </row>
     <row r="6" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="230"/>
@@ -15010,7 +14935,7 @@
       <c r="R6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="256"/>
+      <c r="T6" s="269"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="108" t="s">
@@ -16101,10 +16026,10 @@
       <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="249" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="249"/>
+      <c r="D4" s="250"/>
       <c r="E4" s="287" t="s">
         <v>112</v>
       </c>
@@ -16115,8 +16040,8 @@
     </row>
     <row r="5" spans="2:15" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="221"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="235" t="s">
         <v>113</v>
       </c>
@@ -16638,7 +16563,7 @@
     </row>
     <row r="23" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="283" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="283"/>
       <c r="D23" s="283"/>
@@ -16677,7 +16602,7 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -16746,43 +16671,43 @@
       <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="247"/>
+      <c r="O4" s="247"/>
+      <c r="P4" s="248"/>
     </row>
     <row r="5" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="221"/>
-      <c r="C5" s="250" t="s">
+      <c r="C5" s="251" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="250" t="s">
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="250" t="s">
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="291"/>
+      <c r="K5" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="L5" s="290"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="251"/>
+      <c r="L5" s="291"/>
+      <c r="M5" s="291"/>
+      <c r="N5" s="252"/>
       <c r="O5" s="135" t="s">
         <v>183</v>
       </c>
@@ -16792,30 +16717,30 @@
     </row>
     <row r="6" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="221"/>
-      <c r="C6" s="245" t="s">
+      <c r="C6" s="246" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="245" t="s">
+      <c r="D6" s="248"/>
+      <c r="E6" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="247"/>
-      <c r="G6" s="245" t="s">
+      <c r="F6" s="248"/>
+      <c r="G6" s="246" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="247"/>
-      <c r="I6" s="245" t="s">
+      <c r="H6" s="248"/>
+      <c r="I6" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="247"/>
-      <c r="K6" s="245" t="s">
+      <c r="J6" s="248"/>
+      <c r="K6" s="246" t="s">
         <v>198</v>
       </c>
-      <c r="L6" s="247"/>
-      <c r="M6" s="245" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="247"/>
+      <c r="N6" s="248"/>
       <c r="O6" s="292" t="s">
         <v>120</v>
       </c>
@@ -17650,23 +17575,23 @@
       <c r="B23" s="51"/>
     </row>
     <row r="24" spans="2:18" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="291" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
-      <c r="E24" s="291"/>
-      <c r="F24" s="291"/>
-      <c r="G24" s="291"/>
-      <c r="H24" s="291"/>
-      <c r="I24" s="291"/>
-      <c r="J24" s="291"/>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="291"/>
-      <c r="N24" s="291"/>
-      <c r="O24" s="291"/>
-      <c r="P24" s="291"/>
+      <c r="B24" s="290" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="290"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="290"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="290"/>
+      <c r="P24" s="290"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -17840,32 +17765,32 @@
       <c r="D5" s="294" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="245" t="s">
+      <c r="E5" s="246" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246"/>
-      <c r="J5" s="246"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="271" t="s">
-        <v>240</v>
-      </c>
-      <c r="M5" s="271"/>
-      <c r="N5" s="245" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="273" t="s">
+        <v>239</v>
+      </c>
+      <c r="M5" s="273"/>
+      <c r="N5" s="246" t="s">
         <v>132</v>
       </c>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="246"/>
-      <c r="S5" s="246"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="271" t="s">
+      <c r="O5" s="247"/>
+      <c r="P5" s="247"/>
+      <c r="Q5" s="247"/>
+      <c r="R5" s="247"/>
+      <c r="S5" s="247"/>
+      <c r="T5" s="248"/>
+      <c r="U5" s="273" t="s">
         <v>187</v>
       </c>
-      <c r="V5" s="271"/>
+      <c r="V5" s="273"/>
     </row>
     <row r="6" spans="2:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="230"/>
@@ -19090,16 +19015,16 @@
       <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="246" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="248"/>
       <c r="K4" s="238" t="s">
         <v>188</v>
       </c>
@@ -19132,11 +19057,11 @@
         <v>195</v>
       </c>
       <c r="F6" s="238"/>
-      <c r="G6" s="245" t="s">
+      <c r="G6" s="246" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="246"/>
-      <c r="I6" s="247"/>
+      <c r="H6" s="247"/>
+      <c r="I6" s="248"/>
       <c r="J6" s="217" t="s">
         <v>135</v>
       </c>
@@ -20361,48 +20286,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
     </row>
     <row r="4" spans="2:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="198" t="s">
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="198" t="s">
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="204" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="200"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="206"/>
     </row>
     <row r="5" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="205"/>
-      <c r="C5" s="201" t="s">
+      <c r="B5" s="202"/>
+      <c r="C5" s="198" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="195" t="s">
@@ -20410,7 +20335,7 @@
       </c>
       <c r="E5" s="196"/>
       <c r="F5" s="197"/>
-      <c r="G5" s="201" t="s">
+      <c r="G5" s="198" t="s">
         <v>149</v>
       </c>
       <c r="H5" s="195" t="s">
@@ -20418,7 +20343,7 @@
       </c>
       <c r="I5" s="196"/>
       <c r="J5" s="197"/>
-      <c r="K5" s="201" t="s">
+      <c r="K5" s="198" t="s">
         <v>100</v>
       </c>
       <c r="L5" s="195" t="s">
@@ -20428,8 +20353,8 @@
       <c r="N5" s="197"/>
     </row>
     <row r="6" spans="2:14" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="206"/>
-      <c r="C6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="199"/>
       <c r="D6" s="20" t="s">
         <v>148</v>
       </c>
@@ -20439,7 +20364,7 @@
       <c r="F6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="202"/>
+      <c r="G6" s="199"/>
       <c r="H6" s="20" t="s">
         <v>140</v>
       </c>
@@ -20449,7 +20374,7 @@
       <c r="J6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="202"/>
+      <c r="K6" s="199"/>
       <c r="L6" s="20" t="s">
         <v>148</v>
       </c>
@@ -21215,13 +21140,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F3" s="8"/>
@@ -21626,13 +21551,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F3" s="8"/>
@@ -22046,20 +21971,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="L3" s="8"/>
@@ -22854,20 +22779,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="L3" s="8"/>
@@ -23646,87 +23571,87 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Z22"/>
+  <dimension ref="B2:AA22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="8.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="1.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="1.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="1.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="1.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
+    <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="217" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+    </row>
+    <row r="3" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="C4" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="207" t="s">
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="208"/>
       <c r="L4" s="208"/>
       <c r="M4" s="208"/>
       <c r="N4" s="208"/>
@@ -23734,33 +23659,33 @@
       <c r="P4" s="208"/>
       <c r="Q4" s="208"/>
       <c r="R4" s="208"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="201" t="s">
+      <c r="S4" s="208"/>
+      <c r="T4" s="209"/>
+      <c r="U4" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="214" t="s">
+      <c r="V4" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="35"/>
-    </row>
-    <row r="5" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="218"/>
-      <c r="B5" s="201" t="s">
+      <c r="Y4" s="35"/>
+    </row>
+    <row r="5" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="218"/>
+      <c r="C5" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="D5" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="198" t="s">
+      <c r="E5" s="204" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="211"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="210"/>
       <c r="L5" s="211"/>
       <c r="M5" s="211"/>
       <c r="N5" s="211"/>
@@ -23768,1411 +23693,1412 @@
       <c r="P5" s="211"/>
       <c r="Q5" s="211"/>
       <c r="R5" s="211"/>
-      <c r="S5" s="212"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="215"/>
-      <c r="X5" s="35"/>
-    </row>
-    <row r="6" spans="1:26" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="106" t="s">
+      <c r="S5" s="211"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="213"/>
+      <c r="V5" s="215"/>
+      <c r="Y5" s="35"/>
+    </row>
+    <row r="6" spans="2:27" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="219"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="F6" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="G6" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="H6" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="I6" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="J6" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="K6" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="L6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="M6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="N6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="O6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="P6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="Q6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="57" t="s">
+      <c r="R6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="S6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="T6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="202"/>
-      <c r="U6" s="216"/>
-      <c r="X6" s="35"/>
-    </row>
-    <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="110">
-        <f t="shared" ref="B7:B21" si="0">D7+F7+H7</f>
+      <c r="U6" s="199"/>
+      <c r="V6" s="216"/>
+      <c r="Y6" s="35"/>
+    </row>
+    <row r="7" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="110">
+        <f t="shared" ref="C7:C21" si="0">E7+G7+I7</f>
         <v>4650</v>
       </c>
-      <c r="C7" s="153">
-        <f>B7/'1.1. Кол-во ГС'!L7</f>
+      <c r="D7" s="153">
+        <f>C7/'1.1. Кол-во ГС'!L7</f>
         <v>0.95423763595321154</v>
       </c>
-      <c r="D7" s="98">
+      <c r="E7" s="98">
         <v>651</v>
       </c>
-      <c r="E7" s="153">
-        <f>D7/B7</f>
+      <c r="F7" s="153">
+        <f>E7/C7</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="F7" s="98">
+      <c r="G7" s="98">
         <v>3682</v>
       </c>
-      <c r="G7" s="101">
-        <f>F7/B7</f>
+      <c r="H7" s="101">
+        <f>G7/C7</f>
         <v>0.79182795698924735</v>
       </c>
-      <c r="H7" s="98">
+      <c r="I7" s="98">
         <v>317</v>
       </c>
-      <c r="I7" s="101">
-        <f>H7/B7</f>
+      <c r="J7" s="101">
+        <f>I7/C7</f>
         <v>6.8172043010752692E-2</v>
       </c>
-      <c r="J7" s="95">
+      <c r="K7" s="95">
         <v>366</v>
       </c>
-      <c r="K7" s="153">
-        <f>J7/B7</f>
+      <c r="L7" s="153">
+        <f>K7/C7</f>
         <v>7.8709677419354834E-2</v>
       </c>
-      <c r="L7" s="95">
+      <c r="M7" s="95">
         <v>1129</v>
       </c>
-      <c r="M7" s="153">
-        <f>L7/B7</f>
+      <c r="N7" s="153">
+        <f>M7/C7</f>
         <v>0.24279569892473118</v>
       </c>
-      <c r="N7" s="95">
+      <c r="O7" s="95">
         <v>1520</v>
       </c>
-      <c r="O7" s="153">
-        <f>N7/B7</f>
+      <c r="P7" s="153">
+        <f>O7/C7</f>
         <v>0.32688172043010755</v>
       </c>
-      <c r="P7" s="95">
+      <c r="Q7" s="95">
         <v>614</v>
       </c>
-      <c r="Q7" s="153">
-        <f>P7/B7</f>
+      <c r="R7" s="153">
+        <f>Q7/C7</f>
         <v>0.13204301075268818</v>
       </c>
-      <c r="R7" s="95">
+      <c r="S7" s="95">
         <v>1021</v>
       </c>
-      <c r="S7" s="153">
-        <f>R7/B7</f>
+      <c r="T7" s="153">
+        <f>S7/C7</f>
         <v>0.21956989247311828</v>
       </c>
-      <c r="T7" s="95">
+      <c r="U7" s="95">
         <v>223</v>
       </c>
-      <c r="U7" s="153">
-        <f>T7/'1.1. Кол-во ГС'!L7</f>
+      <c r="V7" s="153">
+        <f>U7/'1.1. Кол-во ГС'!L7</f>
         <v>4.5762364046788427E-2</v>
       </c>
-      <c r="X7" s="65" t="b">
-        <f>J7+L7+N7+P7+R7=B7</f>
-        <v>1</v>
-      </c>
-      <c r="Y7" s="87" t="b">
-        <f>B7=D7+F7+H7</f>
+      <c r="Y7" s="65" t="b">
+        <f>K7+M7+O7+Q7+S7=C7</f>
         <v>1</v>
       </c>
       <c r="Z7" s="87" t="b">
-        <f>B7+T7='1.1. Кол-во ГС'!L7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="110">
+        <f>C7=E7+G7+I7</f>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="87" t="b">
+        <f>C7+U7='1.1. Кол-во ГС'!L7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="110">
         <f t="shared" si="0"/>
         <v>1143</v>
       </c>
-      <c r="C8" s="153">
-        <f>B8/'1.1. Кол-во ГС'!L8</f>
+      <c r="D8" s="153">
+        <f>C8/'1.1. Кол-во ГС'!L8</f>
         <v>0.99912587412587417</v>
       </c>
-      <c r="D8" s="98">
+      <c r="E8" s="98">
         <v>66</v>
       </c>
-      <c r="E8" s="153">
-        <f t="shared" ref="E8:E21" si="1">D8/B8</f>
+      <c r="F8" s="153">
+        <f t="shared" ref="F8:F21" si="1">E8/C8</f>
         <v>5.774278215223097E-2</v>
       </c>
-      <c r="F8" s="98">
+      <c r="G8" s="98">
         <v>991</v>
       </c>
-      <c r="G8" s="101">
-        <f t="shared" ref="G8:G21" si="2">F8/B8</f>
+      <c r="H8" s="101">
+        <f t="shared" ref="H8:H21" si="2">G8/C8</f>
         <v>0.86701662292213477</v>
       </c>
-      <c r="H8" s="98">
+      <c r="I8" s="98">
         <v>86</v>
       </c>
-      <c r="I8" s="101">
-        <f t="shared" ref="I8:I21" si="3">H8/B8</f>
+      <c r="J8" s="101">
+        <f t="shared" ref="J8:J21" si="3">I8/C8</f>
         <v>7.5240594925634299E-2</v>
       </c>
-      <c r="J8" s="95">
+      <c r="K8" s="95">
         <v>101</v>
       </c>
-      <c r="K8" s="153">
-        <f t="shared" ref="K8:K21" si="4">J8/B8</f>
+      <c r="L8" s="153">
+        <f t="shared" ref="L8:L21" si="4">K8/C8</f>
         <v>8.8363954505686793E-2</v>
       </c>
-      <c r="L8" s="95">
+      <c r="M8" s="95">
         <v>291</v>
       </c>
-      <c r="M8" s="153">
-        <f t="shared" ref="M8:M21" si="5">L8/B8</f>
+      <c r="N8" s="153">
+        <f t="shared" ref="N8:N21" si="5">M8/C8</f>
         <v>0.25459317585301838</v>
       </c>
-      <c r="N8" s="95">
+      <c r="O8" s="95">
         <v>318</v>
       </c>
-      <c r="O8" s="153">
-        <f t="shared" ref="O8:O21" si="6">N8/B8</f>
+      <c r="P8" s="153">
+        <f t="shared" ref="P8:P21" si="6">O8/C8</f>
         <v>0.27821522309711288</v>
       </c>
-      <c r="P8" s="95">
+      <c r="Q8" s="95">
         <v>212</v>
       </c>
-      <c r="Q8" s="153">
-        <f t="shared" ref="Q8:Q21" si="7">P8/B8</f>
+      <c r="R8" s="153">
+        <f t="shared" ref="R8:R21" si="7">Q8/C8</f>
         <v>0.18547681539807523</v>
       </c>
-      <c r="R8" s="95">
+      <c r="S8" s="95">
         <v>221</v>
       </c>
-      <c r="S8" s="153">
-        <f t="shared" ref="S8:S21" si="8">R8/B8</f>
+      <c r="T8" s="153">
+        <f t="shared" ref="T8:T21" si="8">S8/C8</f>
         <v>0.19335083114610674</v>
       </c>
-      <c r="T8" s="95">
-        <v>1</v>
-      </c>
-      <c r="U8" s="153">
-        <f>T8/'1.1. Кол-во ГС'!L8</f>
+      <c r="U8" s="95">
+        <v>1</v>
+      </c>
+      <c r="V8" s="153">
+        <f>U8/'1.1. Кол-во ГС'!L8</f>
         <v>8.7412587412587413E-4</v>
       </c>
-      <c r="X8" s="66" t="b">
-        <f t="shared" ref="X8:X21" si="9">J8+L8+N8+P8+R8=B8</f>
-        <v>1</v>
-      </c>
-      <c r="Y8" s="87" t="b">
-        <f t="shared" ref="Y8:Y21" si="10">B8=D8+F8+H8</f>
+      <c r="Y8" s="66" t="b">
+        <f t="shared" ref="Y8:Y21" si="9">K8+M8+O8+Q8+S8=C8</f>
         <v>1</v>
       </c>
       <c r="Z8" s="87" t="b">
-        <f>B8+T8='1.1. Кол-во ГС'!L8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="108" t="s">
+        <f t="shared" ref="Z8:Z21" si="10">C8=E8+G8+I8</f>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="87" t="b">
+        <f>C8+U8='1.1. Кол-во ГС'!L8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="110">
+      <c r="C9" s="110">
         <f t="shared" si="0"/>
         <v>1061</v>
       </c>
-      <c r="C9" s="153">
-        <f>B9/'1.1. Кол-во ГС'!L9</f>
+      <c r="D9" s="153">
+        <f>C9/'1.1. Кол-во ГС'!L9</f>
         <v>0.9716117216117216</v>
       </c>
-      <c r="D9" s="98">
+      <c r="E9" s="98">
         <v>69</v>
       </c>
-      <c r="E9" s="153">
+      <c r="F9" s="153">
         <f t="shared" si="1"/>
         <v>6.5032987747408108E-2</v>
       </c>
-      <c r="F9" s="98">
+      <c r="G9" s="98">
         <v>930</v>
       </c>
-      <c r="G9" s="101">
+      <c r="H9" s="101">
         <f t="shared" si="2"/>
         <v>0.87653157398680492</v>
       </c>
-      <c r="H9" s="98">
+      <c r="I9" s="98">
         <v>62</v>
       </c>
-      <c r="I9" s="101">
+      <c r="J9" s="101">
         <f t="shared" si="3"/>
         <v>5.8435438265786996E-2</v>
       </c>
-      <c r="J9" s="95">
+      <c r="K9" s="95">
         <v>109</v>
       </c>
-      <c r="K9" s="153">
+      <c r="L9" s="153">
         <f t="shared" si="4"/>
         <v>0.10273327049952875</v>
       </c>
-      <c r="L9" s="95">
+      <c r="M9" s="95">
         <v>352</v>
       </c>
-      <c r="M9" s="153">
+      <c r="N9" s="153">
         <f t="shared" si="5"/>
         <v>0.33176248821866167</v>
       </c>
-      <c r="N9" s="95">
+      <c r="O9" s="95">
         <v>251</v>
       </c>
-      <c r="O9" s="153">
+      <c r="P9" s="153">
         <f t="shared" si="6"/>
         <v>0.23656927426955701</v>
       </c>
-      <c r="P9" s="95">
+      <c r="Q9" s="95">
         <v>112</v>
       </c>
-      <c r="Q9" s="153">
+      <c r="R9" s="153">
         <f t="shared" si="7"/>
         <v>0.1055607917059378</v>
       </c>
-      <c r="R9" s="95">
+      <c r="S9" s="95">
         <v>237</v>
       </c>
-      <c r="S9" s="153">
+      <c r="T9" s="153">
         <f t="shared" si="8"/>
         <v>0.22337417530631479</v>
       </c>
-      <c r="T9" s="95">
+      <c r="U9" s="95">
         <v>31</v>
       </c>
-      <c r="U9" s="153">
-        <f>T9/'1.1. Кол-во ГС'!L9</f>
+      <c r="V9" s="153">
+        <f>U9/'1.1. Кол-во ГС'!L9</f>
         <v>2.8388278388278388E-2</v>
       </c>
-      <c r="X9" s="66" t="b">
+      <c r="Y9" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y9" s="87" t="b">
+      <c r="Z9" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z9" s="87" t="b">
-        <f>B9+T9='1.1. Кол-во ГС'!L9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108" t="s">
+      <c r="AA9" s="87" t="b">
+        <f>C9+U9='1.1. Кол-во ГС'!L9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="110">
+      <c r="C10" s="110">
         <f t="shared" si="0"/>
         <v>5174</v>
       </c>
-      <c r="C10" s="153">
-        <f>B10/'1.1. Кол-во ГС'!L10</f>
+      <c r="D10" s="153">
+        <f>C10/'1.1. Кол-во ГС'!L10</f>
         <v>0.96368038740920092</v>
       </c>
-      <c r="D10" s="98">
+      <c r="E10" s="98">
         <v>692</v>
       </c>
-      <c r="E10" s="153">
+      <c r="F10" s="153">
         <f t="shared" si="1"/>
         <v>0.13374565133359104</v>
       </c>
-      <c r="F10" s="98">
+      <c r="G10" s="98">
         <v>4115</v>
       </c>
-      <c r="G10" s="101">
+      <c r="H10" s="101">
         <f t="shared" si="2"/>
         <v>0.79532276768457677</v>
       </c>
-      <c r="H10" s="98">
+      <c r="I10" s="98">
         <v>367</v>
       </c>
-      <c r="I10" s="101">
+      <c r="J10" s="101">
         <f t="shared" si="3"/>
         <v>7.0931580981832235E-2</v>
       </c>
-      <c r="J10" s="140">
+      <c r="K10" s="140">
         <v>242</v>
       </c>
-      <c r="K10" s="153">
+      <c r="L10" s="153">
         <f t="shared" si="4"/>
         <v>4.6772323154232701E-2</v>
       </c>
-      <c r="L10" s="140">
+      <c r="M10" s="140">
         <v>1767</v>
       </c>
-      <c r="M10" s="153">
+      <c r="N10" s="153">
         <f t="shared" si="5"/>
         <v>0.34151526865094706</v>
       </c>
-      <c r="N10" s="140">
+      <c r="O10" s="140">
         <v>1097</v>
       </c>
-      <c r="O10" s="153">
+      <c r="P10" s="153">
         <f t="shared" si="6"/>
         <v>0.21202164669501353</v>
       </c>
-      <c r="P10" s="140">
+      <c r="Q10" s="140">
         <v>125</v>
       </c>
-      <c r="Q10" s="153">
+      <c r="R10" s="153">
         <f t="shared" si="7"/>
         <v>2.4159257827599537E-2</v>
       </c>
-      <c r="R10" s="140">
+      <c r="S10" s="140">
         <v>1943</v>
       </c>
-      <c r="S10" s="153">
+      <c r="T10" s="153">
         <f t="shared" si="8"/>
         <v>0.37553150367220717</v>
       </c>
-      <c r="T10" s="102">
+      <c r="U10" s="102">
         <v>195</v>
       </c>
-      <c r="U10" s="153">
-        <f>T10/'1.1. Кол-во ГС'!L10</f>
+      <c r="V10" s="153">
+        <f>U10/'1.1. Кол-во ГС'!L10</f>
         <v>3.6319612590799029E-2</v>
       </c>
-      <c r="X10" s="66" t="b">
+      <c r="Y10" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="87" t="b">
+      <c r="Z10" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z10" s="87" t="b">
-        <f>B10+T10='1.1. Кол-во ГС'!L10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108" t="s">
+      <c r="AA10" s="87" t="b">
+        <f>C10+U10='1.1. Кол-во ГС'!L10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="110">
+      <c r="C11" s="110">
         <f t="shared" si="0"/>
         <v>1677</v>
       </c>
-      <c r="C11" s="153">
-        <f>B11/'1.1. Кол-во ГС'!L11</f>
+      <c r="D11" s="153">
+        <f>C11/'1.1. Кол-во ГС'!L11</f>
         <v>0.97670355270821196</v>
       </c>
-      <c r="D11" s="98">
+      <c r="E11" s="98">
         <v>239</v>
       </c>
-      <c r="E11" s="153">
+      <c r="F11" s="153">
         <f t="shared" si="1"/>
         <v>0.14251639833035182</v>
       </c>
-      <c r="F11" s="98">
+      <c r="G11" s="98">
         <v>1303</v>
       </c>
-      <c r="G11" s="101">
+      <c r="H11" s="101">
         <f t="shared" si="2"/>
         <v>0.7769827072152653</v>
       </c>
-      <c r="H11" s="98">
+      <c r="I11" s="98">
         <v>135</v>
       </c>
-      <c r="I11" s="101">
+      <c r="J11" s="101">
         <f t="shared" si="3"/>
         <v>8.0500894454382826E-2</v>
       </c>
-      <c r="J11" s="95">
+      <c r="K11" s="95">
         <v>160</v>
       </c>
-      <c r="K11" s="153">
+      <c r="L11" s="153">
         <f t="shared" si="4"/>
         <v>9.5408467501490762E-2</v>
       </c>
-      <c r="L11" s="95">
+      <c r="M11" s="95">
         <v>436</v>
       </c>
-      <c r="M11" s="153">
+      <c r="N11" s="153">
         <f t="shared" si="5"/>
         <v>0.25998807394156231</v>
       </c>
-      <c r="N11" s="95">
+      <c r="O11" s="95">
         <v>400</v>
       </c>
-      <c r="O11" s="153">
+      <c r="P11" s="153">
         <f t="shared" si="6"/>
         <v>0.23852116875372689</v>
       </c>
-      <c r="P11" s="95">
+      <c r="Q11" s="95">
         <v>264</v>
       </c>
-      <c r="Q11" s="153">
+      <c r="R11" s="153">
         <f t="shared" si="7"/>
         <v>0.15742397137745975</v>
       </c>
-      <c r="R11" s="95">
+      <c r="S11" s="95">
         <v>417</v>
       </c>
-      <c r="S11" s="153">
+      <c r="T11" s="153">
         <f t="shared" si="8"/>
         <v>0.24865831842576028</v>
       </c>
-      <c r="T11" s="95">
+      <c r="U11" s="95">
         <v>40</v>
       </c>
-      <c r="U11" s="153">
-        <f>T11/'1.1. Кол-во ГС'!L11</f>
+      <c r="V11" s="153">
+        <f>U11/'1.1. Кол-во ГС'!L11</f>
         <v>2.3296447291788001E-2</v>
       </c>
-      <c r="X11" s="66" t="b">
+      <c r="Y11" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="87" t="b">
+      <c r="Z11" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z11" s="87" t="b">
-        <f>B11+T11='1.1. Кол-во ГС'!L11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108" t="s">
+      <c r="AA11" s="87" t="b">
+        <f>C11+U11='1.1. Кол-во ГС'!L11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="110">
+      <c r="C12" s="110">
         <f t="shared" si="0"/>
         <v>1286</v>
       </c>
-      <c r="C12" s="153">
-        <f>B12/'1.1. Кол-во ГС'!L12</f>
+      <c r="D12" s="153">
+        <f>C12/'1.1. Кол-во ГС'!L12</f>
         <v>0.98847040737893932</v>
       </c>
-      <c r="D12" s="98">
+      <c r="E12" s="98">
         <v>214</v>
       </c>
-      <c r="E12" s="153">
+      <c r="F12" s="153">
         <f t="shared" si="1"/>
         <v>0.16640746500777606</v>
       </c>
-      <c r="F12" s="98">
+      <c r="G12" s="98">
         <v>977</v>
       </c>
-      <c r="G12" s="101">
+      <c r="H12" s="101">
         <f t="shared" si="2"/>
         <v>0.75972006220839816</v>
       </c>
-      <c r="H12" s="98">
+      <c r="I12" s="98">
         <v>95</v>
       </c>
-      <c r="I12" s="101">
+      <c r="J12" s="101">
         <f t="shared" si="3"/>
         <v>7.3872472783825818E-2</v>
       </c>
-      <c r="J12" s="102">
+      <c r="K12" s="102">
         <v>133</v>
       </c>
-      <c r="K12" s="153">
+      <c r="L12" s="153">
         <f t="shared" si="4"/>
         <v>0.10342146189735614</v>
       </c>
-      <c r="L12" s="99">
+      <c r="M12" s="99">
         <v>353</v>
       </c>
-      <c r="M12" s="153">
+      <c r="N12" s="153">
         <f t="shared" si="5"/>
         <v>0.27449455676516332</v>
       </c>
-      <c r="N12" s="99">
+      <c r="O12" s="99">
         <v>447</v>
       </c>
-      <c r="O12" s="153">
+      <c r="P12" s="153">
         <f t="shared" si="6"/>
         <v>0.34758942457231728</v>
       </c>
-      <c r="P12" s="99">
+      <c r="Q12" s="99">
         <v>111</v>
       </c>
-      <c r="Q12" s="153">
+      <c r="R12" s="153">
         <f t="shared" si="7"/>
         <v>8.6314152410575426E-2</v>
       </c>
-      <c r="R12" s="99">
+      <c r="S12" s="99">
         <v>242</v>
       </c>
-      <c r="S12" s="153">
+      <c r="T12" s="153">
         <f t="shared" si="8"/>
         <v>0.18818040435458788</v>
       </c>
-      <c r="T12" s="99">
+      <c r="U12" s="99">
         <v>15</v>
       </c>
-      <c r="U12" s="153">
-        <f>T12/'1.1. Кол-во ГС'!L12</f>
+      <c r="V12" s="153">
+        <f>U12/'1.1. Кол-во ГС'!L12</f>
         <v>1.1529592621060722E-2</v>
       </c>
-      <c r="X12" s="66" t="b">
+      <c r="Y12" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="87" t="b">
+      <c r="Z12" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z12" s="87" t="b">
-        <f>B12+T12='1.1. Кол-во ГС'!L12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="108" t="s">
+      <c r="AA12" s="87" t="b">
+        <f>C12+U12='1.1. Кол-во ГС'!L12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="110">
+      <c r="C13" s="110">
         <f t="shared" si="0"/>
         <v>3153</v>
       </c>
-      <c r="C13" s="153">
-        <f>B13/'1.1. Кол-во ГС'!L13</f>
+      <c r="D13" s="153">
+        <f>C13/'1.1. Кол-во ГС'!L13</f>
         <v>0.98193709124883211</v>
       </c>
-      <c r="D13" s="98">
+      <c r="E13" s="98">
         <v>651</v>
       </c>
-      <c r="E13" s="153">
+      <c r="F13" s="153">
         <f t="shared" si="1"/>
         <v>0.20647002854424357</v>
       </c>
-      <c r="F13" s="98">
+      <c r="G13" s="98">
         <v>2290</v>
       </c>
-      <c r="G13" s="101">
+      <c r="H13" s="101">
         <f t="shared" si="2"/>
         <v>0.7262924199175389</v>
       </c>
-      <c r="H13" s="98">
+      <c r="I13" s="98">
         <v>212</v>
       </c>
-      <c r="I13" s="101">
+      <c r="J13" s="101">
         <f t="shared" si="3"/>
         <v>6.7237551538217574E-2</v>
       </c>
-      <c r="J13" s="95">
+      <c r="K13" s="95">
         <v>205</v>
       </c>
-      <c r="K13" s="153">
+      <c r="L13" s="153">
         <f t="shared" si="4"/>
         <v>6.5017443704408498E-2</v>
       </c>
-      <c r="L13" s="95">
+      <c r="M13" s="95">
         <v>777</v>
       </c>
-      <c r="M13" s="153">
+      <c r="N13" s="153">
         <f t="shared" si="5"/>
         <v>0.24643196955280686</v>
       </c>
-      <c r="N13" s="95">
+      <c r="O13" s="95">
         <v>788</v>
       </c>
-      <c r="O13" s="153">
+      <c r="P13" s="153">
         <f t="shared" si="6"/>
         <v>0.24992071043450681</v>
       </c>
-      <c r="P13" s="95">
+      <c r="Q13" s="95">
         <v>259</v>
       </c>
-      <c r="Q13" s="153">
+      <c r="R13" s="153">
         <f t="shared" si="7"/>
         <v>8.2143989850935614E-2</v>
       </c>
-      <c r="R13" s="95">
+      <c r="S13" s="95">
         <v>1124</v>
       </c>
-      <c r="S13" s="153">
+      <c r="T13" s="153">
         <f t="shared" si="8"/>
         <v>0.35648588645734219</v>
       </c>
-      <c r="T13" s="95">
+      <c r="U13" s="95">
         <v>58</v>
       </c>
-      <c r="U13" s="153">
-        <f>T13/'1.1. Кол-во ГС'!L13</f>
+      <c r="V13" s="153">
+        <f>U13/'1.1. Кол-во ГС'!L13</f>
         <v>1.806290875116786E-2</v>
       </c>
-      <c r="X13" s="66" t="b">
+      <c r="Y13" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="87" t="b">
+      <c r="Z13" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z13" s="87" t="b">
-        <f>B13+T13='1.1. Кол-во ГС'!L13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="108" t="s">
+      <c r="AA13" s="87" t="b">
+        <f>C13+U13='1.1. Кол-во ГС'!L13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="110">
+      <c r="C14" s="110">
         <f t="shared" si="0"/>
         <v>1820</v>
       </c>
-      <c r="C14" s="153">
-        <f>B14/'1.1. Кол-во ГС'!L14</f>
+      <c r="D14" s="153">
+        <f>C14/'1.1. Кол-во ГС'!L14</f>
         <v>0.99616858237547889</v>
       </c>
-      <c r="D14" s="98">
+      <c r="E14" s="98">
         <v>178</v>
       </c>
-      <c r="E14" s="153">
+      <c r="F14" s="153">
         <f t="shared" si="1"/>
         <v>9.7802197802197802E-2</v>
       </c>
-      <c r="F14" s="98">
+      <c r="G14" s="98">
         <v>1520</v>
       </c>
-      <c r="G14" s="101">
+      <c r="H14" s="101">
         <f t="shared" si="2"/>
         <v>0.8351648351648352</v>
       </c>
-      <c r="H14" s="98">
+      <c r="I14" s="98">
         <v>122</v>
       </c>
-      <c r="I14" s="101">
+      <c r="J14" s="101">
         <f t="shared" si="3"/>
         <v>6.7032967032967031E-2</v>
       </c>
-      <c r="J14" s="95">
+      <c r="K14" s="95">
         <v>152</v>
       </c>
-      <c r="K14" s="153">
+      <c r="L14" s="153">
         <f t="shared" si="4"/>
         <v>8.3516483516483511E-2</v>
       </c>
-      <c r="L14" s="95">
+      <c r="M14" s="95">
         <v>476</v>
       </c>
-      <c r="M14" s="153">
+      <c r="N14" s="153">
         <f t="shared" si="5"/>
         <v>0.26153846153846155</v>
       </c>
-      <c r="N14" s="95">
+      <c r="O14" s="95">
         <v>580</v>
       </c>
-      <c r="O14" s="153">
+      <c r="P14" s="153">
         <f t="shared" si="6"/>
         <v>0.31868131868131866</v>
       </c>
-      <c r="P14" s="95">
+      <c r="Q14" s="95">
         <v>247</v>
       </c>
-      <c r="Q14" s="153">
+      <c r="R14" s="153">
         <f t="shared" si="7"/>
         <v>0.1357142857142857</v>
       </c>
-      <c r="R14" s="95">
+      <c r="S14" s="95">
         <v>365</v>
       </c>
-      <c r="S14" s="153">
+      <c r="T14" s="153">
         <f t="shared" si="8"/>
         <v>0.20054945054945056</v>
       </c>
-      <c r="T14" s="95">
+      <c r="U14" s="95">
         <v>7</v>
       </c>
-      <c r="U14" s="153">
-        <f>T14/'1.1. Кол-во ГС'!L14</f>
+      <c r="V14" s="153">
+        <f>U14/'1.1. Кол-во ГС'!L14</f>
         <v>3.8314176245210726E-3</v>
       </c>
-      <c r="X14" s="66" t="b">
+      <c r="Y14" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="87" t="b">
+      <c r="Z14" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="87" t="b">
-        <f>B14+T14='1.1. Кол-во ГС'!L14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="108" t="s">
+      <c r="AA14" s="87" t="b">
+        <f>C14+U14='1.1. Кол-во ГС'!L14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="110">
+      <c r="C15" s="110">
         <f t="shared" si="0"/>
         <v>3722</v>
       </c>
-      <c r="C15" s="153">
-        <f>B15/'1.1. Кол-во ГС'!L15</f>
+      <c r="D15" s="153">
+        <f>C15/'1.1. Кол-во ГС'!L15</f>
         <v>0.99253333333333338</v>
       </c>
-      <c r="D15" s="98">
+      <c r="E15" s="98">
         <v>400</v>
       </c>
-      <c r="E15" s="153">
+      <c r="F15" s="153">
         <f t="shared" si="1"/>
         <v>0.10746910263299302</v>
       </c>
-      <c r="F15" s="98">
+      <c r="G15" s="98">
         <v>3079</v>
       </c>
-      <c r="G15" s="101">
+      <c r="H15" s="101">
         <f t="shared" si="2"/>
         <v>0.82724341751746377</v>
       </c>
-      <c r="H15" s="98">
+      <c r="I15" s="98">
         <v>243</v>
       </c>
-      <c r="I15" s="101">
+      <c r="J15" s="101">
         <f t="shared" si="3"/>
         <v>6.5287479849543251E-2</v>
       </c>
-      <c r="J15" s="95">
+      <c r="K15" s="95">
         <v>289</v>
       </c>
-      <c r="K15" s="153">
+      <c r="L15" s="153">
         <f t="shared" si="4"/>
         <v>7.7646426652337452E-2</v>
       </c>
-      <c r="L15" s="95">
+      <c r="M15" s="95">
         <v>794</v>
       </c>
-      <c r="M15" s="153">
+      <c r="N15" s="153">
         <f t="shared" si="5"/>
         <v>0.21332616872649113</v>
       </c>
-      <c r="N15" s="95">
+      <c r="O15" s="95">
         <v>1236</v>
       </c>
-      <c r="O15" s="153">
+      <c r="P15" s="153">
         <f t="shared" si="6"/>
         <v>0.3320795271359484</v>
       </c>
-      <c r="P15" s="95">
+      <c r="Q15" s="95">
         <v>567</v>
       </c>
-      <c r="Q15" s="153">
+      <c r="R15" s="153">
         <f t="shared" si="7"/>
         <v>0.15233745298226758</v>
       </c>
-      <c r="R15" s="95">
+      <c r="S15" s="95">
         <v>836</v>
       </c>
-      <c r="S15" s="153">
+      <c r="T15" s="153">
         <f t="shared" si="8"/>
         <v>0.2246104245029554</v>
       </c>
-      <c r="T15" s="95">
+      <c r="U15" s="95">
         <v>28</v>
       </c>
-      <c r="U15" s="153">
-        <f>T15/'1.1. Кол-во ГС'!L15</f>
+      <c r="V15" s="153">
+        <f>U15/'1.1. Кол-во ГС'!L15</f>
         <v>7.4666666666666666E-3</v>
       </c>
-      <c r="X15" s="66" t="b">
+      <c r="Y15" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="87" t="b">
+      <c r="Z15" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z15" s="87" t="b">
-        <f>B15+T15='1.1. Кол-во ГС'!L15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="108" t="s">
+      <c r="AA15" s="87" t="b">
+        <f>C15+U15='1.1. Кол-во ГС'!L15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="110">
+      <c r="C16" s="110">
         <f t="shared" si="0"/>
         <v>1974</v>
       </c>
-      <c r="C16" s="153">
-        <f>B16/'1.1. Кол-во ГС'!L16</f>
+      <c r="D16" s="153">
+        <f>C16/'1.1. Кол-во ГС'!L16</f>
         <v>0.97241379310344822</v>
       </c>
-      <c r="D16" s="98">
+      <c r="E16" s="98">
         <v>207</v>
       </c>
-      <c r="E16" s="153">
+      <c r="F16" s="153">
         <f t="shared" si="1"/>
         <v>0.10486322188449848</v>
       </c>
-      <c r="F16" s="98">
+      <c r="G16" s="98">
         <v>1611</v>
       </c>
-      <c r="G16" s="101">
+      <c r="H16" s="101">
         <f t="shared" si="2"/>
         <v>0.81610942249240126</v>
       </c>
-      <c r="H16" s="98">
+      <c r="I16" s="98">
         <v>156</v>
       </c>
-      <c r="I16" s="101">
+      <c r="J16" s="101">
         <f t="shared" si="3"/>
         <v>7.9027355623100301E-2</v>
       </c>
-      <c r="J16" s="95">
+      <c r="K16" s="95">
         <v>193</v>
       </c>
-      <c r="K16" s="153">
+      <c r="L16" s="153">
         <f t="shared" si="4"/>
         <v>9.7771023302938201E-2</v>
       </c>
-      <c r="L16" s="95">
+      <c r="M16" s="95">
         <v>509</v>
       </c>
-      <c r="M16" s="153">
+      <c r="N16" s="153">
         <f t="shared" si="5"/>
         <v>0.25785207700101315</v>
       </c>
-      <c r="N16" s="95">
+      <c r="O16" s="95">
         <v>708</v>
       </c>
-      <c r="O16" s="153">
+      <c r="P16" s="153">
         <f t="shared" si="6"/>
         <v>0.35866261398176291</v>
       </c>
-      <c r="P16" s="95">
+      <c r="Q16" s="95">
         <v>229</v>
       </c>
-      <c r="Q16" s="153">
+      <c r="R16" s="153">
         <f t="shared" si="7"/>
         <v>0.1160081053698075</v>
       </c>
-      <c r="R16" s="95">
+      <c r="S16" s="95">
         <v>335</v>
       </c>
-      <c r="S16" s="153">
+      <c r="T16" s="153">
         <f t="shared" si="8"/>
         <v>0.16970618034447821</v>
       </c>
-      <c r="T16" s="95">
+      <c r="U16" s="95">
         <v>56</v>
       </c>
-      <c r="U16" s="153">
-        <f>T16/'1.1. Кол-во ГС'!L16</f>
+      <c r="V16" s="153">
+        <f>U16/'1.1. Кол-во ГС'!L16</f>
         <v>2.7586206896551724E-2</v>
       </c>
-      <c r="X16" s="66" t="b">
+      <c r="Y16" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="87" t="b">
+      <c r="Z16" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z16" s="87" t="b">
-        <f>B16+T16='1.1. Кол-во ГС'!L16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108" t="s">
+      <c r="AA16" s="87" t="b">
+        <f>C16+U16='1.1. Кол-во ГС'!L16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="110">
+      <c r="C17" s="110">
         <f t="shared" si="0"/>
         <v>1608</v>
       </c>
-      <c r="C17" s="153">
-        <f>B17/'1.1. Кол-во ГС'!L17</f>
+      <c r="D17" s="153">
+        <f>C17/'1.1. Кол-во ГС'!L17</f>
         <v>0.99259259259259258</v>
       </c>
-      <c r="D17" s="98">
+      <c r="E17" s="98">
         <v>187</v>
       </c>
-      <c r="E17" s="153">
+      <c r="F17" s="153">
         <f t="shared" si="1"/>
         <v>0.11629353233830846</v>
       </c>
-      <c r="F17" s="98">
+      <c r="G17" s="98">
         <v>1311</v>
       </c>
-      <c r="G17" s="101">
+      <c r="H17" s="101">
         <f t="shared" si="2"/>
         <v>0.81529850746268662</v>
       </c>
-      <c r="H17" s="98">
+      <c r="I17" s="98">
         <v>110</v>
       </c>
-      <c r="I17" s="101">
+      <c r="J17" s="101">
         <f t="shared" si="3"/>
         <v>6.8407960199004969E-2</v>
       </c>
-      <c r="J17" s="95">
+      <c r="K17" s="95">
         <v>108</v>
       </c>
-      <c r="K17" s="153">
+      <c r="L17" s="153">
         <f t="shared" si="4"/>
         <v>6.7164179104477612E-2</v>
       </c>
-      <c r="L17" s="95">
+      <c r="M17" s="95">
         <v>388</v>
       </c>
-      <c r="M17" s="153">
+      <c r="N17" s="153">
         <f t="shared" si="5"/>
         <v>0.24129353233830847</v>
       </c>
-      <c r="N17" s="95">
+      <c r="O17" s="95">
         <v>418</v>
       </c>
-      <c r="O17" s="153">
+      <c r="P17" s="153">
         <f t="shared" si="6"/>
         <v>0.25995024875621892</v>
       </c>
-      <c r="P17" s="95">
+      <c r="Q17" s="95">
         <v>234</v>
       </c>
-      <c r="Q17" s="153">
+      <c r="R17" s="153">
         <f t="shared" si="7"/>
         <v>0.1455223880597015</v>
       </c>
-      <c r="R17" s="95">
+      <c r="S17" s="95">
         <v>460</v>
       </c>
-      <c r="S17" s="153">
+      <c r="T17" s="153">
         <f t="shared" si="8"/>
         <v>0.28606965174129351</v>
       </c>
-      <c r="T17" s="95">
+      <c r="U17" s="95">
         <v>12</v>
       </c>
-      <c r="U17" s="153">
-        <f>T17/'1.1. Кол-во ГС'!L17</f>
+      <c r="V17" s="153">
+        <f>U17/'1.1. Кол-во ГС'!L17</f>
         <v>7.4074074074074077E-3</v>
       </c>
-      <c r="X17" s="66" t="b">
+      <c r="Y17" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="87" t="b">
+      <c r="Z17" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z17" s="87" t="b">
-        <f>B17+T17='1.1. Кол-во ГС'!L17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108" t="s">
+      <c r="AA17" s="87" t="b">
+        <f>C17+U17='1.1. Кол-во ГС'!L17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="110">
+      <c r="C18" s="110">
         <f t="shared" si="0"/>
         <v>3815</v>
       </c>
-      <c r="C18" s="153">
-        <f>B18/'1.1. Кол-во ГС'!L18</f>
+      <c r="D18" s="153">
+        <f>C18/'1.1. Кол-во ГС'!L18</f>
         <v>0.96631205673758869</v>
       </c>
-      <c r="D18" s="98">
+      <c r="E18" s="98">
         <v>378</v>
       </c>
-      <c r="E18" s="153">
+      <c r="F18" s="153">
         <f t="shared" si="1"/>
         <v>9.9082568807339455E-2</v>
       </c>
-      <c r="F18" s="98">
+      <c r="G18" s="98">
         <v>3194</v>
       </c>
-      <c r="G18" s="101">
+      <c r="H18" s="101">
         <f t="shared" si="2"/>
         <v>0.83722149410222801</v>
       </c>
-      <c r="H18" s="98">
+      <c r="I18" s="98">
         <v>243</v>
       </c>
-      <c r="I18" s="101">
+      <c r="J18" s="101">
         <f t="shared" si="3"/>
         <v>6.3695937090432503E-2</v>
       </c>
-      <c r="J18" s="95">
+      <c r="K18" s="95">
         <v>234</v>
       </c>
-      <c r="K18" s="153">
+      <c r="L18" s="153">
         <f t="shared" si="4"/>
         <v>6.1336828309305376E-2</v>
       </c>
-      <c r="L18" s="95">
+      <c r="M18" s="95">
         <v>1000</v>
       </c>
-      <c r="M18" s="153">
+      <c r="N18" s="153">
         <f t="shared" si="5"/>
         <v>0.26212319790301442</v>
       </c>
-      <c r="N18" s="95">
+      <c r="O18" s="95">
         <v>1059</v>
       </c>
-      <c r="O18" s="153">
+      <c r="P18" s="153">
         <f t="shared" si="6"/>
         <v>0.27758846657929226</v>
       </c>
-      <c r="P18" s="95">
+      <c r="Q18" s="95">
         <v>549</v>
       </c>
-      <c r="Q18" s="153">
+      <c r="R18" s="153">
         <f t="shared" si="7"/>
         <v>0.14390563564875491</v>
       </c>
-      <c r="R18" s="95">
+      <c r="S18" s="95">
         <v>973</v>
       </c>
-      <c r="S18" s="153">
+      <c r="T18" s="153">
         <f t="shared" si="8"/>
         <v>0.25504587155963304</v>
       </c>
-      <c r="T18" s="95">
+      <c r="U18" s="95">
         <v>133</v>
       </c>
-      <c r="U18" s="153">
-        <f>T18/'1.1. Кол-во ГС'!L18</f>
+      <c r="V18" s="153">
+        <f>U18/'1.1. Кол-во ГС'!L18</f>
         <v>3.3687943262411348E-2</v>
       </c>
-      <c r="X18" s="66" t="b">
+      <c r="Y18" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="87" t="b">
+      <c r="Z18" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z18" s="87" t="b">
-        <f>B18+T18='1.1. Кол-во ГС'!L18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="s">
+      <c r="AA18" s="87" t="b">
+        <f>C18+U18='1.1. Кол-во ГС'!L18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="110">
+      <c r="C19" s="110">
         <f t="shared" si="0"/>
         <v>2405</v>
       </c>
-      <c r="C19" s="153">
-        <f>B19/'1.1. Кол-во ГС'!L19</f>
+      <c r="D19" s="153">
+        <f>C19/'1.1. Кол-во ГС'!L19</f>
         <v>0.99544701986754969</v>
       </c>
-      <c r="D19" s="98">
+      <c r="E19" s="98">
         <v>278</v>
       </c>
-      <c r="E19" s="153">
+      <c r="F19" s="153">
         <f t="shared" si="1"/>
         <v>0.1155925155925156</v>
       </c>
-      <c r="F19" s="98">
+      <c r="G19" s="98">
         <v>1918</v>
       </c>
-      <c r="G19" s="101">
+      <c r="H19" s="101">
         <f t="shared" si="2"/>
         <v>0.79750519750519755</v>
       </c>
-      <c r="H19" s="98">
+      <c r="I19" s="98">
         <v>209</v>
       </c>
-      <c r="I19" s="101">
+      <c r="J19" s="101">
         <f t="shared" si="3"/>
         <v>8.6902286902286907E-2</v>
       </c>
-      <c r="J19" s="95">
+      <c r="K19" s="95">
         <v>206</v>
       </c>
-      <c r="K19" s="153">
+      <c r="L19" s="153">
         <f t="shared" si="4"/>
         <v>8.565488565488566E-2</v>
       </c>
-      <c r="L19" s="95">
+      <c r="M19" s="95">
         <v>490</v>
       </c>
-      <c r="M19" s="153">
+      <c r="N19" s="153">
         <f t="shared" si="5"/>
         <v>0.20374220374220375</v>
       </c>
-      <c r="N19" s="95">
+      <c r="O19" s="95">
         <v>726</v>
       </c>
-      <c r="O19" s="153">
+      <c r="P19" s="153">
         <f t="shared" si="6"/>
         <v>0.30187110187110189</v>
       </c>
-      <c r="P19" s="95">
+      <c r="Q19" s="95">
         <v>295</v>
       </c>
-      <c r="Q19" s="153">
+      <c r="R19" s="153">
         <f t="shared" si="7"/>
         <v>0.12266112266112267</v>
       </c>
-      <c r="R19" s="95">
+      <c r="S19" s="95">
         <v>688</v>
       </c>
-      <c r="S19" s="153">
+      <c r="T19" s="153">
         <f t="shared" si="8"/>
         <v>0.28607068607068609</v>
       </c>
-      <c r="T19" s="95">
+      <c r="U19" s="95">
         <v>11</v>
       </c>
-      <c r="U19" s="153">
-        <f>T19/'1.1. Кол-во ГС'!L19</f>
+      <c r="V19" s="153">
+        <f>U19/'1.1. Кол-во ГС'!L19</f>
         <v>4.552980132450331E-3</v>
       </c>
-      <c r="X19" s="66" t="b">
+      <c r="Y19" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="87" t="b">
+      <c r="Z19" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z19" s="87" t="b">
-        <f>B19+T19='1.1. Кол-во ГС'!L19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108" t="s">
+      <c r="AA19" s="87" t="b">
+        <f>C19+U19='1.1. Кол-во ГС'!L19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="110">
+      <c r="C20" s="110">
         <f t="shared" si="0"/>
         <v>1356</v>
       </c>
-      <c r="C20" s="153">
-        <f>B20/'1.1. Кол-во ГС'!L20</f>
+      <c r="D20" s="153">
+        <f>C20/'1.1. Кол-во ГС'!L20</f>
         <v>0.99122807017543857</v>
       </c>
-      <c r="D20" s="98">
+      <c r="E20" s="98">
         <v>126</v>
       </c>
-      <c r="E20" s="153">
+      <c r="F20" s="153">
         <f t="shared" si="1"/>
         <v>9.2920353982300891E-2</v>
       </c>
-      <c r="F20" s="98">
+      <c r="G20" s="98">
         <v>1168</v>
       </c>
-      <c r="G20" s="101">
+      <c r="H20" s="101">
         <f t="shared" si="2"/>
         <v>0.86135693215339237</v>
       </c>
-      <c r="H20" s="98">
+      <c r="I20" s="98">
         <v>62</v>
       </c>
-      <c r="I20" s="101">
+      <c r="J20" s="101">
         <f t="shared" si="3"/>
         <v>4.5722713864306784E-2</v>
       </c>
-      <c r="J20" s="95">
+      <c r="K20" s="95">
         <v>88</v>
       </c>
-      <c r="K20" s="153">
+      <c r="L20" s="153">
         <f t="shared" si="4"/>
         <v>6.4896755162241887E-2</v>
       </c>
-      <c r="L20" s="95">
+      <c r="M20" s="95">
         <v>390</v>
       </c>
-      <c r="M20" s="153">
+      <c r="N20" s="153">
         <f t="shared" si="5"/>
         <v>0.28761061946902655</v>
       </c>
-      <c r="N20" s="95">
+      <c r="O20" s="95">
         <v>429</v>
       </c>
-      <c r="O20" s="153">
+      <c r="P20" s="153">
         <f t="shared" si="6"/>
         <v>0.3163716814159292</v>
       </c>
-      <c r="P20" s="95">
+      <c r="Q20" s="95">
         <v>122</v>
       </c>
-      <c r="Q20" s="153">
+      <c r="R20" s="153">
         <f t="shared" si="7"/>
         <v>8.9970501474926259E-2</v>
       </c>
-      <c r="R20" s="95">
+      <c r="S20" s="95">
         <v>327</v>
       </c>
-      <c r="S20" s="153">
+      <c r="T20" s="153">
         <f t="shared" si="8"/>
         <v>0.24115044247787609</v>
       </c>
-      <c r="T20" s="95">
+      <c r="U20" s="95">
         <v>12</v>
       </c>
-      <c r="U20" s="153">
-        <f>T20/'1.1. Кол-во ГС'!L20</f>
+      <c r="V20" s="153">
+        <f>U20/'1.1. Кол-во ГС'!L20</f>
         <v>8.771929824561403E-3</v>
       </c>
-      <c r="X20" s="66" t="b">
+      <c r="Y20" s="66" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="87" t="b">
+      <c r="Z20" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z20" s="87" t="b">
-        <f>B20+T20='1.1. Кол-во ГС'!L20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="139" t="s">
+      <c r="AA20" s="87" t="b">
+        <f>C20+U20='1.1. Кол-во ГС'!L20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="114">
+      <c r="C21" s="114">
         <f t="shared" si="0"/>
         <v>34844</v>
       </c>
-      <c r="C21" s="155">
-        <f>B21/'1.1. Кол-во ГС'!L21</f>
+      <c r="D21" s="155">
+        <f>C21/'1.1. Кол-во ГС'!L21</f>
         <v>0.97695284024000451</v>
       </c>
-      <c r="D21" s="105">
-        <f>SUM(D7:D20)</f>
+      <c r="E21" s="105">
+        <f>SUM(E7:E20)</f>
         <v>4336</v>
       </c>
-      <c r="E21" s="155">
+      <c r="F21" s="155">
         <f t="shared" si="1"/>
         <v>0.12444036275972908</v>
       </c>
-      <c r="F21" s="105">
-        <f>SUM(F7:F20)</f>
+      <c r="G21" s="105">
+        <f>SUM(G7:G20)</f>
         <v>28089</v>
       </c>
-      <c r="G21" s="103">
+      <c r="H21" s="103">
         <f t="shared" si="2"/>
         <v>0.80613592010102164</v>
       </c>
-      <c r="H21" s="105">
-        <f>SUM(H7:H20)</f>
+      <c r="I21" s="105">
+        <f>SUM(I7:I20)</f>
         <v>2419</v>
       </c>
-      <c r="I21" s="103">
+      <c r="J21" s="103">
         <f t="shared" si="3"/>
         <v>6.9423717139249219E-2</v>
       </c>
-      <c r="J21" s="104">
-        <f>SUM(J7:J20)</f>
+      <c r="K21" s="104">
+        <f>SUM(K7:K20)</f>
         <v>2586</v>
       </c>
-      <c r="K21" s="155">
+      <c r="L21" s="155">
         <f t="shared" si="4"/>
         <v>7.4216507863620704E-2</v>
       </c>
-      <c r="L21" s="104">
-        <f>SUM(L7:L20)</f>
+      <c r="M21" s="104">
+        <f>SUM(M7:M20)</f>
         <v>9152</v>
       </c>
-      <c r="M21" s="155">
+      <c r="N21" s="155">
         <f t="shared" si="5"/>
         <v>0.26265641143381929</v>
       </c>
-      <c r="N21" s="104">
-        <f>SUM(N7:N20)</f>
+      <c r="O21" s="104">
+        <f>SUM(O7:O20)</f>
         <v>9977</v>
       </c>
-      <c r="O21" s="155">
+      <c r="P21" s="155">
         <f t="shared" si="6"/>
         <v>0.28633337159912753</v>
       </c>
-      <c r="P21" s="104">
-        <f>SUM(P7:P20)</f>
+      <c r="Q21" s="104">
+        <f>SUM(Q7:Q20)</f>
         <v>3940</v>
       </c>
-      <c r="Q21" s="155">
+      <c r="R21" s="155">
         <f t="shared" si="7"/>
         <v>0.11307542188038112</v>
       </c>
-      <c r="R21" s="104">
-        <f>SUM(R7:R20)</f>
+      <c r="S21" s="104">
+        <f>SUM(S7:S20)</f>
         <v>9189</v>
       </c>
-      <c r="S21" s="155">
+      <c r="T21" s="155">
         <f t="shared" si="8"/>
         <v>0.2637182872230513</v>
       </c>
-      <c r="T21" s="104">
-        <f>SUM(T7:T20)</f>
+      <c r="U21" s="104">
+        <f>SUM(U7:U20)</f>
         <v>822</v>
       </c>
-      <c r="U21" s="155">
-        <f>T21/'1.1. Кол-во ГС'!L21</f>
+      <c r="V21" s="155">
+        <f>U21/'1.1. Кол-во ГС'!L21</f>
         <v>2.3047159759995516E-2</v>
       </c>
-      <c r="X21" s="67" t="b">
+      <c r="Y21" s="67" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Y21" s="87" t="b">
+      <c r="Z21" s="87" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Z21" s="87" t="b">
-        <f>B21+T21='1.1. Кол-во ГС'!L21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L22" s="16"/>
+      <c r="AA21" s="87" t="b">
+        <f>C21+U21='1.1. Кол-во ГС'!L21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="M22" s="16"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="9">
-    <mergeCell ref="J4:S5"/>
-    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="K4:T5"/>
     <mergeCell ref="U4:U6"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="B2:V2"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:J4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -25187,85 +25113,85 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Y21"/>
+  <dimension ref="B2:Z21"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13" style="2" customWidth="1"/>
-    <col min="24" max="25" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="34.85546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4" style="2" customWidth="1"/>
+    <col min="24" max="24" width="13" style="2" customWidth="1"/>
+    <col min="25" max="26" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
+    <row r="2" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="220" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+    </row>
+    <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="C4" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="207" t="s">
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="208"/>
       <c r="L4" s="208"/>
       <c r="M4" s="208"/>
       <c r="N4" s="208"/>
@@ -25273,34 +25199,34 @@
       <c r="P4" s="208"/>
       <c r="Q4" s="208"/>
       <c r="R4" s="208"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="201" t="s">
+      <c r="S4" s="208"/>
+      <c r="T4" s="209"/>
+      <c r="U4" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="214" t="s">
+      <c r="V4" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="W4"/>
       <c r="X4"/>
-    </row>
-    <row r="5" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="221"/>
-      <c r="B5" s="223" t="s">
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="2:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="221"/>
+      <c r="C5" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="224" t="s">
+      <c r="D5" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="198" t="s">
+      <c r="E5" s="204" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="211"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="210"/>
       <c r="L5" s="211"/>
       <c r="M5" s="211"/>
       <c r="N5" s="211"/>
@@ -25308,1425 +25234,1426 @@
       <c r="P5" s="211"/>
       <c r="Q5" s="211"/>
       <c r="R5" s="211"/>
-      <c r="S5" s="212"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="215"/>
-      <c r="W5"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="213"/>
+      <c r="V5" s="215"/>
       <c r="X5"/>
-    </row>
-    <row r="6" spans="1:25" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="222"/>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="106" t="s">
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="2:26" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="222"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="F6" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="G6" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="H6" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="I6" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="J6" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="K6" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="L6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="M6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="N6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="O6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="P6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="Q6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="57" t="s">
+      <c r="R6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="S6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="T6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="202"/>
-      <c r="U6" s="216"/>
-      <c r="W6"/>
+      <c r="U6" s="199"/>
+      <c r="V6" s="216"/>
       <c r="X6"/>
-    </row>
-    <row r="7" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="110">
-        <f>D7+F7+H7</f>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="110">
+        <f>E7+G7+I7</f>
         <v>6542</v>
       </c>
-      <c r="C7" s="153">
-        <f>B7/'1.2. Кол-во МС'!H7</f>
+      <c r="D7" s="153">
+        <f>C7/'1.2. Кол-во МС'!H7</f>
         <v>0.80785379105952082</v>
       </c>
-      <c r="D7" s="98">
+      <c r="E7" s="98">
         <v>913</v>
       </c>
-      <c r="E7" s="101">
-        <f>D7/B7</f>
+      <c r="F7" s="101">
+        <f>E7/C7</f>
         <v>0.13955976765515132</v>
       </c>
-      <c r="F7" s="98">
+      <c r="G7" s="98">
         <v>5426</v>
       </c>
-      <c r="G7" s="101">
-        <f>F7/B7</f>
+      <c r="H7" s="101">
+        <f>G7/C7</f>
         <v>0.82940996637114028</v>
       </c>
-      <c r="H7" s="98">
+      <c r="I7" s="98">
         <v>203</v>
       </c>
-      <c r="I7" s="101">
-        <f>H7/B7</f>
+      <c r="J7" s="101">
+        <f>I7/C7</f>
         <v>3.1030265973708344E-2</v>
       </c>
-      <c r="J7" s="95">
+      <c r="K7" s="95">
         <v>485</v>
       </c>
-      <c r="K7" s="153">
-        <f>J7/B7</f>
+      <c r="L7" s="153">
+        <f>K7/C7</f>
         <v>7.4136349740140634E-2</v>
       </c>
-      <c r="L7" s="95">
+      <c r="M7" s="95">
         <v>2084</v>
       </c>
-      <c r="M7" s="153">
-        <f>L7/B7</f>
+      <c r="N7" s="153">
+        <f>M7/C7</f>
         <v>0.31855701620299604</v>
       </c>
-      <c r="N7" s="95">
+      <c r="O7" s="95">
         <v>1160</v>
       </c>
-      <c r="O7" s="153">
-        <f>N7/B7</f>
+      <c r="P7" s="153">
+        <f>O7/C7</f>
         <v>0.17731580556404769</v>
       </c>
-      <c r="P7" s="95">
+      <c r="Q7" s="95">
         <v>668</v>
       </c>
-      <c r="Q7" s="153">
-        <f>P7/B7</f>
+      <c r="R7" s="153">
+        <f>Q7/C7</f>
         <v>0.10210944665239988</v>
       </c>
-      <c r="R7" s="95">
+      <c r="S7" s="95">
         <v>2145</v>
       </c>
-      <c r="S7" s="153">
-        <f>R7/B7</f>
+      <c r="T7" s="153">
+        <f>S7/C7</f>
         <v>0.32788138184041576</v>
       </c>
-      <c r="T7" s="95">
+      <c r="U7" s="95">
         <v>1556</v>
       </c>
-      <c r="U7" s="153">
-        <f>T7/'1.2. Кол-во МС'!H7</f>
+      <c r="V7" s="153">
+        <f>U7/'1.2. Кол-во МС'!H7</f>
         <v>0.19214620894047912</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="W7" s="69" t="b">
-        <f>J7+L7+N7+P7+R7=B7</f>
-        <v>1</v>
-      </c>
-      <c r="X7" s="68" t="b">
-        <f>D7+F7+H7=B7</f>
+      <c r="W7" s="17"/>
+      <c r="X7" s="69" t="b">
+        <f>K7+M7+O7+Q7+S7=C7</f>
         <v>1</v>
       </c>
       <c r="Y7" s="68" t="b">
-        <f>B7+T7='1.2. Кол-во МС'!H7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="110">
-        <f t="shared" ref="B8:B21" si="0">D8+F8+H8</f>
+        <f>E7+G7+I7=C7</f>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="68" t="b">
+        <f>C7+U7='1.2. Кол-во МС'!H7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="110">
+        <f t="shared" ref="C8:C21" si="0">E8+G8+I8</f>
         <v>1432</v>
       </c>
-      <c r="C8" s="153">
-        <f>B8/'1.2. Кол-во МС'!H8</f>
+      <c r="D8" s="153">
+        <f>C8/'1.2. Кол-во МС'!H8</f>
         <v>0.89893283113622102</v>
       </c>
-      <c r="D8" s="98">
+      <c r="E8" s="98">
         <v>156</v>
       </c>
-      <c r="E8" s="101">
-        <f t="shared" ref="E8:E21" si="1">D8/B8</f>
+      <c r="F8" s="101">
+        <f t="shared" ref="F8:F21" si="1">E8/C8</f>
         <v>0.10893854748603352</v>
       </c>
-      <c r="F8" s="98">
+      <c r="G8" s="98">
         <v>1224</v>
       </c>
-      <c r="G8" s="101">
-        <f t="shared" ref="G8:G21" si="2">F8/B8</f>
+      <c r="H8" s="101">
+        <f t="shared" ref="H8:H21" si="2">G8/C8</f>
         <v>0.85474860335195535</v>
       </c>
-      <c r="H8" s="98">
+      <c r="I8" s="98">
         <v>52</v>
       </c>
-      <c r="I8" s="101">
-        <f t="shared" ref="I8:I21" si="3">H8/B8</f>
+      <c r="J8" s="101">
+        <f t="shared" ref="J8:J21" si="3">I8/C8</f>
         <v>3.6312849162011177E-2</v>
       </c>
-      <c r="J8" s="95">
+      <c r="K8" s="95">
         <v>141</v>
       </c>
-      <c r="K8" s="153">
-        <f t="shared" ref="K8:K21" si="4">J8/B8</f>
+      <c r="L8" s="153">
+        <f t="shared" ref="L8:L21" si="4">K8/C8</f>
         <v>9.8463687150837989E-2</v>
       </c>
-      <c r="L8" s="95">
+      <c r="M8" s="95">
         <v>472</v>
       </c>
-      <c r="M8" s="153">
-        <f t="shared" ref="M8:M21" si="5">L8/B8</f>
+      <c r="N8" s="153">
+        <f t="shared" ref="N8:N21" si="5">M8/C8</f>
         <v>0.32960893854748602</v>
       </c>
-      <c r="N8" s="95">
+      <c r="O8" s="95">
         <v>197</v>
       </c>
-      <c r="O8" s="153">
-        <f t="shared" ref="O8:O21" si="6">N8/B8</f>
+      <c r="P8" s="153">
+        <f t="shared" ref="P8:P21" si="6">O8/C8</f>
         <v>0.13756983240223464</v>
       </c>
-      <c r="P8" s="95">
+      <c r="Q8" s="95">
         <v>133</v>
       </c>
-      <c r="Q8" s="153">
-        <f t="shared" ref="Q8:Q21" si="7">P8/B8</f>
+      <c r="R8" s="153">
+        <f t="shared" ref="R8:R21" si="7">Q8/C8</f>
         <v>9.2877094972067045E-2</v>
       </c>
-      <c r="R8" s="95">
+      <c r="S8" s="95">
         <v>489</v>
       </c>
-      <c r="S8" s="153">
-        <f t="shared" ref="S8:S21" si="8">R8/B8</f>
+      <c r="T8" s="153">
+        <f t="shared" ref="T8:T21" si="8">S8/C8</f>
         <v>0.34148044692737428</v>
       </c>
-      <c r="T8" s="95">
+      <c r="U8" s="95">
         <v>161</v>
       </c>
-      <c r="U8" s="153">
-        <f>T8/'1.2. Кол-во МС'!H8</f>
+      <c r="V8" s="153">
+        <f>U8/'1.2. Кол-во МС'!H8</f>
         <v>0.10106716886377903</v>
       </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="65" t="b">
-        <f t="shared" ref="W8:W21" si="9">J8+L8+N8+P8+R8=B8</f>
-        <v>1</v>
-      </c>
-      <c r="X8" s="68" t="b">
-        <f t="shared" ref="X8:X21" si="10">D8+F8+H8=B8</f>
+      <c r="W8" s="17"/>
+      <c r="X8" s="65" t="b">
+        <f t="shared" ref="X8:X21" si="9">K8+M8+O8+Q8+S8=C8</f>
         <v>1</v>
       </c>
       <c r="Y8" s="68" t="b">
-        <f>B8+T8='1.2. Кол-во МС'!H8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+        <f t="shared" ref="Y8:Y21" si="10">E8+G8+I8=C8</f>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="68" t="b">
+        <f>C8+U8='1.2. Кол-во МС'!H8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="110">
+      <c r="C9" s="110">
         <f t="shared" si="0"/>
         <v>1549</v>
       </c>
-      <c r="C9" s="153">
-        <f>B9/'1.2. Кол-во МС'!H9</f>
+      <c r="D9" s="153">
+        <f>C9/'1.2. Кол-во МС'!H9</f>
         <v>0.8274572649572649</v>
       </c>
-      <c r="D9" s="98">
+      <c r="E9" s="98">
         <v>106</v>
       </c>
-      <c r="E9" s="101">
+      <c r="F9" s="101">
         <f t="shared" si="1"/>
         <v>6.8431245965138804E-2</v>
       </c>
-      <c r="F9" s="98">
+      <c r="G9" s="98">
         <v>1408</v>
       </c>
-      <c r="G9" s="101">
+      <c r="H9" s="101">
         <f t="shared" si="2"/>
         <v>0.90897353131052294</v>
       </c>
-      <c r="H9" s="98">
+      <c r="I9" s="98">
         <v>35</v>
       </c>
-      <c r="I9" s="101">
+      <c r="J9" s="101">
         <f t="shared" si="3"/>
         <v>2.2595222724338282E-2</v>
       </c>
-      <c r="J9" s="95">
+      <c r="K9" s="95">
         <v>108</v>
       </c>
-      <c r="K9" s="153">
+      <c r="L9" s="153">
         <f t="shared" si="4"/>
         <v>6.9722401549386706E-2</v>
       </c>
-      <c r="L9" s="95">
+      <c r="M9" s="95">
         <v>545</v>
       </c>
-      <c r="M9" s="153">
+      <c r="N9" s="153">
         <f t="shared" si="5"/>
         <v>0.35183989670755328</v>
       </c>
-      <c r="N9" s="95">
+      <c r="O9" s="95">
         <v>261</v>
       </c>
-      <c r="O9" s="153">
+      <c r="P9" s="153">
         <f t="shared" si="6"/>
         <v>0.16849580374435119</v>
       </c>
-      <c r="P9" s="95">
+      <c r="Q9" s="95">
         <v>119</v>
       </c>
-      <c r="Q9" s="153">
+      <c r="R9" s="153">
         <f t="shared" si="7"/>
         <v>7.6823757262750161E-2</v>
       </c>
-      <c r="R9" s="95">
+      <c r="S9" s="95">
         <v>516</v>
       </c>
-      <c r="S9" s="153">
+      <c r="T9" s="153">
         <f t="shared" si="8"/>
         <v>0.33311814073595869</v>
       </c>
-      <c r="T9" s="95">
+      <c r="U9" s="95">
         <v>323</v>
       </c>
-      <c r="U9" s="153">
-        <f>T9/'1.2. Кол-во МС'!H9</f>
+      <c r="V9" s="153">
+        <f>U9/'1.2. Кол-во МС'!H9</f>
         <v>0.17254273504273504</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="65" t="b">
+      <c r="W9" s="17"/>
+      <c r="X9" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X9" s="68" t="b">
+      <c r="Y9" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y9" s="68" t="b">
-        <f>B9+T9='1.2. Кол-во МС'!H9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="Z9" s="68" t="b">
+        <f>C9+U9='1.2. Кол-во МС'!H9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="110">
+      <c r="C10" s="110">
         <f t="shared" si="0"/>
         <v>5447</v>
       </c>
-      <c r="C10" s="153">
-        <f>B10/'1.2. Кол-во МС'!H10</f>
+      <c r="D10" s="153">
+        <f>C10/'1.2. Кол-во МС'!H10</f>
         <v>0.91623212783851982</v>
       </c>
-      <c r="D10" s="98">
+      <c r="E10" s="98">
         <v>870</v>
       </c>
-      <c r="E10" s="101">
+      <c r="F10" s="101">
         <f t="shared" si="1"/>
         <v>0.15972094731044612</v>
       </c>
-      <c r="F10" s="98">
+      <c r="G10" s="98">
         <v>4312</v>
       </c>
-      <c r="G10" s="101">
+      <c r="H10" s="101">
         <f t="shared" si="2"/>
         <v>0.79162841931338357</v>
       </c>
-      <c r="H10" s="98">
+      <c r="I10" s="98">
         <v>265</v>
       </c>
-      <c r="I10" s="101">
+      <c r="J10" s="101">
         <f t="shared" si="3"/>
         <v>4.8650633376170371E-2</v>
       </c>
-      <c r="J10" s="140">
+      <c r="K10" s="140">
         <v>377</v>
       </c>
-      <c r="K10" s="153">
+      <c r="L10" s="153">
         <f t="shared" si="4"/>
         <v>6.9212410501193311E-2</v>
       </c>
-      <c r="L10" s="140">
+      <c r="M10" s="140">
         <v>1761</v>
       </c>
-      <c r="M10" s="153">
+      <c r="N10" s="153">
         <f t="shared" si="5"/>
         <v>0.32329722783183401</v>
       </c>
-      <c r="N10" s="140">
+      <c r="O10" s="140">
         <v>1082</v>
       </c>
-      <c r="O10" s="153">
+      <c r="P10" s="153">
         <f t="shared" si="6"/>
         <v>0.19864145401138242</v>
       </c>
-      <c r="P10" s="140">
+      <c r="Q10" s="140">
         <v>42</v>
       </c>
-      <c r="Q10" s="153">
+      <c r="R10" s="153">
         <f t="shared" si="7"/>
         <v>7.7106664218836059E-3</v>
       </c>
-      <c r="R10" s="140">
+      <c r="S10" s="140">
         <v>2185</v>
       </c>
-      <c r="S10" s="153">
+      <c r="T10" s="153">
         <f t="shared" si="8"/>
         <v>0.40113824123370662</v>
       </c>
-      <c r="T10" s="102">
+      <c r="U10" s="102">
         <v>498</v>
       </c>
-      <c r="U10" s="153">
-        <f>T10/'1.2. Кол-во МС'!H10</f>
+      <c r="V10" s="153">
+        <f>U10/'1.2. Кол-во МС'!H10</f>
         <v>8.3767872161480239E-2</v>
       </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="65" t="b">
+      <c r="W10" s="17"/>
+      <c r="X10" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X10" s="68" t="b">
+      <c r="Y10" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="68" t="b">
-        <f>B10+T10='1.2. Кол-во МС'!H10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+      <c r="Z10" s="68" t="b">
+        <f>C10+U10='1.2. Кол-во МС'!H10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="110">
+      <c r="C11" s="110">
         <f t="shared" si="0"/>
         <v>2968</v>
       </c>
-      <c r="C11" s="153">
-        <f>B11/'1.2. Кол-во МС'!H11</f>
+      <c r="D11" s="153">
+        <f>C11/'1.2. Кол-во МС'!H11</f>
         <v>0.94793995528585118</v>
       </c>
-      <c r="D11" s="98">
+      <c r="E11" s="98">
         <v>344</v>
       </c>
-      <c r="E11" s="101">
+      <c r="F11" s="101">
         <f t="shared" si="1"/>
         <v>0.11590296495956873</v>
       </c>
-      <c r="F11" s="98">
+      <c r="G11" s="98">
         <v>2513</v>
       </c>
-      <c r="G11" s="101">
+      <c r="H11" s="101">
         <f t="shared" si="2"/>
         <v>0.84669811320754718</v>
       </c>
-      <c r="H11" s="98">
+      <c r="I11" s="98">
         <v>111</v>
       </c>
-      <c r="I11" s="101">
+      <c r="J11" s="101">
         <f t="shared" si="3"/>
         <v>3.7398921832884097E-2</v>
       </c>
-      <c r="J11" s="95">
+      <c r="K11" s="95">
         <v>318</v>
       </c>
-      <c r="K11" s="153">
+      <c r="L11" s="153">
         <f t="shared" si="4"/>
         <v>0.10714285714285714</v>
       </c>
-      <c r="L11" s="95">
+      <c r="M11" s="95">
         <v>968</v>
       </c>
-      <c r="M11" s="153">
+      <c r="N11" s="153">
         <f t="shared" si="5"/>
         <v>0.32614555256064692</v>
       </c>
-      <c r="N11" s="95">
+      <c r="O11" s="95">
         <v>450</v>
       </c>
-      <c r="O11" s="153">
+      <c r="P11" s="153">
         <f t="shared" si="6"/>
         <v>0.15161725067385445</v>
       </c>
-      <c r="P11" s="95">
+      <c r="Q11" s="95">
         <v>262</v>
       </c>
-      <c r="Q11" s="153">
+      <c r="R11" s="153">
         <f t="shared" si="7"/>
         <v>8.8274932614555254E-2</v>
       </c>
-      <c r="R11" s="95">
+      <c r="S11" s="95">
         <v>970</v>
       </c>
-      <c r="S11" s="153">
+      <c r="T11" s="153">
         <f t="shared" si="8"/>
         <v>0.32681940700808626</v>
       </c>
-      <c r="T11" s="95">
+      <c r="U11" s="95">
         <v>163</v>
       </c>
-      <c r="U11" s="153">
-        <f>T11/'1.2. Кол-во МС'!H11</f>
+      <c r="V11" s="153">
+        <f>U11/'1.2. Кол-во МС'!H11</f>
         <v>5.2060044714148837E-2</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="65" t="b">
+      <c r="W11" s="17"/>
+      <c r="X11" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X11" s="68" t="b">
+      <c r="Y11" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="68" t="b">
-        <f>B11+T11='1.2. Кол-во МС'!H11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108" t="s">
+      <c r="Z11" s="68" t="b">
+        <f>C11+U11='1.2. Кол-во МС'!H11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="110">
+      <c r="C12" s="110">
         <f t="shared" si="0"/>
         <v>1983</v>
       </c>
-      <c r="C12" s="153">
-        <f>B12/'1.2. Кол-во МС'!H12</f>
+      <c r="D12" s="153">
+        <f>C12/'1.2. Кол-во МС'!H12</f>
         <v>0.88645507375949928</v>
       </c>
-      <c r="D12" s="98">
+      <c r="E12" s="98">
         <v>270</v>
       </c>
-      <c r="E12" s="101">
+      <c r="F12" s="101">
         <f t="shared" si="1"/>
         <v>0.13615733736762481</v>
       </c>
-      <c r="F12" s="98">
+      <c r="G12" s="98">
         <v>1649</v>
       </c>
-      <c r="G12" s="101">
+      <c r="H12" s="101">
         <f t="shared" si="2"/>
         <v>0.83156833081190118</v>
       </c>
-      <c r="H12" s="98">
+      <c r="I12" s="98">
         <v>64</v>
       </c>
-      <c r="I12" s="101">
+      <c r="J12" s="101">
         <f t="shared" si="3"/>
         <v>3.2274331820474032E-2</v>
       </c>
-      <c r="J12" s="102">
+      <c r="K12" s="102">
         <v>151</v>
       </c>
-      <c r="K12" s="153">
+      <c r="L12" s="153">
         <f t="shared" si="4"/>
         <v>7.6147251638930907E-2</v>
       </c>
-      <c r="L12" s="99">
+      <c r="M12" s="99">
         <v>726</v>
       </c>
-      <c r="M12" s="153">
+      <c r="N12" s="153">
         <f t="shared" si="5"/>
         <v>0.36611195158850229</v>
       </c>
-      <c r="N12" s="99">
+      <c r="O12" s="99">
         <v>376</v>
       </c>
-      <c r="O12" s="153">
+      <c r="P12" s="153">
         <f t="shared" si="6"/>
         <v>0.18961169944528491</v>
       </c>
-      <c r="P12" s="99">
+      <c r="Q12" s="99">
         <v>133</v>
       </c>
-      <c r="Q12" s="153">
+      <c r="R12" s="153">
         <f t="shared" si="7"/>
         <v>6.7070095814422595E-2</v>
       </c>
-      <c r="R12" s="99">
+      <c r="S12" s="99">
         <v>597</v>
       </c>
-      <c r="S12" s="153">
+      <c r="T12" s="153">
         <f t="shared" si="8"/>
         <v>0.3010590015128593</v>
       </c>
-      <c r="T12" s="99">
+      <c r="U12" s="99">
         <v>254</v>
       </c>
-      <c r="U12" s="153">
-        <f>T12/'1.2. Кол-во МС'!H12</f>
+      <c r="V12" s="153">
+        <f>U12/'1.2. Кол-во МС'!H12</f>
         <v>0.11354492624050067</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="65" t="b">
+      <c r="W12" s="17"/>
+      <c r="X12" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X12" s="68" t="b">
+      <c r="Y12" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="68" t="b">
-        <f>B12+T12='1.2. Кол-во МС'!H12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108" t="s">
+      <c r="Z12" s="68" t="b">
+        <f>C12+U12='1.2. Кол-во МС'!H12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="110">
+      <c r="C13" s="110">
         <f t="shared" si="0"/>
         <v>6001</v>
       </c>
-      <c r="C13" s="153">
-        <f>B13/'1.2. Кол-во МС'!H13</f>
+      <c r="D13" s="153">
+        <f>C13/'1.2. Кол-во МС'!H13</f>
         <v>0.88432066018272915</v>
       </c>
-      <c r="D13" s="98">
+      <c r="E13" s="98">
         <v>1054</v>
       </c>
-      <c r="E13" s="101">
+      <c r="F13" s="101">
         <f t="shared" si="1"/>
         <v>0.17563739376770537</v>
       </c>
-      <c r="F13" s="98">
+      <c r="G13" s="98">
         <v>4759</v>
       </c>
-      <c r="G13" s="101">
+      <c r="H13" s="101">
         <f t="shared" si="2"/>
         <v>0.79303449425095818</v>
       </c>
-      <c r="H13" s="98">
+      <c r="I13" s="98">
         <v>188</v>
       </c>
-      <c r="I13" s="101">
+      <c r="J13" s="101">
         <f t="shared" si="3"/>
         <v>3.1328111981336441E-2</v>
       </c>
-      <c r="J13" s="95">
+      <c r="K13" s="95">
         <v>473</v>
       </c>
-      <c r="K13" s="153">
+      <c r="L13" s="153">
         <f t="shared" si="4"/>
         <v>7.8820196633894349E-2</v>
       </c>
-      <c r="L13" s="95">
+      <c r="M13" s="95">
         <v>1956</v>
       </c>
-      <c r="M13" s="153">
+      <c r="N13" s="153">
         <f t="shared" si="5"/>
         <v>0.3259456757207132</v>
       </c>
-      <c r="N13" s="95">
+      <c r="O13" s="95">
         <v>1194</v>
       </c>
-      <c r="O13" s="153">
+      <c r="P13" s="153">
         <f t="shared" si="6"/>
         <v>0.19896683886018998</v>
       </c>
-      <c r="P13" s="95">
+      <c r="Q13" s="95">
         <v>450</v>
       </c>
-      <c r="Q13" s="153">
+      <c r="R13" s="153">
         <f t="shared" si="7"/>
         <v>7.4987502082986171E-2</v>
       </c>
-      <c r="R13" s="95">
+      <c r="S13" s="95">
         <v>1928</v>
       </c>
-      <c r="S13" s="153">
+      <c r="T13" s="153">
         <f t="shared" si="8"/>
         <v>0.3212797867022163</v>
       </c>
-      <c r="T13" s="95">
+      <c r="U13" s="95">
         <v>785</v>
       </c>
-      <c r="U13" s="153">
-        <f>T13/'1.2. Кол-во МС'!H13</f>
+      <c r="V13" s="153">
+        <f>U13/'1.2. Кол-во МС'!H13</f>
         <v>0.11567933981727085</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="65" t="b">
+      <c r="W13" s="17"/>
+      <c r="X13" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X13" s="68" t="b">
+      <c r="Y13" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="68" t="b">
-        <f>B13+T13='1.2. Кол-во МС'!H13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108" t="s">
+      <c r="Z13" s="68" t="b">
+        <f>C13+U13='1.2. Кол-во МС'!H13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="110">
+      <c r="C14" s="110">
         <f t="shared" si="0"/>
         <v>3157</v>
       </c>
-      <c r="C14" s="153">
-        <f>B14/'1.2. Кол-во МС'!H14</f>
+      <c r="D14" s="153">
+        <f>C14/'1.2. Кол-во МС'!H14</f>
         <v>0.79964539007092195</v>
       </c>
-      <c r="D14" s="98">
+      <c r="E14" s="98">
         <v>595</v>
       </c>
-      <c r="E14" s="101">
+      <c r="F14" s="101">
         <f t="shared" si="1"/>
         <v>0.18847006651884701</v>
       </c>
-      <c r="F14" s="98">
+      <c r="G14" s="98">
         <v>2486</v>
       </c>
-      <c r="G14" s="101">
+      <c r="H14" s="101">
         <f t="shared" si="2"/>
         <v>0.78745644599303133</v>
       </c>
-      <c r="H14" s="98">
+      <c r="I14" s="98">
         <v>76</v>
       </c>
-      <c r="I14" s="101">
+      <c r="J14" s="101">
         <f t="shared" si="3"/>
         <v>2.4073487488121634E-2</v>
       </c>
-      <c r="J14" s="95">
+      <c r="K14" s="95">
         <v>276</v>
       </c>
-      <c r="K14" s="153">
+      <c r="L14" s="153">
         <f t="shared" si="4"/>
         <v>8.7424770351599623E-2</v>
       </c>
-      <c r="L14" s="95">
+      <c r="M14" s="95">
         <v>1216</v>
       </c>
-      <c r="M14" s="153">
+      <c r="N14" s="153">
         <f t="shared" si="5"/>
         <v>0.38517579980994615</v>
       </c>
-      <c r="N14" s="95">
+      <c r="O14" s="95">
         <v>542</v>
       </c>
-      <c r="O14" s="153">
+      <c r="P14" s="153">
         <f t="shared" si="6"/>
         <v>0.17168197656002535</v>
       </c>
-      <c r="P14" s="95">
+      <c r="Q14" s="95">
         <v>197</v>
       </c>
-      <c r="Q14" s="153">
+      <c r="R14" s="153">
         <f t="shared" si="7"/>
         <v>6.2401013620525816E-2</v>
       </c>
-      <c r="R14" s="95">
+      <c r="S14" s="95">
         <v>926</v>
       </c>
-      <c r="S14" s="153">
+      <c r="T14" s="153">
         <f t="shared" si="8"/>
         <v>0.29331643965790305</v>
       </c>
-      <c r="T14" s="95">
+      <c r="U14" s="95">
         <v>791</v>
       </c>
-      <c r="U14" s="153">
-        <f>T14/'1.2. Кол-во МС'!H14</f>
+      <c r="V14" s="153">
+        <f>U14/'1.2. Кол-во МС'!H14</f>
         <v>0.20035460992907803</v>
       </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="65" t="b">
+      <c r="W14" s="17"/>
+      <c r="X14" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X14" s="68" t="b">
+      <c r="Y14" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="68" t="b">
-        <f>B14+T14='1.2. Кол-во МС'!H14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108" t="s">
+      <c r="Z14" s="68" t="b">
+        <f>C14+U14='1.2. Кол-во МС'!H14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="110">
+      <c r="C15" s="110">
         <f t="shared" si="0"/>
         <v>7454</v>
       </c>
-      <c r="C15" s="153">
-        <f>B15/'1.2. Кол-во МС'!H15</f>
+      <c r="D15" s="153">
+        <f>C15/'1.2. Кол-во МС'!H15</f>
         <v>0.96780057128018693</v>
       </c>
-      <c r="D15" s="98">
+      <c r="E15" s="98">
         <v>837</v>
       </c>
-      <c r="E15" s="101">
+      <c r="F15" s="101">
         <f t="shared" si="1"/>
         <v>0.11228870405151596</v>
       </c>
-      <c r="F15" s="98">
+      <c r="G15" s="98">
         <v>6363</v>
       </c>
-      <c r="G15" s="101">
+      <c r="H15" s="101">
         <f t="shared" si="2"/>
         <v>0.85363563187550306</v>
       </c>
-      <c r="H15" s="98">
+      <c r="I15" s="98">
         <v>254</v>
       </c>
-      <c r="I15" s="101">
+      <c r="J15" s="101">
         <f t="shared" si="3"/>
         <v>3.4075664072980953E-2</v>
       </c>
-      <c r="J15" s="95">
+      <c r="K15" s="95">
         <v>799</v>
       </c>
-      <c r="K15" s="153">
+      <c r="L15" s="153">
         <f t="shared" si="4"/>
         <v>0.10719077005634559</v>
       </c>
-      <c r="L15" s="95">
+      <c r="M15" s="95">
         <v>2612</v>
       </c>
-      <c r="M15" s="153">
+      <c r="N15" s="153">
         <f t="shared" si="5"/>
         <v>0.3504158840890797</v>
       </c>
-      <c r="N15" s="95">
+      <c r="O15" s="95">
         <v>1442</v>
       </c>
-      <c r="O15" s="153">
+      <c r="P15" s="153">
         <f t="shared" si="6"/>
         <v>0.1934531795009391</v>
       </c>
-      <c r="P15" s="95">
+      <c r="Q15" s="95">
         <v>891</v>
       </c>
-      <c r="Q15" s="153">
+      <c r="R15" s="153">
         <f t="shared" si="7"/>
         <v>0.1195331365709686</v>
       </c>
-      <c r="R15" s="95">
+      <c r="S15" s="95">
         <v>1710</v>
       </c>
-      <c r="S15" s="153">
+      <c r="T15" s="153">
         <f t="shared" si="8"/>
         <v>0.22940702978266703</v>
       </c>
-      <c r="T15" s="95">
+      <c r="U15" s="95">
         <v>248</v>
       </c>
-      <c r="U15" s="153">
-        <f>T15/'1.2. Кол-во МС'!H15</f>
+      <c r="V15" s="153">
+        <f>U15/'1.2. Кол-во МС'!H15</f>
         <v>3.2199428719813038E-2</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="65" t="b">
+      <c r="W15" s="17"/>
+      <c r="X15" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X15" s="68" t="b">
+      <c r="Y15" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="68" t="b">
-        <f>B15+T15='1.2. Кол-во МС'!H15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108" t="s">
+      <c r="Z15" s="68" t="b">
+        <f>C15+U15='1.2. Кол-во МС'!H15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="110">
+      <c r="C16" s="110">
         <f t="shared" si="0"/>
         <v>4249</v>
       </c>
-      <c r="C16" s="153">
-        <f>B16/'1.2. Кол-во МС'!H16</f>
+      <c r="D16" s="153">
+        <f>C16/'1.2. Кол-во МС'!H16</f>
         <v>0.88891213389121337</v>
       </c>
-      <c r="D16" s="98">
+      <c r="E16" s="98">
         <v>502</v>
       </c>
-      <c r="E16" s="101">
+      <c r="F16" s="101">
         <f t="shared" si="1"/>
         <v>0.11814544598729113</v>
       </c>
-      <c r="F16" s="98">
+      <c r="G16" s="98">
         <v>3664</v>
       </c>
-      <c r="G16" s="101">
+      <c r="H16" s="101">
         <f t="shared" si="2"/>
         <v>0.86232054601082608</v>
       </c>
-      <c r="H16" s="98">
+      <c r="I16" s="98">
         <v>83</v>
       </c>
-      <c r="I16" s="101">
+      <c r="J16" s="101">
         <f t="shared" si="3"/>
         <v>1.9534008001882795E-2</v>
       </c>
-      <c r="J16" s="95">
+      <c r="K16" s="95">
         <v>388</v>
       </c>
-      <c r="K16" s="153">
+      <c r="L16" s="153">
         <f t="shared" si="4"/>
         <v>9.1315603671452111E-2</v>
       </c>
-      <c r="L16" s="95">
+      <c r="M16" s="95">
         <v>1543</v>
       </c>
-      <c r="M16" s="153">
+      <c r="N16" s="153">
         <f t="shared" si="5"/>
         <v>0.36314426923982113</v>
       </c>
-      <c r="N16" s="95">
+      <c r="O16" s="95">
         <v>838</v>
       </c>
-      <c r="O16" s="153">
+      <c r="P16" s="153">
         <f t="shared" si="6"/>
         <v>0.19722287597081667</v>
       </c>
-      <c r="P16" s="95">
+      <c r="Q16" s="95">
         <v>381</v>
       </c>
-      <c r="Q16" s="153">
+      <c r="R16" s="153">
         <f t="shared" si="7"/>
         <v>8.9668157213461996E-2</v>
       </c>
-      <c r="R16" s="95">
+      <c r="S16" s="95">
         <v>1099</v>
       </c>
-      <c r="S16" s="153">
+      <c r="T16" s="153">
         <f t="shared" si="8"/>
         <v>0.25864909390444812</v>
       </c>
-      <c r="T16" s="95">
+      <c r="U16" s="95">
         <v>531</v>
       </c>
-      <c r="U16" s="153">
-        <f>T16/'1.2. Кол-во МС'!H16</f>
+      <c r="V16" s="153">
+        <f>U16/'1.2. Кол-во МС'!H16</f>
         <v>0.11108786610878661</v>
       </c>
-      <c r="V16" s="17"/>
-      <c r="W16" s="65" t="b">
+      <c r="W16" s="17"/>
+      <c r="X16" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X16" s="68" t="b">
+      <c r="Y16" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="68" t="b">
-        <f>B16+T16='1.2. Кол-во МС'!H16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
+      <c r="Z16" s="68" t="b">
+        <f>C16+U16='1.2. Кол-во МС'!H16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="110">
+      <c r="C17" s="110">
         <f t="shared" si="0"/>
         <v>2951</v>
       </c>
-      <c r="C17" s="153">
-        <f>B17/'1.2. Кол-во МС'!H17</f>
+      <c r="D17" s="153">
+        <f>C17/'1.2. Кол-во МС'!H17</f>
         <v>0.91305693069306926</v>
       </c>
-      <c r="D17" s="98">
+      <c r="E17" s="98">
         <v>304</v>
       </c>
-      <c r="E17" s="101">
+      <c r="F17" s="101">
         <f t="shared" si="1"/>
         <v>0.10301592680447307</v>
       </c>
-      <c r="F17" s="98">
+      <c r="G17" s="98">
         <v>2527</v>
       </c>
-      <c r="G17" s="101">
+      <c r="H17" s="101">
         <f t="shared" si="2"/>
         <v>0.85631989156218236</v>
       </c>
-      <c r="H17" s="98">
+      <c r="I17" s="98">
         <v>120</v>
       </c>
-      <c r="I17" s="101">
+      <c r="J17" s="101">
         <f t="shared" si="3"/>
         <v>4.0664181633344627E-2</v>
       </c>
-      <c r="J17" s="95">
+      <c r="K17" s="95">
         <v>167</v>
       </c>
-      <c r="K17" s="153">
+      <c r="L17" s="153">
         <f t="shared" si="4"/>
         <v>5.659098610640461E-2</v>
       </c>
-      <c r="L17" s="95">
+      <c r="M17" s="95">
         <v>996</v>
       </c>
-      <c r="M17" s="153">
+      <c r="N17" s="153">
         <f t="shared" si="5"/>
         <v>0.33751270755676044</v>
       </c>
-      <c r="N17" s="95">
+      <c r="O17" s="95">
         <v>431</v>
       </c>
-      <c r="O17" s="153">
+      <c r="P17" s="153">
         <f t="shared" si="6"/>
         <v>0.1460521856997628</v>
       </c>
-      <c r="P17" s="95">
+      <c r="Q17" s="95">
         <v>413</v>
       </c>
-      <c r="Q17" s="153">
+      <c r="R17" s="153">
         <f t="shared" si="7"/>
         <v>0.13995255845476109</v>
       </c>
-      <c r="R17" s="95">
+      <c r="S17" s="95">
         <v>944</v>
       </c>
-      <c r="S17" s="153">
+      <c r="T17" s="153">
         <f t="shared" si="8"/>
         <v>0.31989156218231107</v>
       </c>
-      <c r="T17" s="95">
+      <c r="U17" s="95">
         <v>281</v>
       </c>
-      <c r="U17" s="153">
-        <f>T17/'1.2. Кол-во МС'!H17</f>
+      <c r="V17" s="153">
+        <f>U17/'1.2. Кол-во МС'!H17</f>
         <v>8.6943069306930687E-2</v>
       </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="65" t="b">
+      <c r="W17" s="17"/>
+      <c r="X17" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X17" s="68" t="b">
+      <c r="Y17" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="68" t="b">
-        <f>B17+T17='1.2. Кол-во МС'!H17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108" t="s">
+      <c r="Z17" s="68" t="b">
+        <f>C17+U17='1.2. Кол-во МС'!H17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="110">
+      <c r="C18" s="110">
         <f t="shared" si="0"/>
         <v>5642</v>
       </c>
-      <c r="C18" s="153">
-        <f>B18/'1.2. Кол-во МС'!H18</f>
+      <c r="D18" s="153">
+        <f>C18/'1.2. Кол-во МС'!H18</f>
         <v>0.95095230069105008</v>
       </c>
-      <c r="D18" s="98">
+      <c r="E18" s="98">
         <v>604</v>
       </c>
-      <c r="E18" s="101">
+      <c r="F18" s="101">
         <f t="shared" si="1"/>
         <v>0.10705423608649416</v>
       </c>
-      <c r="F18" s="98">
+      <c r="G18" s="98">
         <v>4783</v>
       </c>
-      <c r="G18" s="101">
+      <c r="H18" s="101">
         <f t="shared" si="2"/>
         <v>0.84774902516838002</v>
       </c>
-      <c r="H18" s="98">
+      <c r="I18" s="98">
         <v>255</v>
       </c>
-      <c r="I18" s="101">
+      <c r="J18" s="101">
         <f t="shared" si="3"/>
         <v>4.5196738745125843E-2</v>
       </c>
-      <c r="J18" s="95">
+      <c r="K18" s="95">
         <v>430</v>
       </c>
-      <c r="K18" s="153">
+      <c r="L18" s="153">
         <f t="shared" si="4"/>
         <v>7.6214108472172984E-2</v>
       </c>
-      <c r="L18" s="95">
+      <c r="M18" s="95">
         <v>1805</v>
       </c>
-      <c r="M18" s="153">
+      <c r="N18" s="153">
         <f t="shared" si="5"/>
         <v>0.31992201347040056</v>
       </c>
-      <c r="N18" s="95">
+      <c r="O18" s="95">
         <v>1205</v>
       </c>
-      <c r="O18" s="153">
+      <c r="P18" s="153">
         <f t="shared" si="6"/>
         <v>0.21357674583481034</v>
       </c>
-      <c r="P18" s="95">
+      <c r="Q18" s="95">
         <v>887</v>
       </c>
-      <c r="Q18" s="153">
+      <c r="R18" s="153">
         <f t="shared" si="7"/>
         <v>0.15721375398794754</v>
       </c>
-      <c r="R18" s="95">
+      <c r="S18" s="95">
         <v>1315</v>
       </c>
-      <c r="S18" s="153">
+      <c r="T18" s="153">
         <f t="shared" si="8"/>
         <v>0.23307337823466856</v>
       </c>
-      <c r="T18" s="95">
+      <c r="U18" s="95">
         <v>291</v>
       </c>
-      <c r="U18" s="153">
-        <f>T18/'1.2. Кол-во МС'!H18</f>
+      <c r="V18" s="153">
+        <f>U18/'1.2. Кол-во МС'!H18</f>
         <v>4.9047699308949942E-2</v>
       </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="65" t="b">
+      <c r="W18" s="17"/>
+      <c r="X18" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X18" s="68" t="b">
+      <c r="Y18" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="68" t="b">
-        <f>B18+T18='1.2. Кол-во МС'!H18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="Z18" s="68" t="b">
+        <f>C18+U18='1.2. Кол-во МС'!H18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="110">
+      <c r="C19" s="110">
         <f t="shared" si="0"/>
         <v>4394</v>
       </c>
-      <c r="C19" s="153">
-        <f>B19/'1.2. Кол-во МС'!H19</f>
+      <c r="D19" s="153">
+        <f>C19/'1.2. Кол-во МС'!H19</f>
         <v>0.85753317720530831</v>
       </c>
-      <c r="D19" s="98">
+      <c r="E19" s="98">
         <v>542</v>
       </c>
-      <c r="E19" s="101">
+      <c r="F19" s="101">
         <f t="shared" si="1"/>
         <v>0.12335002275830678</v>
       </c>
-      <c r="F19" s="98">
+      <c r="G19" s="98">
         <v>3683</v>
       </c>
-      <c r="G19" s="101">
+      <c r="H19" s="101">
         <f t="shared" si="2"/>
         <v>0.83818843878015481</v>
       </c>
-      <c r="H19" s="98">
+      <c r="I19" s="98">
         <v>169</v>
       </c>
-      <c r="I19" s="101">
+      <c r="J19" s="101">
         <f t="shared" si="3"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="J19" s="95">
+      <c r="K19" s="95">
         <v>355</v>
       </c>
-      <c r="K19" s="153">
+      <c r="L19" s="153">
         <f t="shared" si="4"/>
         <v>8.0791989076012746E-2</v>
       </c>
-      <c r="L19" s="95">
+      <c r="M19" s="95">
         <v>1275</v>
       </c>
-      <c r="M19" s="153">
+      <c r="N19" s="153">
         <f t="shared" si="5"/>
         <v>0.29016841147018663</v>
       </c>
-      <c r="N19" s="95">
+      <c r="O19" s="95">
         <v>881</v>
       </c>
-      <c r="O19" s="153">
+      <c r="P19" s="153">
         <f t="shared" si="6"/>
         <v>0.20050068274920346</v>
       </c>
-      <c r="P19" s="95">
+      <c r="Q19" s="95">
         <v>479</v>
       </c>
-      <c r="Q19" s="153">
+      <c r="R19" s="153">
         <f t="shared" si="7"/>
         <v>0.10901228948566227</v>
       </c>
-      <c r="R19" s="95">
+      <c r="S19" s="95">
         <v>1404</v>
       </c>
-      <c r="S19" s="153">
+      <c r="T19" s="153">
         <f t="shared" si="8"/>
         <v>0.31952662721893493</v>
       </c>
-      <c r="T19" s="95">
+      <c r="U19" s="95">
         <v>730</v>
       </c>
-      <c r="U19" s="153">
-        <f>T19/'1.2. Кол-во МС'!H19</f>
+      <c r="V19" s="153">
+        <f>U19/'1.2. Кол-во МС'!H19</f>
         <v>0.14246682279469164</v>
       </c>
-      <c r="V19" s="17"/>
-      <c r="W19" s="65" t="b">
+      <c r="W19" s="17"/>
+      <c r="X19" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X19" s="68" t="b">
+      <c r="Y19" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="68" t="b">
-        <f>B19+T19='1.2. Кол-во МС'!H19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108" t="s">
+      <c r="Z19" s="68" t="b">
+        <f>C19+U19='1.2. Кол-во МС'!H19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="110">
+      <c r="C20" s="110">
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
-      <c r="C20" s="153">
-        <f>B20/'1.2. Кол-во МС'!H20</f>
+      <c r="D20" s="153">
+        <f>C20/'1.2. Кол-во МС'!H20</f>
         <v>0.93517534537725822</v>
       </c>
-      <c r="D20" s="98">
+      <c r="E20" s="98">
         <v>208</v>
       </c>
-      <c r="E20" s="101">
+      <c r="F20" s="101">
         <f t="shared" si="1"/>
         <v>0.11818181818181818</v>
       </c>
-      <c r="F20" s="98">
+      <c r="G20" s="98">
         <v>1489</v>
       </c>
-      <c r="G20" s="101">
+      <c r="H20" s="101">
         <f t="shared" si="2"/>
         <v>0.84602272727272732</v>
       </c>
-      <c r="H20" s="98">
+      <c r="I20" s="98">
         <v>63</v>
       </c>
-      <c r="I20" s="101">
+      <c r="J20" s="101">
         <f t="shared" si="3"/>
         <v>3.5795454545454547E-2</v>
       </c>
-      <c r="J20" s="95">
+      <c r="K20" s="95">
         <v>108</v>
       </c>
-      <c r="K20" s="153">
+      <c r="L20" s="153">
         <f t="shared" si="4"/>
         <v>6.1363636363636363E-2</v>
       </c>
-      <c r="L20" s="95">
+      <c r="M20" s="95">
         <v>539</v>
       </c>
-      <c r="M20" s="153">
+      <c r="N20" s="153">
         <f t="shared" si="5"/>
         <v>0.30625000000000002</v>
       </c>
-      <c r="N20" s="95">
+      <c r="O20" s="95">
         <v>407</v>
       </c>
-      <c r="O20" s="153">
+      <c r="P20" s="153">
         <f t="shared" si="6"/>
         <v>0.23125000000000001</v>
       </c>
-      <c r="P20" s="95">
+      <c r="Q20" s="95">
         <v>156</v>
       </c>
-      <c r="Q20" s="153">
+      <c r="R20" s="153">
         <f t="shared" si="7"/>
         <v>8.8636363636363638E-2</v>
       </c>
-      <c r="R20" s="95">
+      <c r="S20" s="95">
         <v>550</v>
       </c>
-      <c r="S20" s="153">
+      <c r="T20" s="153">
         <f t="shared" si="8"/>
         <v>0.3125</v>
       </c>
-      <c r="T20" s="95">
+      <c r="U20" s="95">
         <v>122</v>
       </c>
-      <c r="U20" s="153">
-        <f>T20/'1.2. Кол-во МС'!H20</f>
+      <c r="V20" s="153">
+        <f>U20/'1.2. Кол-во МС'!H20</f>
         <v>6.482465462274177E-2</v>
       </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="65" t="b">
+      <c r="W20" s="17"/>
+      <c r="X20" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X20" s="68" t="b">
+      <c r="Y20" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="68" t="b">
-        <f>B20+T20='1.2. Кол-во МС'!H20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109" t="s">
+      <c r="Z20" s="68" t="b">
+        <f>C20+U20='1.2. Кол-во МС'!H20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="114">
+      <c r="C21" s="114">
         <f t="shared" si="0"/>
         <v>55529</v>
       </c>
-      <c r="C21" s="155">
-        <f>B21/'1.2. Кол-во МС'!H21</f>
+      <c r="D21" s="155">
+        <f>C21/'1.2. Кол-во МС'!H21</f>
         <v>0.89184587957534978</v>
       </c>
-      <c r="D21" s="105">
-        <f>SUM(D7:D20)</f>
+      <c r="E21" s="105">
+        <f>SUM(E7:E20)</f>
         <v>7305</v>
       </c>
-      <c r="E21" s="103">
+      <c r="F21" s="103">
         <f t="shared" si="1"/>
         <v>0.13155288227772877</v>
       </c>
-      <c r="F21" s="105">
-        <f>SUM(F7:F20)</f>
+      <c r="G21" s="105">
+        <f>SUM(G7:G20)</f>
         <v>46286</v>
       </c>
-      <c r="G21" s="103">
+      <c r="H21" s="103">
         <f t="shared" si="2"/>
         <v>0.83354643519602367</v>
       </c>
-      <c r="H21" s="105">
-        <f>SUM(H7:H20)</f>
+      <c r="I21" s="105">
+        <f>SUM(I7:I20)</f>
         <v>1938</v>
       </c>
-      <c r="I21" s="103">
+      <c r="J21" s="103">
         <f t="shared" si="3"/>
         <v>3.4900682526247548E-2</v>
       </c>
-      <c r="J21" s="104">
-        <f>SUM(J7:J20)</f>
+      <c r="K21" s="104">
+        <f>SUM(K7:K20)</f>
         <v>4576</v>
       </c>
-      <c r="K21" s="155">
+      <c r="L21" s="155">
         <f t="shared" si="4"/>
         <v>8.2407390732770258E-2</v>
       </c>
-      <c r="L21" s="104">
-        <f>SUM(L7:L20)</f>
+      <c r="M21" s="104">
+        <f>SUM(M7:M20)</f>
         <v>18498</v>
       </c>
-      <c r="M21" s="155">
+      <c r="N21" s="155">
         <f t="shared" si="5"/>
         <v>0.33312323290532875</v>
       </c>
-      <c r="N21" s="104">
-        <f>SUM(N7:N20)</f>
+      <c r="O21" s="104">
+        <f>SUM(O7:O20)</f>
         <v>10466</v>
       </c>
-      <c r="O21" s="155">
+      <c r="P21" s="155">
         <f t="shared" si="6"/>
         <v>0.1884780925282285</v>
       </c>
-      <c r="P21" s="104">
-        <f>SUM(P7:P20)</f>
+      <c r="Q21" s="104">
+        <f>SUM(Q7:Q20)</f>
         <v>5211</v>
       </c>
-      <c r="Q21" s="155">
+      <c r="R21" s="155">
         <f t="shared" si="7"/>
         <v>9.3842856885591311E-2</v>
       </c>
-      <c r="R21" s="104">
-        <f>SUM(R7:R20)</f>
+      <c r="S21" s="104">
+        <f>SUM(S7:S20)</f>
         <v>16778</v>
       </c>
-      <c r="S21" s="155">
+      <c r="T21" s="155">
         <f t="shared" si="8"/>
         <v>0.30214842694808119</v>
       </c>
-      <c r="T21" s="104">
-        <f>SUM(T7:T20)</f>
+      <c r="U21" s="104">
+        <f>SUM(U7:U20)</f>
         <v>6734</v>
       </c>
-      <c r="U21" s="155">
-        <f>T21/'1.2. Кол-во МС'!H21</f>
+      <c r="V21" s="155">
+        <f>U21/'1.2. Кол-во МС'!H21</f>
         <v>0.10815412042465028</v>
       </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="65" t="b">
+      <c r="W21" s="17"/>
+      <c r="X21" s="65" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X21" s="68" t="b">
+      <c r="Y21" s="68" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y21" s="68" t="b">
-        <f>B21+T21='1.2. Кол-во МС'!H21</f>
+      <c r="Z21" s="68" t="b">
+        <f>C21+U21='1.2. Кол-во МС'!H21</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="9">
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:S5"/>
-    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:T5"/>
     <mergeCell ref="U4:U6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="V4:V6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.6692913385826772" bottom="0.6692913385826772" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data_xlsx/2022_full.xlsx
+++ b/data_xlsx/2022_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladz\PycharmProjects\pythonProject\data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A5AB3-C5AE-4178-AC7A-0EABE2F3C1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB03509-7ABA-4756-AE31-A3FE67B365C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="19" activeTab="23" xr2:uid="{51E1E190-38BE-479B-9208-DDA24F648E37}"/>
+    <workbookView xWindow="5985" yWindow="1725" windowWidth="21600" windowHeight="13620" tabRatio="822" firstSheet="19" activeTab="24" xr2:uid="{51E1E190-38BE-479B-9208-DDA24F648E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="52" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="240">
   <si>
     <t>Республика Башкортостан</t>
   </si>
@@ -658,9 +658,6 @@
   </si>
   <si>
     <t>Средств служащих</t>
-  </si>
-  <si>
-    <t>в т.ч. за счет средств федерального бюджета</t>
   </si>
   <si>
     <t>в т.ч. за счет средств служащих</t>
@@ -2306,16 +2303,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2402,60 +2399,60 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2866,7 +2863,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="193" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="194"/>
       <c r="C1" s="194"/>
@@ -6011,9 +6008,9 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="N2" s="226"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="226"/>
+      <c r="N2" s="228"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="228"/>
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6021,7 +6018,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="223" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" s="224" t="s">
         <v>36</v>
@@ -6037,18 +6034,18 @@
       <c r="K3" s="205"/>
       <c r="L3" s="206"/>
       <c r="M3" s="223" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="223" t="s">
         <v>210</v>
       </c>
-      <c r="N3" s="223" t="s">
+      <c r="O3" s="223" t="s">
         <v>211</v>
       </c>
-      <c r="O3" s="223" t="s">
+      <c r="P3" s="223" t="s">
         <v>212</v>
       </c>
-      <c r="P3" s="223" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q3" s="227" t="s">
+      <c r="Q3" s="226" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6063,13 +6060,13 @@
         <v>27</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J4" s="158" t="s">
         <v>27</v>
@@ -6084,7 +6081,7 @@
       <c r="N4" s="223"/>
       <c r="O4" s="223"/>
       <c r="P4" s="223"/>
-      <c r="Q4" s="228"/>
+      <c r="Q4" s="227"/>
     </row>
     <row r="5" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="108" t="s">
@@ -7063,7 +7060,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7081,7 +7078,7 @@
         <v>-1</v>
       </c>
       <c r="F7" s="174" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.2">
@@ -7099,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="173" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7117,7 +7114,7 @@
         <v>-1</v>
       </c>
       <c r="F9" s="174" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7135,7 +7132,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="173" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
@@ -7185,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
@@ -7219,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="173" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7237,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="175" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7255,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="93.75" x14ac:dyDescent="0.2">
@@ -7273,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7385,9 +7382,9 @@
       <c r="M2" s="234"/>
     </row>
     <row r="3" spans="2:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
     </row>
     <row r="4" spans="2:17" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="220" t="s">
@@ -7397,17 +7394,17 @@
         <v>154</v>
       </c>
       <c r="D4" s="237" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="239" t="s">
         <v>155</v>
       </c>
       <c r="F4" s="238" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="238"/>
       <c r="H4" s="238" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I4" s="238"/>
       <c r="J4" s="238" t="s">
@@ -7415,10 +7412,10 @@
       </c>
       <c r="K4" s="238"/>
       <c r="L4" s="235" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M4" s="232" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8281,11 +8278,11 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
     </row>
@@ -8361,37 +8358,37 @@
         <v>64</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="106" t="s">
         <v>64</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K6" s="106" t="s">
         <v>64</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M6" s="106" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O6" s="38" t="s">
         <v>162</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="106" t="s">
         <v>64</v>
       </c>
       <c r="R6" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9365,7 +9362,7 @@
     <row r="22" spans="2:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="241" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="241"/>
       <c r="D23" s="241"/>
@@ -9493,12 +9490,12 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="230" t="s">
@@ -9569,7 +9566,7 @@
       </c>
       <c r="L6" s="254"/>
       <c r="M6" s="204" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N6" s="253"/>
       <c r="O6" s="204" t="s">
@@ -10553,7 +10550,7 @@
     </row>
     <row r="24" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="245" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="245"/>
       <c r="D24" s="245"/>
@@ -10669,8 +10666,8 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
       <c r="K3" s="27"/>
       <c r="L3" s="28"/>
     </row>
@@ -10679,14 +10676,14 @@
         <v>14</v>
       </c>
       <c r="C4" s="235" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="256"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="198" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="242" t="s">
         <v>65</v>
@@ -10695,8 +10692,8 @@
       <c r="I4" s="198" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="261" t="s">
-        <v>223</v>
+      <c r="J4" s="259" t="s">
+        <v>222</v>
       </c>
       <c r="K4" s="230" t="s">
         <v>98</v>
@@ -10708,21 +10705,21 @@
     <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="230"/>
       <c r="C5" s="255"/>
-      <c r="D5" s="258" t="s">
+      <c r="D5" s="266" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="264" t="s">
+      <c r="E5" s="262" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="267"/>
+      <c r="F5" s="257"/>
       <c r="G5" s="235" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="261" t="s">
+      <c r="H5" s="259" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="267"/>
-      <c r="J5" s="262"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="269"/>
       <c r="K5" s="235" t="s">
         <v>15</v>
       </c>
@@ -10735,42 +10732,42 @@
     <row r="6" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="230"/>
       <c r="C6" s="255"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="257"/>
       <c r="G6" s="255"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="267"/>
-      <c r="J6" s="262"/>
-      <c r="K6" s="257"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="273"/>
       <c r="L6" s="235" t="s">
         <v>160</v>
       </c>
-      <c r="M6" s="264" t="s">
+      <c r="M6" s="262" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="273" t="s">
+      <c r="O6" s="264" t="s">
         <v>159</v>
       </c>
-      <c r="P6" s="269" t="s">
+      <c r="P6" s="256" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="230"/>
       <c r="C7" s="236"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="258"/>
       <c r="G7" s="236"/>
-      <c r="H7" s="271"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="263"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="270"/>
       <c r="K7" s="236"/>
       <c r="L7" s="236"/>
-      <c r="M7" s="272"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="269"/>
+      <c r="M7" s="263"/>
+      <c r="O7" s="264"/>
+      <c r="P7" s="256"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="108" t="s">
@@ -11546,24 +11543,17 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J24" s="90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J25" s="90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B4:B7"/>
@@ -11577,6 +11567,13 @@
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11740,7 +11737,7 @@
         <v>137</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12771,17 +12768,17 @@
       <c r="M3" s="46"/>
       <c r="N3" s="46"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
-      <c r="S3" s="226"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="278" t="s">
         <v>68</v>
@@ -13942,7 +13939,7 @@
     </row>
     <row r="23" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="277" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="277"/>
       <c r="D23" s="277"/>
@@ -14070,22 +14067,22 @@
       <c r="C5" s="238"/>
       <c r="D5" s="238"/>
       <c r="E5" s="238" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" s="238"/>
       <c r="G5" s="246" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H5" s="248"/>
       <c r="I5" s="238" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J5" s="238"/>
       <c r="K5" s="230" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L5" s="230"/>
-      <c r="N5" s="269" t="s">
+      <c r="N5" s="256" t="s">
         <v>178</v>
       </c>
     </row>
@@ -14121,7 +14118,7 @@
       <c r="L6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="269"/>
+      <c r="N6" s="256"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="108" t="s">
@@ -14857,7 +14854,7 @@
       <c r="P4" s="208"/>
       <c r="Q4" s="208"/>
       <c r="R4" s="209"/>
-      <c r="T4" s="269" t="s">
+      <c r="T4" s="256" t="s">
         <v>182</v>
       </c>
     </row>
@@ -14883,7 +14880,7 @@
       <c r="P5" s="211"/>
       <c r="Q5" s="211"/>
       <c r="R5" s="212"/>
-      <c r="T5" s="269"/>
+      <c r="T5" s="256"/>
     </row>
     <row r="6" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="230"/>
@@ -14935,7 +14932,7 @@
       <c r="R6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="269"/>
+      <c r="T6" s="256"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="108" t="s">
@@ -16027,7 +16024,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="249" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="250"/>
       <c r="E4" s="287" t="s">
@@ -16049,10 +16046,10 @@
         <v>71</v>
       </c>
       <c r="G5" s="285" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="235" t="s">
         <v>205</v>
-      </c>
-      <c r="H5" s="235" t="s">
-        <v>206</v>
       </c>
       <c r="I5" s="235" t="s">
         <v>115</v>
@@ -16064,7 +16061,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="236"/>
       <c r="F6" s="236"/>
@@ -16563,7 +16560,7 @@
     </row>
     <row r="23" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="283" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C23" s="283"/>
       <c r="D23" s="283"/>
@@ -16602,7 +16599,7 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -16718,7 +16715,7 @@
     <row r="6" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="221"/>
       <c r="C6" s="246" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="248"/>
       <c r="E6" s="246" t="s">
@@ -16726,7 +16723,7 @@
       </c>
       <c r="F6" s="248"/>
       <c r="G6" s="246" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H6" s="248"/>
       <c r="I6" s="246" t="s">
@@ -16734,7 +16731,7 @@
       </c>
       <c r="J6" s="248"/>
       <c r="K6" s="246" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L6" s="248"/>
       <c r="M6" s="246" t="s">
@@ -16839,7 +16836,7 @@
         <v>10</v>
       </c>
       <c r="R8" s="13" t="b">
-        <f>D8+H8+L8='17.3. ДПО ГС'!M7+'17.3. ДПО ГС'!V7+'17.4. ДПО ГС'!L8</f>
+        <f>D8+H8+L8='17.3. ДПО ГС'!L7+'17.3. ДПО ГС'!T7+'17.4. ДПО ГС'!L8</f>
         <v>1</v>
       </c>
     </row>
@@ -16890,7 +16887,7 @@
         <v>6</v>
       </c>
       <c r="R9" s="13" t="b">
-        <f>D9+H9+L9='17.3. ДПО ГС'!M8+'17.3. ДПО ГС'!V8+'17.4. ДПО ГС'!L9</f>
+        <f>D9+H9+L9='17.3. ДПО ГС'!L8+'17.3. ДПО ГС'!T8+'17.4. ДПО ГС'!L9</f>
         <v>0</v>
       </c>
     </row>
@@ -16941,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="13" t="b">
-        <f>D10+H10+L10='17.3. ДПО ГС'!M9+'17.3. ДПО ГС'!V9+'17.4. ДПО ГС'!L10</f>
+        <f>D10+H10+L10='17.3. ДПО ГС'!L9+'17.3. ДПО ГС'!T9+'17.4. ДПО ГС'!L10</f>
         <v>1</v>
       </c>
     </row>
@@ -16992,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="13" t="b">
-        <f>D11+H11+L11='17.3. ДПО ГС'!M10+'17.3. ДПО ГС'!V10+'17.4. ДПО ГС'!L11</f>
+        <f>D11+H11+L11='17.3. ДПО ГС'!L10+'17.3. ДПО ГС'!T10+'17.4. ДПО ГС'!L11</f>
         <v>1</v>
       </c>
     </row>
@@ -17043,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="13" t="b">
-        <f>D12+H12+L12='17.3. ДПО ГС'!M11+'17.3. ДПО ГС'!V11+'17.4. ДПО ГС'!L12</f>
+        <f>D12+H12+L12='17.3. ДПО ГС'!L11+'17.3. ДПО ГС'!T11+'17.4. ДПО ГС'!L12</f>
         <v>0</v>
       </c>
     </row>
@@ -17094,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="13" t="b">
-        <f>D13+H13+L13='17.3. ДПО ГС'!M12+'17.3. ДПО ГС'!V12+'17.4. ДПО ГС'!L13</f>
+        <f>D13+H13+L13='17.3. ДПО ГС'!L12+'17.3. ДПО ГС'!T12+'17.4. ДПО ГС'!L13</f>
         <v>0</v>
       </c>
     </row>
@@ -17145,7 +17142,7 @@
         <v>11</v>
       </c>
       <c r="R14" s="13" t="b">
-        <f>D14+H14+L14='17.3. ДПО ГС'!M13+'17.3. ДПО ГС'!V13+'17.4. ДПО ГС'!L14</f>
+        <f>D14+H14+L14='17.3. ДПО ГС'!L13+'17.3. ДПО ГС'!T13+'17.4. ДПО ГС'!L14</f>
         <v>0</v>
       </c>
     </row>
@@ -17196,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="13" t="b">
-        <f>D15+H15+L15='17.3. ДПО ГС'!M14+'17.3. ДПО ГС'!V14+'17.4. ДПО ГС'!L15</f>
+        <f>D15+H15+L15='17.3. ДПО ГС'!L14+'17.3. ДПО ГС'!T14+'17.4. ДПО ГС'!L15</f>
         <v>1</v>
       </c>
     </row>
@@ -17247,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="13" t="b">
-        <f>D16+H16+L16='17.3. ДПО ГС'!M15+'17.3. ДПО ГС'!V15+'17.4. ДПО ГС'!L16</f>
+        <f>D16+H16+L16='17.3. ДПО ГС'!L15+'17.3. ДПО ГС'!T15+'17.4. ДПО ГС'!L16</f>
         <v>0</v>
       </c>
     </row>
@@ -17298,7 +17295,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="13" t="b">
-        <f>D17+H17+L17='17.3. ДПО ГС'!M16+'17.3. ДПО ГС'!V16+'17.4. ДПО ГС'!L17</f>
+        <f>D17+H17+L17='17.3. ДПО ГС'!L16+'17.3. ДПО ГС'!T16+'17.4. ДПО ГС'!L17</f>
         <v>1</v>
       </c>
     </row>
@@ -17349,7 +17346,7 @@
         <v>5</v>
       </c>
       <c r="R18" s="13" t="b">
-        <f>D18+H18+L18='17.3. ДПО ГС'!M17+'17.3. ДПО ГС'!V17+'17.4. ДПО ГС'!L18</f>
+        <f>D18+H18+L18='17.3. ДПО ГС'!L17+'17.3. ДПО ГС'!T17+'17.4. ДПО ГС'!L18</f>
         <v>1</v>
       </c>
     </row>
@@ -17400,7 +17397,7 @@
         <v>7</v>
       </c>
       <c r="R19" s="13" t="b">
-        <f>D19+H19+L19='17.3. ДПО ГС'!M18+'17.3. ДПО ГС'!V18+'17.4. ДПО ГС'!L19</f>
+        <f>D19+H19+L19='17.3. ДПО ГС'!L18+'17.3. ДПО ГС'!T18+'17.4. ДПО ГС'!L19</f>
         <v>1</v>
       </c>
     </row>
@@ -17451,7 +17448,7 @@
         <v>7</v>
       </c>
       <c r="R20" s="13" t="b">
-        <f>D20+H20+L20='17.3. ДПО ГС'!M19+'17.3. ДПО ГС'!V19+'17.4. ДПО ГС'!L20</f>
+        <f>D20+H20+L20='17.3. ДПО ГС'!L19+'17.3. ДПО ГС'!T19+'17.4. ДПО ГС'!L20</f>
         <v>1</v>
       </c>
     </row>
@@ -17502,7 +17499,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="13" t="b">
-        <f>D21+H21+L21='17.3. ДПО ГС'!M20+'17.3. ДПО ГС'!V20+'17.4. ДПО ГС'!L21</f>
+        <f>D21+H21+L21='17.3. ДПО ГС'!L20+'17.3. ДПО ГС'!T20+'17.4. ДПО ГС'!L21</f>
         <v>1</v>
       </c>
     </row>
@@ -17567,7 +17564,7 @@
         <v>49</v>
       </c>
       <c r="R22" s="13" t="b">
-        <f>D22+H22+L22='17.3. ДПО ГС'!M21+'17.3. ДПО ГС'!V21+'17.4. ДПО ГС'!L22</f>
+        <f>D22+H22+L22='17.3. ДПО ГС'!L21+'17.3. ДПО ГС'!T21+'17.4. ДПО ГС'!L22</f>
         <v>0</v>
       </c>
     </row>
@@ -17576,7 +17573,7 @@
     </row>
     <row r="24" spans="2:18" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="290" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="290"/>
       <c r="D24" s="290"/>
@@ -17622,10 +17619,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V22"/>
+  <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17638,24 +17635,22 @@
     <col min="6" max="6" width="9.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -17675,10 +17670,8 @@
       <c r="R1" s="50"/>
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-    </row>
-    <row r="2" spans="2:22" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:20" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="284" t="s">
         <v>87</v>
       </c>
@@ -17700,10 +17693,8 @@
       <c r="R2" s="284"/>
       <c r="S2" s="284"/>
       <c r="T2" s="284"/>
-      <c r="U2" s="284"/>
-      <c r="V2" s="284"/>
-    </row>
-    <row r="3" spans="2:22" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:20" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -17723,10 +17714,8 @@
       <c r="R3" s="50"/>
       <c r="S3" s="50"/>
       <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-    </row>
-    <row r="4" spans="2:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
@@ -17743,21 +17732,19 @@
       <c r="I4" s="298"/>
       <c r="J4" s="298"/>
       <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="296" t="s">
+      <c r="L4" s="299"/>
+      <c r="M4" s="296" t="s">
         <v>127</v>
       </c>
+      <c r="N4" s="296"/>
       <c r="O4" s="296"/>
       <c r="P4" s="296"/>
       <c r="Q4" s="296"/>
       <c r="R4" s="296"/>
       <c r="S4" s="296"/>
       <c r="T4" s="296"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="296"/>
-    </row>
-    <row r="5" spans="2:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="230"/>
       <c r="C5" s="217" t="s">
         <v>15</v>
@@ -17772,27 +17759,25 @@
       <c r="G5" s="247"/>
       <c r="H5" s="247"/>
       <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="273" t="s">
-        <v>239</v>
-      </c>
-      <c r="M5" s="273"/>
-      <c r="N5" s="246" t="s">
+      <c r="J5" s="248"/>
+      <c r="K5" s="264" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="264"/>
+      <c r="M5" s="246" t="s">
         <v>132</v>
       </c>
+      <c r="N5" s="247"/>
       <c r="O5" s="247"/>
       <c r="P5" s="247"/>
       <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="248"/>
-      <c r="U5" s="273" t="s">
-        <v>187</v>
-      </c>
-      <c r="V5" s="273"/>
-    </row>
-    <row r="6" spans="2:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="248"/>
+      <c r="S5" s="264" t="s">
+        <v>186</v>
+      </c>
+      <c r="T5" s="264"/>
+    </row>
+    <row r="6" spans="2:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="230"/>
       <c r="C6" s="219"/>
       <c r="D6" s="295"/>
@@ -17812,51 +17797,45 @@
         <v>185</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="K6" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="S6" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="T6" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="P6" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="108" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="117">
-        <f>F7+O7</f>
+        <f>F7+N7</f>
         <v>2389</v>
       </c>
       <c r="D7" s="101">
@@ -17877,55 +17856,49 @@
         <v>0</v>
       </c>
       <c r="I7" s="98">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7" s="98">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K7" s="98">
-        <v>26</v>
+        <v>2535</v>
       </c>
       <c r="L7" s="98">
-        <v>2535</v>
+        <v>2514</v>
       </c>
       <c r="M7" s="98">
-        <v>2514</v>
+        <v>2228</v>
       </c>
       <c r="N7" s="98">
-        <v>2228</v>
-      </c>
-      <c r="O7" s="98">
         <v>2273</v>
       </c>
-      <c r="P7" s="101">
-        <f>O7/C7</f>
+      <c r="O7" s="101">
+        <f>N7/C7</f>
         <v>0.95144411887819169</v>
       </c>
+      <c r="P7" s="98">
+        <v>0</v>
+      </c>
       <c r="Q7" s="98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="98">
-        <v>10</v>
+        <v>391</v>
       </c>
       <c r="S7" s="98">
-        <v>3</v>
+        <v>15102</v>
       </c>
       <c r="T7" s="98">
-        <v>391</v>
-      </c>
-      <c r="U7" s="98">
-        <v>15102</v>
-      </c>
-      <c r="V7" s="98">
         <v>15220</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="108" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="117">
-        <f t="shared" ref="C8:C21" si="0">F8+O8</f>
+        <f>F8+N8</f>
         <v>459</v>
       </c>
       <c r="D8" s="101">
@@ -17939,62 +17912,56 @@
         <v>21</v>
       </c>
       <c r="G8" s="101">
-        <f t="shared" ref="G8:G21" si="1">F8/C8</f>
+        <f t="shared" ref="G8:G21" si="0">F8/C8</f>
         <v>4.5751633986928102E-2</v>
       </c>
       <c r="H8" s="98">
         <v>13</v>
       </c>
       <c r="I8" s="98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" s="98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="98">
-        <v>3</v>
+        <v>441</v>
       </c>
       <c r="L8" s="98">
-        <v>441</v>
+        <v>393.3</v>
       </c>
       <c r="M8" s="98">
-        <v>393.3</v>
+        <v>413</v>
       </c>
       <c r="N8" s="98">
-        <v>413</v>
-      </c>
-      <c r="O8" s="98">
         <v>438</v>
       </c>
-      <c r="P8" s="101">
-        <f t="shared" ref="P8:P21" si="2">O8/C8</f>
+      <c r="O8" s="101">
+        <f>N8/C8</f>
         <v>0.95424836601307195</v>
       </c>
+      <c r="P8" s="98">
+        <v>344</v>
+      </c>
       <c r="Q8" s="98">
-        <v>344</v>
+        <v>2</v>
       </c>
       <c r="R8" s="98">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="S8" s="98">
-        <v>2</v>
+        <v>1533.1</v>
       </c>
       <c r="T8" s="98">
-        <v>126</v>
-      </c>
-      <c r="U8" s="98">
-        <v>1533.1</v>
-      </c>
-      <c r="V8" s="98">
         <v>1619.2</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="108" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="117">
-        <f t="shared" si="0"/>
+        <f>F9+N9</f>
         <v>525</v>
       </c>
       <c r="D9" s="101">
@@ -18008,7 +17975,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4285714285714287E-2</v>
       </c>
       <c r="H9" s="98">
@@ -18018,52 +17985,46 @@
         <v>0</v>
       </c>
       <c r="J9" s="98">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K9" s="98">
-        <v>18</v>
+        <v>725</v>
       </c>
       <c r="L9" s="98">
-        <v>725</v>
+        <v>503</v>
       </c>
       <c r="M9" s="98">
-        <v>503</v>
+        <v>323</v>
       </c>
       <c r="N9" s="98">
-        <v>323</v>
-      </c>
-      <c r="O9" s="98">
         <v>507</v>
       </c>
-      <c r="P9" s="101">
-        <f t="shared" si="2"/>
+      <c r="O9" s="101">
+        <f>N9/C9</f>
         <v>0.96571428571428575</v>
       </c>
+      <c r="P9" s="98">
+        <v>32</v>
+      </c>
       <c r="Q9" s="98">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R9" s="98">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="S9" s="98">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="T9" s="98">
-        <v>44</v>
-      </c>
-      <c r="U9" s="98">
-        <v>2352</v>
-      </c>
-      <c r="V9" s="98">
         <v>2139</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="108" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="117">
-        <f t="shared" si="0"/>
+        <f>F10+N10</f>
         <v>1342</v>
       </c>
       <c r="D10" s="101">
@@ -18077,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="98">
@@ -18096,43 +18057,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="98">
-        <v>0</v>
+        <v>1227</v>
       </c>
       <c r="N10" s="98">
-        <v>1227</v>
-      </c>
-      <c r="O10" s="98">
         <v>1342</v>
       </c>
-      <c r="P10" s="101">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="O10" s="101">
+        <f>N10/C10</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="98">
+        <v>0</v>
       </c>
       <c r="Q10" s="98">
         <v>0</v>
       </c>
-      <c r="R10" s="98">
-        <v>0</v>
+      <c r="R10" s="111">
+        <v>274</v>
       </c>
       <c r="S10" s="98">
-        <v>0</v>
-      </c>
-      <c r="T10" s="111">
-        <v>274</v>
-      </c>
-      <c r="U10" s="98">
         <v>7650</v>
       </c>
-      <c r="V10" s="98">
+      <c r="T10" s="98">
         <v>7002</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="108" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="117">
-        <f t="shared" si="0"/>
+        <f>F11+N11</f>
         <v>580</v>
       </c>
       <c r="D11" s="101">
@@ -18146,7 +18101,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-3</v>
       </c>
       <c r="H11" s="98">
@@ -18159,49 +18114,43 @@
         <v>0</v>
       </c>
       <c r="K11" s="98">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L11" s="98">
         <v>23</v>
       </c>
       <c r="M11" s="98">
-        <v>23</v>
+        <v>578</v>
       </c>
       <c r="N11" s="98">
         <v>578</v>
       </c>
-      <c r="O11" s="98">
-        <v>578</v>
-      </c>
-      <c r="P11" s="101">
-        <f t="shared" si="2"/>
+      <c r="O11" s="101">
+        <f>N11/C11</f>
         <v>0.99655172413793103</v>
       </c>
+      <c r="P11" s="98">
+        <v>47</v>
+      </c>
       <c r="Q11" s="98">
+        <v>1</v>
+      </c>
+      <c r="R11" s="98">
         <v>47</v>
       </c>
-      <c r="R11" s="98">
-        <v>0</v>
-      </c>
       <c r="S11" s="98">
-        <v>1</v>
+        <v>5141</v>
       </c>
       <c r="T11" s="98">
-        <v>47</v>
-      </c>
-      <c r="U11" s="98">
-        <v>5141</v>
-      </c>
-      <c r="V11" s="98">
         <v>4527</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="108" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="117">
-        <f t="shared" si="0"/>
+        <f>F12+N12</f>
         <v>428</v>
       </c>
       <c r="D12" s="101">
@@ -18215,14 +18164,14 @@
         <v>39</v>
       </c>
       <c r="G12" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.11214953271028E-2</v>
       </c>
       <c r="H12" s="98">
         <v>0</v>
       </c>
       <c r="I12" s="98">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J12" s="98">
         <v>0</v>
@@ -18234,43 +18183,37 @@
         <v>0</v>
       </c>
       <c r="M12" s="98">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="N12" s="98">
         <v>389</v>
       </c>
-      <c r="O12" s="98">
-        <v>389</v>
-      </c>
-      <c r="P12" s="101">
-        <f t="shared" si="2"/>
+      <c r="O12" s="101">
+        <f>N12/C12</f>
         <v>0.90887850467289721</v>
       </c>
+      <c r="P12" s="98">
+        <v>0</v>
+      </c>
       <c r="Q12" s="98">
         <v>0</v>
       </c>
       <c r="R12" s="98">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="S12" s="98">
-        <v>0</v>
+        <v>1925.4</v>
       </c>
       <c r="T12" s="98">
-        <v>0</v>
-      </c>
-      <c r="U12" s="98">
         <v>1925.4</v>
       </c>
-      <c r="V12" s="98">
-        <v>1925.4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="108" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="117">
-        <f t="shared" si="0"/>
+        <f>F13+N13</f>
         <v>1541</v>
       </c>
       <c r="D13" s="101">
@@ -18284,17 +18227,17 @@
         <v>8</v>
       </c>
       <c r="G13" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.1914341336794286E-3</v>
       </c>
       <c r="H13" s="98">
         <v>0</v>
       </c>
       <c r="I13" s="98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="98">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13" s="98">
         <v>0</v>
@@ -18303,43 +18246,37 @@
         <v>0</v>
       </c>
       <c r="M13" s="98">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="N13" s="98">
-        <v>776</v>
-      </c>
-      <c r="O13" s="98">
         <v>1533</v>
       </c>
-      <c r="P13" s="101">
-        <f t="shared" si="2"/>
+      <c r="O13" s="101">
+        <f>N13/C13</f>
         <v>0.9948085658663206</v>
       </c>
+      <c r="P13" s="98">
+        <v>40</v>
+      </c>
       <c r="Q13" s="98">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="R13" s="98">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="S13" s="98">
-        <v>2</v>
+        <v>7718</v>
       </c>
       <c r="T13" s="98">
-        <v>266</v>
-      </c>
-      <c r="U13" s="98">
-        <v>7718</v>
-      </c>
-      <c r="V13" s="98">
         <v>7963</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="108" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="117">
-        <f t="shared" si="0"/>
+        <f>F14+N14</f>
         <v>417</v>
       </c>
       <c r="D14" s="101">
@@ -18353,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="98">
@@ -18372,43 +18309,37 @@
         <v>0</v>
       </c>
       <c r="M14" s="98">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="N14" s="98">
-        <v>308</v>
-      </c>
-      <c r="O14" s="98">
         <v>417</v>
       </c>
-      <c r="P14" s="101">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="O14" s="101">
+        <f>N14/C14</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="98">
+        <v>0</v>
       </c>
       <c r="Q14" s="98">
         <v>0</v>
       </c>
       <c r="R14" s="98">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="S14" s="98">
-        <v>0</v>
+        <v>2754</v>
       </c>
       <c r="T14" s="98">
-        <v>117</v>
-      </c>
-      <c r="U14" s="98">
-        <v>2754</v>
-      </c>
-      <c r="V14" s="98">
         <v>1679</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="108" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="117">
-        <f t="shared" si="0"/>
+        <f>F15+N15</f>
         <v>887</v>
       </c>
       <c r="D15" s="101">
@@ -18422,62 +18353,56 @@
         <v>25</v>
       </c>
       <c r="G15" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8184892897406989E-2</v>
       </c>
       <c r="H15" s="98">
         <v>0</v>
       </c>
       <c r="I15" s="98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J15" s="98">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K15" s="98">
-        <v>11</v>
+        <v>741</v>
       </c>
       <c r="L15" s="98">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="M15" s="98">
-        <v>716</v>
+        <v>766</v>
       </c>
       <c r="N15" s="98">
-        <v>766</v>
-      </c>
-      <c r="O15" s="98">
         <v>862</v>
       </c>
-      <c r="P15" s="101">
-        <f t="shared" si="2"/>
+      <c r="O15" s="101">
+        <f>N15/C15</f>
         <v>0.971815107102593</v>
       </c>
+      <c r="P15" s="98">
+        <v>0</v>
+      </c>
       <c r="Q15" s="98">
         <v>0</v>
       </c>
       <c r="R15" s="98">
-        <v>157</v>
+        <v>514</v>
       </c>
       <c r="S15" s="98">
-        <v>0</v>
+        <v>2746.6</v>
       </c>
       <c r="T15" s="98">
-        <v>514</v>
-      </c>
-      <c r="U15" s="98">
-        <v>2746.6</v>
-      </c>
-      <c r="V15" s="98">
         <v>2653</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="108" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="117">
-        <f t="shared" si="0"/>
+        <f>F16+N16</f>
         <v>1689</v>
       </c>
       <c r="D16" s="101">
@@ -18491,62 +18416,56 @@
         <v>21</v>
       </c>
       <c r="G16" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2433392539964476E-2</v>
       </c>
       <c r="H16" s="98">
         <v>0</v>
       </c>
       <c r="I16" s="98">
+        <v>1</v>
+      </c>
+      <c r="J16" s="98">
         <v>19</v>
       </c>
-      <c r="J16" s="98">
-        <v>1</v>
-      </c>
       <c r="K16" s="98">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L16" s="98">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M16" s="98">
-        <v>24</v>
+        <v>847</v>
       </c>
       <c r="N16" s="98">
-        <v>847</v>
-      </c>
-      <c r="O16" s="98">
         <v>1668</v>
       </c>
-      <c r="P16" s="101">
-        <f t="shared" si="2"/>
+      <c r="O16" s="101">
+        <f>N16/C16</f>
         <v>0.98756660746003555</v>
       </c>
+      <c r="P16" s="98">
+        <v>0</v>
+      </c>
       <c r="Q16" s="98">
         <v>0</v>
       </c>
       <c r="R16" s="98">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="S16" s="98">
-        <v>0</v>
+        <v>7529</v>
       </c>
       <c r="T16" s="98">
-        <v>333</v>
-      </c>
-      <c r="U16" s="98">
-        <v>7529</v>
-      </c>
-      <c r="V16" s="98">
         <v>5083</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="108" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="117">
-        <f t="shared" si="0"/>
+        <f>F17+N17</f>
         <v>684</v>
       </c>
       <c r="D17" s="101">
@@ -18560,62 +18479,56 @@
         <v>17</v>
       </c>
       <c r="G17" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4853801169590642E-2</v>
       </c>
       <c r="H17" s="98">
         <v>0</v>
       </c>
       <c r="I17" s="98">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J17" s="98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="98">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L17" s="98">
         <v>70</v>
       </c>
       <c r="M17" s="98">
-        <v>70</v>
+        <v>607</v>
       </c>
       <c r="N17" s="98">
-        <v>607</v>
-      </c>
-      <c r="O17" s="98">
         <v>667</v>
       </c>
-      <c r="P17" s="101">
-        <f t="shared" si="2"/>
+      <c r="O17" s="101">
+        <f>N17/C17</f>
         <v>0.97514619883040932</v>
       </c>
+      <c r="P17" s="98">
+        <v>20</v>
+      </c>
       <c r="Q17" s="98">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R17" s="98">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="S17" s="98">
-        <v>2</v>
+        <v>2082</v>
       </c>
       <c r="T17" s="98">
-        <v>0</v>
-      </c>
-      <c r="U17" s="98">
         <v>2082</v>
       </c>
-      <c r="V17" s="98">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="108" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="117">
-        <f t="shared" si="0"/>
+        <f>F18+N18</f>
         <v>1470</v>
       </c>
       <c r="D18" s="101">
@@ -18629,62 +18542,56 @@
         <v>20</v>
       </c>
       <c r="G18" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3605442176870748E-2</v>
       </c>
       <c r="H18" s="98">
         <v>2</v>
       </c>
       <c r="I18" s="98">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J18" s="98">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K18" s="98">
-        <v>20</v>
+        <v>527.6</v>
       </c>
       <c r="L18" s="98">
-        <v>527.6</v>
+        <v>528</v>
       </c>
       <c r="M18" s="98">
-        <v>528</v>
+        <v>1200</v>
       </c>
       <c r="N18" s="98">
-        <v>1200</v>
-      </c>
-      <c r="O18" s="98">
         <v>1450</v>
       </c>
-      <c r="P18" s="101">
-        <f t="shared" si="2"/>
+      <c r="O18" s="101">
+        <f>N18/C18</f>
         <v>0.98639455782312924</v>
       </c>
+      <c r="P18" s="98">
+        <v>180</v>
+      </c>
       <c r="Q18" s="98">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="R18" s="98">
-        <v>170</v>
+        <v>1400</v>
       </c>
       <c r="S18" s="98">
-        <v>2</v>
+        <v>5813</v>
       </c>
       <c r="T18" s="98">
-        <v>1400</v>
-      </c>
-      <c r="U18" s="98">
-        <v>5813</v>
-      </c>
-      <c r="V18" s="98">
         <v>5798</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="108" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="117">
-        <f t="shared" si="0"/>
+        <f>F19+N19</f>
         <v>365</v>
       </c>
       <c r="D19" s="101">
@@ -18698,62 +18605,56 @@
         <v>8</v>
       </c>
       <c r="G19" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1917808219178082E-2</v>
       </c>
       <c r="H19" s="98">
         <v>0</v>
       </c>
       <c r="I19" s="98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19" s="98">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="L19" s="98">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="M19" s="98">
-        <v>149</v>
+        <v>378</v>
       </c>
       <c r="N19" s="98">
-        <v>378</v>
-      </c>
-      <c r="O19" s="98">
         <v>357</v>
       </c>
-      <c r="P19" s="101">
-        <f t="shared" si="2"/>
+      <c r="O19" s="101">
+        <f>N19/C19</f>
         <v>0.9780821917808219</v>
       </c>
+      <c r="P19" s="98">
+        <v>10</v>
+      </c>
       <c r="Q19" s="98">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R19" s="98">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="S19" s="98">
-        <v>6</v>
+        <v>3144</v>
       </c>
       <c r="T19" s="98">
-        <v>263</v>
-      </c>
-      <c r="U19" s="98">
-        <v>3144</v>
-      </c>
-      <c r="V19" s="98">
         <v>1953</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="108" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="117">
-        <f t="shared" si="0"/>
+        <f>F20+N20</f>
         <v>415</v>
       </c>
       <c r="D20" s="101">
@@ -18767,62 +18668,56 @@
         <v>6</v>
       </c>
       <c r="G20" s="101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4457831325301205E-2</v>
       </c>
       <c r="H20" s="98">
         <v>0</v>
       </c>
       <c r="I20" s="98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="98">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L20" s="98">
         <v>60</v>
       </c>
       <c r="M20" s="98">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="N20" s="98">
-        <v>360</v>
-      </c>
-      <c r="O20" s="98">
         <v>409</v>
       </c>
-      <c r="P20" s="101">
-        <f t="shared" si="2"/>
+      <c r="O20" s="101">
+        <f>N20/C20</f>
         <v>0.98554216867469879</v>
       </c>
+      <c r="P20" s="98">
+        <v>12</v>
+      </c>
       <c r="Q20" s="98">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R20" s="98">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="S20" s="98">
-        <v>1</v>
+        <v>1287</v>
       </c>
       <c r="T20" s="98">
-        <v>294</v>
-      </c>
-      <c r="U20" s="98">
-        <v>1287</v>
-      </c>
-      <c r="V20" s="98">
         <v>1147</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="109" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="118">
-        <f t="shared" si="0"/>
+        <f>F21+N21</f>
         <v>13191</v>
       </c>
       <c r="D21" s="103">
@@ -18838,71 +18733,63 @@
         <v>301</v>
       </c>
       <c r="G21" s="103">
+        <f t="shared" si="0"/>
+        <v>2.2818588431506331E-2</v>
+      </c>
+      <c r="H21" s="105">
+        <f t="shared" ref="H21:N21" si="1">SUM(H7:H20)</f>
+        <v>24</v>
+      </c>
+      <c r="I21" s="105">
         <f t="shared" si="1"/>
-        <v>2.2818588431506331E-2</v>
-      </c>
-      <c r="H21" s="105">
-        <f t="shared" ref="H21:O21" si="3">SUM(H7:H20)</f>
-        <v>24</v>
-      </c>
-      <c r="I21" s="105">
-        <f t="shared" si="3"/>
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="J21" s="105">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>102</v>
       </c>
       <c r="K21" s="105">
-        <f t="shared" si="3"/>
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>5292.6</v>
       </c>
       <c r="L21" s="105">
-        <f t="shared" si="3"/>
-        <v>5292.6</v>
+        <f t="shared" si="1"/>
+        <v>4980.3</v>
       </c>
       <c r="M21" s="105">
-        <f t="shared" si="3"/>
-        <v>4980.3</v>
+        <f t="shared" si="1"/>
+        <v>10400</v>
       </c>
       <c r="N21" s="105">
-        <f t="shared" si="3"/>
-        <v>10400</v>
-      </c>
-      <c r="O21" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12890</v>
       </c>
-      <c r="P21" s="103">
+      <c r="O21" s="103">
+        <f>N21/C21</f>
+        <v>0.9771814115684937</v>
+      </c>
+      <c r="P21" s="105">
+        <f t="shared" ref="P21:T21" si="2">SUM(P7:P20)</f>
+        <v>685</v>
+      </c>
+      <c r="Q21" s="105">
         <f t="shared" si="2"/>
-        <v>0.9771814115684937</v>
-      </c>
-      <c r="Q21" s="105">
-        <f t="shared" ref="Q21:V21" si="4">SUM(Q7:Q20)</f>
-        <v>685</v>
+        <v>19</v>
       </c>
       <c r="R21" s="105">
-        <f t="shared" si="4"/>
-        <v>921</v>
+        <f t="shared" si="2"/>
+        <v>4069</v>
       </c>
       <c r="S21" s="105">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>66777.100000000006</v>
       </c>
       <c r="T21" s="105">
-        <f t="shared" si="4"/>
-        <v>4069</v>
-      </c>
-      <c r="U21" s="105">
-        <f t="shared" si="4"/>
-        <v>66777.100000000006</v>
-      </c>
-      <c r="V21" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60790.600000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -18922,8 +18809,6 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -18932,18 +18817,18 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="M5:R5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -19026,7 +18911,7 @@
       <c r="I4" s="247"/>
       <c r="J4" s="248"/>
       <c r="K4" s="238" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L4" s="238"/>
     </row>
@@ -19054,11 +18939,11 @@
       <c r="C6" s="221"/>
       <c r="D6" s="301"/>
       <c r="E6" s="238" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" s="238"/>
       <c r="G6" s="246" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H6" s="247"/>
       <c r="I6" s="248"/>
@@ -20382,7 +20267,7 @@
         <v>142</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23678,7 +23563,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="205"/>
       <c r="G5" s="205"/>
